--- a/Pitches/Backlog.xlsx
+++ b/Pitches/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
   <si>
     <t>Deadline</t>
   </si>
@@ -66,6 +66,9 @@
     <t>Algemene analyse &amp; design</t>
   </si>
   <si>
+    <t>Flashcard idee verder uitwerken</t>
+  </si>
+  <si>
     <t>Detailanalyse &amp; -design, code, demo, iteratie 1</t>
   </si>
   <si>
@@ -105,6 +108,15 @@
     <t>Pitches gefinaliseerd</t>
   </si>
   <si>
+    <t>Oefenen pitches en pitches presenteren</t>
+  </si>
+  <si>
+    <t>Analyse eerste versie maken</t>
+  </si>
+  <si>
+    <t>Feedback analyse toepassen, fully dressed use cases maken</t>
+  </si>
+  <si>
     <t>Bespreking project</t>
   </si>
   <si>
@@ -123,6 +135,9 @@
     <t>Finishing Pitches completly</t>
   </si>
   <si>
+    <t>Working on Analyse</t>
+  </si>
+  <si>
     <t>Eerste meeting</t>
   </si>
   <si>
@@ -135,6 +150,15 @@
     <t>Laastste aanvulling pitches</t>
   </si>
   <si>
+    <t>Use case diagram gemaakt</t>
+  </si>
+  <si>
+    <t>Use cases opstellen overleg over het programma</t>
+  </si>
+  <si>
+    <t>Fully fledges use cases opstellen en feedback verwerken</t>
+  </si>
+  <si>
     <t xml:space="preserve">Totaaltijd </t>
   </si>
   <si>
@@ -163,6 +187,21 @@
   </si>
   <si>
     <t>1 uur 30 min</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Werken aan de analyse</t>
+  </si>
+  <si>
+    <t>3 uur</t>
+  </si>
+  <si>
+    <t>2 uur 40 min</t>
+  </si>
+  <si>
+    <t>3 uur 30 min</t>
   </si>
 </sst>
 </file>
@@ -266,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -326,9 +365,15 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -345,17 +390,34 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -700,19 +762,31 @@
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="8">
         <v>45614.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -726,7 +800,7 @@
         <v>45646.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -740,7 +814,7 @@
         <v>45649.0</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -792,7 +866,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -804,16 +878,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -821,7 +895,7 @@
         <v>45575.0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="16">
         <v>0.8020833333333334</v>
@@ -838,7 +912,7 @@
         <v>45579.0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="16">
         <v>0.4791666666666667</v>
@@ -856,7 +930,7 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="16">
         <v>0.6041666666666666</v>
@@ -874,7 +948,7 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -887,7 +961,7 @@
         <v>45582.0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="15">
         <v>3.5</v>
@@ -898,10 +972,43 @@
         <v>45584.0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="15">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12">
+        <v>45586.0</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12">
+        <v>45589.0</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="15">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12">
+        <v>45591.0</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="15">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +1037,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -942,16 +1049,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -959,7 +1066,7 @@
         <v>45575.0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="16">
         <v>0.8020833333333334</v>
@@ -967,7 +1074,7 @@
       <c r="F2" s="16">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="22">
         <f t="shared" ref="G2:G8" si="1">HOUR(F2-E2) + MINUTE(F2-E2) / 60</f>
         <v>0.75</v>
       </c>
@@ -977,7 +1084,7 @@
         <v>45579.0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" s="16">
         <v>0.4791666666666667</v>
@@ -985,7 +1092,7 @@
       <c r="F3" s="16">
         <v>0.5555555555555556</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="22">
         <f t="shared" si="1"/>
         <v>1.833333333</v>
       </c>
@@ -996,7 +1103,7 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" s="16">
         <v>0.6041666666666666</v>
@@ -1004,7 +1111,7 @@
       <c r="F4" s="16">
         <v>0.71875</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="22">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
@@ -1014,7 +1121,7 @@
         <v>45581.0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" s="16">
         <v>0.6666666666666666</v>
@@ -1022,7 +1129,7 @@
       <c r="F5" s="16">
         <v>0.6770833333333334</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="22">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
@@ -1032,7 +1139,7 @@
         <v>45582.0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E6" s="16">
         <v>0.4583333333333333</v>
@@ -1040,7 +1147,7 @@
       <c r="F6" s="16">
         <v>0.5416666666666666</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1049,8 +1156,8 @@
       <c r="A7" s="12">
         <v>45582.0</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>33</v>
+      <c r="C7" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="16">
         <v>0.5763888888888888</v>
@@ -1058,7 +1165,7 @@
       <c r="F7" s="16">
         <v>0.625</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="22">
         <f t="shared" si="1"/>
         <v>1.166666667</v>
       </c>
@@ -1067,8 +1174,8 @@
       <c r="A8" s="12">
         <v>45584.0</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>34</v>
+      <c r="C8" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="16">
         <v>0.75</v>
@@ -1076,12 +1183,3037 @@
       <c r="F8" s="16">
         <v>0.8125</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="22">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="12">
+        <v>45586.0</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12">
+        <v>45589.0</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" ref="G10:G11" si="2">HOUR(F10-E10) + MINUTE(F10-E10) / 60</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12">
+        <v>45589.0</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.7361111111111112</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="2"/>
+        <v>2.666666667</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13">
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14">
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16">
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17">
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18">
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19">
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20">
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22">
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23">
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24">
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25">
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26">
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27">
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28">
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30">
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31">
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32">
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33">
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34">
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35">
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36">
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37">
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38">
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39">
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40">
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41">
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42">
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43">
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44">
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45">
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46">
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47">
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48">
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49">
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50">
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51">
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52">
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53">
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54">
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55">
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56">
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57">
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58">
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59">
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60">
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61">
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62">
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63">
+      <c r="G63" s="22"/>
+    </row>
+    <row r="64">
+      <c r="G64" s="22"/>
+    </row>
+    <row r="65">
+      <c r="G65" s="22"/>
+    </row>
+    <row r="66">
+      <c r="G66" s="22"/>
+    </row>
+    <row r="67">
+      <c r="G67" s="22"/>
+    </row>
+    <row r="68">
+      <c r="G68" s="22"/>
+    </row>
+    <row r="69">
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70">
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71">
+      <c r="G71" s="22"/>
+    </row>
+    <row r="72">
+      <c r="G72" s="22"/>
+    </row>
+    <row r="73">
+      <c r="G73" s="22"/>
+    </row>
+    <row r="74">
+      <c r="G74" s="22"/>
+    </row>
+    <row r="75">
+      <c r="G75" s="22"/>
+    </row>
+    <row r="76">
+      <c r="G76" s="22"/>
+    </row>
+    <row r="77">
+      <c r="G77" s="22"/>
+    </row>
+    <row r="78">
+      <c r="G78" s="22"/>
+    </row>
+    <row r="79">
+      <c r="G79" s="22"/>
+    </row>
+    <row r="80">
+      <c r="G80" s="22"/>
+    </row>
+    <row r="81">
+      <c r="G81" s="22"/>
+    </row>
+    <row r="82">
+      <c r="G82" s="22"/>
+    </row>
+    <row r="83">
+      <c r="G83" s="22"/>
+    </row>
+    <row r="84">
+      <c r="G84" s="22"/>
+    </row>
+    <row r="85">
+      <c r="G85" s="22"/>
+    </row>
+    <row r="86">
+      <c r="G86" s="22"/>
+    </row>
+    <row r="87">
+      <c r="G87" s="22"/>
+    </row>
+    <row r="88">
+      <c r="G88" s="22"/>
+    </row>
+    <row r="89">
+      <c r="G89" s="22"/>
+    </row>
+    <row r="90">
+      <c r="G90" s="22"/>
+    </row>
+    <row r="91">
+      <c r="G91" s="22"/>
+    </row>
+    <row r="92">
+      <c r="G92" s="22"/>
+    </row>
+    <row r="93">
+      <c r="G93" s="22"/>
+    </row>
+    <row r="94">
+      <c r="G94" s="22"/>
+    </row>
+    <row r="95">
+      <c r="G95" s="22"/>
+    </row>
+    <row r="96">
+      <c r="G96" s="22"/>
+    </row>
+    <row r="97">
+      <c r="G97" s="22"/>
+    </row>
+    <row r="98">
+      <c r="G98" s="22"/>
+    </row>
+    <row r="99">
+      <c r="G99" s="22"/>
+    </row>
+    <row r="100">
+      <c r="G100" s="22"/>
+    </row>
+    <row r="101">
+      <c r="G101" s="22"/>
+    </row>
+    <row r="102">
+      <c r="G102" s="22"/>
+    </row>
+    <row r="103">
+      <c r="G103" s="22"/>
+    </row>
+    <row r="104">
+      <c r="G104" s="22"/>
+    </row>
+    <row r="105">
+      <c r="G105" s="22"/>
+    </row>
+    <row r="106">
+      <c r="G106" s="22"/>
+    </row>
+    <row r="107">
+      <c r="G107" s="22"/>
+    </row>
+    <row r="108">
+      <c r="G108" s="22"/>
+    </row>
+    <row r="109">
+      <c r="G109" s="22"/>
+    </row>
+    <row r="110">
+      <c r="G110" s="22"/>
+    </row>
+    <row r="111">
+      <c r="G111" s="22"/>
+    </row>
+    <row r="112">
+      <c r="G112" s="22"/>
+    </row>
+    <row r="113">
+      <c r="G113" s="22"/>
+    </row>
+    <row r="114">
+      <c r="G114" s="22"/>
+    </row>
+    <row r="115">
+      <c r="G115" s="22"/>
+    </row>
+    <row r="116">
+      <c r="G116" s="22"/>
+    </row>
+    <row r="117">
+      <c r="G117" s="22"/>
+    </row>
+    <row r="118">
+      <c r="G118" s="22"/>
+    </row>
+    <row r="119">
+      <c r="G119" s="22"/>
+    </row>
+    <row r="120">
+      <c r="G120" s="22"/>
+    </row>
+    <row r="121">
+      <c r="G121" s="22"/>
+    </row>
+    <row r="122">
+      <c r="G122" s="22"/>
+    </row>
+    <row r="123">
+      <c r="G123" s="22"/>
+    </row>
+    <row r="124">
+      <c r="G124" s="22"/>
+    </row>
+    <row r="125">
+      <c r="G125" s="22"/>
+    </row>
+    <row r="126">
+      <c r="G126" s="22"/>
+    </row>
+    <row r="127">
+      <c r="G127" s="22"/>
+    </row>
+    <row r="128">
+      <c r="G128" s="22"/>
+    </row>
+    <row r="129">
+      <c r="G129" s="22"/>
+    </row>
+    <row r="130">
+      <c r="G130" s="22"/>
+    </row>
+    <row r="131">
+      <c r="G131" s="22"/>
+    </row>
+    <row r="132">
+      <c r="G132" s="22"/>
+    </row>
+    <row r="133">
+      <c r="G133" s="22"/>
+    </row>
+    <row r="134">
+      <c r="G134" s="22"/>
+    </row>
+    <row r="135">
+      <c r="G135" s="22"/>
+    </row>
+    <row r="136">
+      <c r="G136" s="22"/>
+    </row>
+    <row r="137">
+      <c r="G137" s="22"/>
+    </row>
+    <row r="138">
+      <c r="G138" s="22"/>
+    </row>
+    <row r="139">
+      <c r="G139" s="22"/>
+    </row>
+    <row r="140">
+      <c r="G140" s="22"/>
+    </row>
+    <row r="141">
+      <c r="G141" s="22"/>
+    </row>
+    <row r="142">
+      <c r="G142" s="22"/>
+    </row>
+    <row r="143">
+      <c r="G143" s="22"/>
+    </row>
+    <row r="144">
+      <c r="G144" s="22"/>
+    </row>
+    <row r="145">
+      <c r="G145" s="22"/>
+    </row>
+    <row r="146">
+      <c r="G146" s="22"/>
+    </row>
+    <row r="147">
+      <c r="G147" s="22"/>
+    </row>
+    <row r="148">
+      <c r="G148" s="22"/>
+    </row>
+    <row r="149">
+      <c r="G149" s="22"/>
+    </row>
+    <row r="150">
+      <c r="G150" s="22"/>
+    </row>
+    <row r="151">
+      <c r="G151" s="22"/>
+    </row>
+    <row r="152">
+      <c r="G152" s="22"/>
+    </row>
+    <row r="153">
+      <c r="G153" s="22"/>
+    </row>
+    <row r="154">
+      <c r="G154" s="22"/>
+    </row>
+    <row r="155">
+      <c r="G155" s="22"/>
+    </row>
+    <row r="156">
+      <c r="G156" s="22"/>
+    </row>
+    <row r="157">
+      <c r="G157" s="22"/>
+    </row>
+    <row r="158">
+      <c r="G158" s="22"/>
+    </row>
+    <row r="159">
+      <c r="G159" s="22"/>
+    </row>
+    <row r="160">
+      <c r="G160" s="22"/>
+    </row>
+    <row r="161">
+      <c r="G161" s="22"/>
+    </row>
+    <row r="162">
+      <c r="G162" s="22"/>
+    </row>
+    <row r="163">
+      <c r="G163" s="22"/>
+    </row>
+    <row r="164">
+      <c r="G164" s="22"/>
+    </row>
+    <row r="165">
+      <c r="G165" s="22"/>
+    </row>
+    <row r="166">
+      <c r="G166" s="22"/>
+    </row>
+    <row r="167">
+      <c r="G167" s="22"/>
+    </row>
+    <row r="168">
+      <c r="G168" s="22"/>
+    </row>
+    <row r="169">
+      <c r="G169" s="22"/>
+    </row>
+    <row r="170">
+      <c r="G170" s="22"/>
+    </row>
+    <row r="171">
+      <c r="G171" s="22"/>
+    </row>
+    <row r="172">
+      <c r="G172" s="22"/>
+    </row>
+    <row r="173">
+      <c r="G173" s="22"/>
+    </row>
+    <row r="174">
+      <c r="G174" s="22"/>
+    </row>
+    <row r="175">
+      <c r="G175" s="22"/>
+    </row>
+    <row r="176">
+      <c r="G176" s="22"/>
+    </row>
+    <row r="177">
+      <c r="G177" s="22"/>
+    </row>
+    <row r="178">
+      <c r="G178" s="22"/>
+    </row>
+    <row r="179">
+      <c r="G179" s="22"/>
+    </row>
+    <row r="180">
+      <c r="G180" s="22"/>
+    </row>
+    <row r="181">
+      <c r="G181" s="22"/>
+    </row>
+    <row r="182">
+      <c r="G182" s="22"/>
+    </row>
+    <row r="183">
+      <c r="G183" s="22"/>
+    </row>
+    <row r="184">
+      <c r="G184" s="22"/>
+    </row>
+    <row r="185">
+      <c r="G185" s="22"/>
+    </row>
+    <row r="186">
+      <c r="G186" s="22"/>
+    </row>
+    <row r="187">
+      <c r="G187" s="22"/>
+    </row>
+    <row r="188">
+      <c r="G188" s="22"/>
+    </row>
+    <row r="189">
+      <c r="G189" s="22"/>
+    </row>
+    <row r="190">
+      <c r="G190" s="22"/>
+    </row>
+    <row r="191">
+      <c r="G191" s="22"/>
+    </row>
+    <row r="192">
+      <c r="G192" s="22"/>
+    </row>
+    <row r="193">
+      <c r="G193" s="22"/>
+    </row>
+    <row r="194">
+      <c r="G194" s="22"/>
+    </row>
+    <row r="195">
+      <c r="G195" s="22"/>
+    </row>
+    <row r="196">
+      <c r="G196" s="22"/>
+    </row>
+    <row r="197">
+      <c r="G197" s="22"/>
+    </row>
+    <row r="198">
+      <c r="G198" s="22"/>
+    </row>
+    <row r="199">
+      <c r="G199" s="22"/>
+    </row>
+    <row r="200">
+      <c r="G200" s="22"/>
+    </row>
+    <row r="201">
+      <c r="G201" s="22"/>
+    </row>
+    <row r="202">
+      <c r="G202" s="22"/>
+    </row>
+    <row r="203">
+      <c r="G203" s="22"/>
+    </row>
+    <row r="204">
+      <c r="G204" s="22"/>
+    </row>
+    <row r="205">
+      <c r="G205" s="22"/>
+    </row>
+    <row r="206">
+      <c r="G206" s="22"/>
+    </row>
+    <row r="207">
+      <c r="G207" s="22"/>
+    </row>
+    <row r="208">
+      <c r="G208" s="22"/>
+    </row>
+    <row r="209">
+      <c r="G209" s="22"/>
+    </row>
+    <row r="210">
+      <c r="G210" s="22"/>
+    </row>
+    <row r="211">
+      <c r="G211" s="22"/>
+    </row>
+    <row r="212">
+      <c r="G212" s="22"/>
+    </row>
+    <row r="213">
+      <c r="G213" s="22"/>
+    </row>
+    <row r="214">
+      <c r="G214" s="22"/>
+    </row>
+    <row r="215">
+      <c r="G215" s="22"/>
+    </row>
+    <row r="216">
+      <c r="G216" s="22"/>
+    </row>
+    <row r="217">
+      <c r="G217" s="22"/>
+    </row>
+    <row r="218">
+      <c r="G218" s="22"/>
+    </row>
+    <row r="219">
+      <c r="G219" s="22"/>
+    </row>
+    <row r="220">
+      <c r="G220" s="22"/>
+    </row>
+    <row r="221">
+      <c r="G221" s="22"/>
+    </row>
+    <row r="222">
+      <c r="G222" s="22"/>
+    </row>
+    <row r="223">
+      <c r="G223" s="22"/>
+    </row>
+    <row r="224">
+      <c r="G224" s="22"/>
+    </row>
+    <row r="225">
+      <c r="G225" s="22"/>
+    </row>
+    <row r="226">
+      <c r="G226" s="22"/>
+    </row>
+    <row r="227">
+      <c r="G227" s="22"/>
+    </row>
+    <row r="228">
+      <c r="G228" s="22"/>
+    </row>
+    <row r="229">
+      <c r="G229" s="22"/>
+    </row>
+    <row r="230">
+      <c r="G230" s="22"/>
+    </row>
+    <row r="231">
+      <c r="G231" s="22"/>
+    </row>
+    <row r="232">
+      <c r="G232" s="22"/>
+    </row>
+    <row r="233">
+      <c r="G233" s="22"/>
+    </row>
+    <row r="234">
+      <c r="G234" s="22"/>
+    </row>
+    <row r="235">
+      <c r="G235" s="22"/>
+    </row>
+    <row r="236">
+      <c r="G236" s="22"/>
+    </row>
+    <row r="237">
+      <c r="G237" s="22"/>
+    </row>
+    <row r="238">
+      <c r="G238" s="22"/>
+    </row>
+    <row r="239">
+      <c r="G239" s="22"/>
+    </row>
+    <row r="240">
+      <c r="G240" s="22"/>
+    </row>
+    <row r="241">
+      <c r="G241" s="22"/>
+    </row>
+    <row r="242">
+      <c r="G242" s="22"/>
+    </row>
+    <row r="243">
+      <c r="G243" s="22"/>
+    </row>
+    <row r="244">
+      <c r="G244" s="22"/>
+    </row>
+    <row r="245">
+      <c r="G245" s="22"/>
+    </row>
+    <row r="246">
+      <c r="G246" s="22"/>
+    </row>
+    <row r="247">
+      <c r="G247" s="22"/>
+    </row>
+    <row r="248">
+      <c r="G248" s="22"/>
+    </row>
+    <row r="249">
+      <c r="G249" s="22"/>
+    </row>
+    <row r="250">
+      <c r="G250" s="22"/>
+    </row>
+    <row r="251">
+      <c r="G251" s="22"/>
+    </row>
+    <row r="252">
+      <c r="G252" s="22"/>
+    </row>
+    <row r="253">
+      <c r="G253" s="22"/>
+    </row>
+    <row r="254">
+      <c r="G254" s="22"/>
+    </row>
+    <row r="255">
+      <c r="G255" s="22"/>
+    </row>
+    <row r="256">
+      <c r="G256" s="22"/>
+    </row>
+    <row r="257">
+      <c r="G257" s="22"/>
+    </row>
+    <row r="258">
+      <c r="G258" s="22"/>
+    </row>
+    <row r="259">
+      <c r="G259" s="22"/>
+    </row>
+    <row r="260">
+      <c r="G260" s="22"/>
+    </row>
+    <row r="261">
+      <c r="G261" s="22"/>
+    </row>
+    <row r="262">
+      <c r="G262" s="22"/>
+    </row>
+    <row r="263">
+      <c r="G263" s="22"/>
+    </row>
+    <row r="264">
+      <c r="G264" s="22"/>
+    </row>
+    <row r="265">
+      <c r="G265" s="22"/>
+    </row>
+    <row r="266">
+      <c r="G266" s="22"/>
+    </row>
+    <row r="267">
+      <c r="G267" s="22"/>
+    </row>
+    <row r="268">
+      <c r="G268" s="22"/>
+    </row>
+    <row r="269">
+      <c r="G269" s="22"/>
+    </row>
+    <row r="270">
+      <c r="G270" s="22"/>
+    </row>
+    <row r="271">
+      <c r="G271" s="22"/>
+    </row>
+    <row r="272">
+      <c r="G272" s="22"/>
+    </row>
+    <row r="273">
+      <c r="G273" s="22"/>
+    </row>
+    <row r="274">
+      <c r="G274" s="22"/>
+    </row>
+    <row r="275">
+      <c r="G275" s="22"/>
+    </row>
+    <row r="276">
+      <c r="G276" s="22"/>
+    </row>
+    <row r="277">
+      <c r="G277" s="22"/>
+    </row>
+    <row r="278">
+      <c r="G278" s="22"/>
+    </row>
+    <row r="279">
+      <c r="G279" s="22"/>
+    </row>
+    <row r="280">
+      <c r="G280" s="22"/>
+    </row>
+    <row r="281">
+      <c r="G281" s="22"/>
+    </row>
+    <row r="282">
+      <c r="G282" s="22"/>
+    </row>
+    <row r="283">
+      <c r="G283" s="22"/>
+    </row>
+    <row r="284">
+      <c r="G284" s="22"/>
+    </row>
+    <row r="285">
+      <c r="G285" s="22"/>
+    </row>
+    <row r="286">
+      <c r="G286" s="22"/>
+    </row>
+    <row r="287">
+      <c r="G287" s="22"/>
+    </row>
+    <row r="288">
+      <c r="G288" s="22"/>
+    </row>
+    <row r="289">
+      <c r="G289" s="22"/>
+    </row>
+    <row r="290">
+      <c r="G290" s="22"/>
+    </row>
+    <row r="291">
+      <c r="G291" s="22"/>
+    </row>
+    <row r="292">
+      <c r="G292" s="22"/>
+    </row>
+    <row r="293">
+      <c r="G293" s="22"/>
+    </row>
+    <row r="294">
+      <c r="G294" s="22"/>
+    </row>
+    <row r="295">
+      <c r="G295" s="22"/>
+    </row>
+    <row r="296">
+      <c r="G296" s="22"/>
+    </row>
+    <row r="297">
+      <c r="G297" s="22"/>
+    </row>
+    <row r="298">
+      <c r="G298" s="22"/>
+    </row>
+    <row r="299">
+      <c r="G299" s="22"/>
+    </row>
+    <row r="300">
+      <c r="G300" s="22"/>
+    </row>
+    <row r="301">
+      <c r="G301" s="22"/>
+    </row>
+    <row r="302">
+      <c r="G302" s="22"/>
+    </row>
+    <row r="303">
+      <c r="G303" s="22"/>
+    </row>
+    <row r="304">
+      <c r="G304" s="22"/>
+    </row>
+    <row r="305">
+      <c r="G305" s="22"/>
+    </row>
+    <row r="306">
+      <c r="G306" s="22"/>
+    </row>
+    <row r="307">
+      <c r="G307" s="22"/>
+    </row>
+    <row r="308">
+      <c r="G308" s="22"/>
+    </row>
+    <row r="309">
+      <c r="G309" s="22"/>
+    </row>
+    <row r="310">
+      <c r="G310" s="22"/>
+    </row>
+    <row r="311">
+      <c r="G311" s="22"/>
+    </row>
+    <row r="312">
+      <c r="G312" s="22"/>
+    </row>
+    <row r="313">
+      <c r="G313" s="22"/>
+    </row>
+    <row r="314">
+      <c r="G314" s="22"/>
+    </row>
+    <row r="315">
+      <c r="G315" s="22"/>
+    </row>
+    <row r="316">
+      <c r="G316" s="22"/>
+    </row>
+    <row r="317">
+      <c r="G317" s="22"/>
+    </row>
+    <row r="318">
+      <c r="G318" s="22"/>
+    </row>
+    <row r="319">
+      <c r="G319" s="22"/>
+    </row>
+    <row r="320">
+      <c r="G320" s="22"/>
+    </row>
+    <row r="321">
+      <c r="G321" s="22"/>
+    </row>
+    <row r="322">
+      <c r="G322" s="22"/>
+    </row>
+    <row r="323">
+      <c r="G323" s="22"/>
+    </row>
+    <row r="324">
+      <c r="G324" s="22"/>
+    </row>
+    <row r="325">
+      <c r="G325" s="22"/>
+    </row>
+    <row r="326">
+      <c r="G326" s="22"/>
+    </row>
+    <row r="327">
+      <c r="G327" s="22"/>
+    </row>
+    <row r="328">
+      <c r="G328" s="22"/>
+    </row>
+    <row r="329">
+      <c r="G329" s="22"/>
+    </row>
+    <row r="330">
+      <c r="G330" s="22"/>
+    </row>
+    <row r="331">
+      <c r="G331" s="22"/>
+    </row>
+    <row r="332">
+      <c r="G332" s="22"/>
+    </row>
+    <row r="333">
+      <c r="G333" s="22"/>
+    </row>
+    <row r="334">
+      <c r="G334" s="22"/>
+    </row>
+    <row r="335">
+      <c r="G335" s="22"/>
+    </row>
+    <row r="336">
+      <c r="G336" s="22"/>
+    </row>
+    <row r="337">
+      <c r="G337" s="22"/>
+    </row>
+    <row r="338">
+      <c r="G338" s="22"/>
+    </row>
+    <row r="339">
+      <c r="G339" s="22"/>
+    </row>
+    <row r="340">
+      <c r="G340" s="22"/>
+    </row>
+    <row r="341">
+      <c r="G341" s="22"/>
+    </row>
+    <row r="342">
+      <c r="G342" s="22"/>
+    </row>
+    <row r="343">
+      <c r="G343" s="22"/>
+    </row>
+    <row r="344">
+      <c r="G344" s="22"/>
+    </row>
+    <row r="345">
+      <c r="G345" s="22"/>
+    </row>
+    <row r="346">
+      <c r="G346" s="22"/>
+    </row>
+    <row r="347">
+      <c r="G347" s="22"/>
+    </row>
+    <row r="348">
+      <c r="G348" s="22"/>
+    </row>
+    <row r="349">
+      <c r="G349" s="22"/>
+    </row>
+    <row r="350">
+      <c r="G350" s="22"/>
+    </row>
+    <row r="351">
+      <c r="G351" s="22"/>
+    </row>
+    <row r="352">
+      <c r="G352" s="22"/>
+    </row>
+    <row r="353">
+      <c r="G353" s="22"/>
+    </row>
+    <row r="354">
+      <c r="G354" s="22"/>
+    </row>
+    <row r="355">
+      <c r="G355" s="22"/>
+    </row>
+    <row r="356">
+      <c r="G356" s="22"/>
+    </row>
+    <row r="357">
+      <c r="G357" s="22"/>
+    </row>
+    <row r="358">
+      <c r="G358" s="22"/>
+    </row>
+    <row r="359">
+      <c r="G359" s="22"/>
+    </row>
+    <row r="360">
+      <c r="G360" s="22"/>
+    </row>
+    <row r="361">
+      <c r="G361" s="22"/>
+    </row>
+    <row r="362">
+      <c r="G362" s="22"/>
+    </row>
+    <row r="363">
+      <c r="G363" s="22"/>
+    </row>
+    <row r="364">
+      <c r="G364" s="22"/>
+    </row>
+    <row r="365">
+      <c r="G365" s="22"/>
+    </row>
+    <row r="366">
+      <c r="G366" s="22"/>
+    </row>
+    <row r="367">
+      <c r="G367" s="22"/>
+    </row>
+    <row r="368">
+      <c r="G368" s="22"/>
+    </row>
+    <row r="369">
+      <c r="G369" s="22"/>
+    </row>
+    <row r="370">
+      <c r="G370" s="22"/>
+    </row>
+    <row r="371">
+      <c r="G371" s="22"/>
+    </row>
+    <row r="372">
+      <c r="G372" s="22"/>
+    </row>
+    <row r="373">
+      <c r="G373" s="22"/>
+    </row>
+    <row r="374">
+      <c r="G374" s="22"/>
+    </row>
+    <row r="375">
+      <c r="G375" s="22"/>
+    </row>
+    <row r="376">
+      <c r="G376" s="22"/>
+    </row>
+    <row r="377">
+      <c r="G377" s="22"/>
+    </row>
+    <row r="378">
+      <c r="G378" s="22"/>
+    </row>
+    <row r="379">
+      <c r="G379" s="22"/>
+    </row>
+    <row r="380">
+      <c r="G380" s="22"/>
+    </row>
+    <row r="381">
+      <c r="G381" s="22"/>
+    </row>
+    <row r="382">
+      <c r="G382" s="22"/>
+    </row>
+    <row r="383">
+      <c r="G383" s="22"/>
+    </row>
+    <row r="384">
+      <c r="G384" s="22"/>
+    </row>
+    <row r="385">
+      <c r="G385" s="22"/>
+    </row>
+    <row r="386">
+      <c r="G386" s="22"/>
+    </row>
+    <row r="387">
+      <c r="G387" s="22"/>
+    </row>
+    <row r="388">
+      <c r="G388" s="22"/>
+    </row>
+    <row r="389">
+      <c r="G389" s="22"/>
+    </row>
+    <row r="390">
+      <c r="G390" s="22"/>
+    </row>
+    <row r="391">
+      <c r="G391" s="22"/>
+    </row>
+    <row r="392">
+      <c r="G392" s="22"/>
+    </row>
+    <row r="393">
+      <c r="G393" s="22"/>
+    </row>
+    <row r="394">
+      <c r="G394" s="22"/>
+    </row>
+    <row r="395">
+      <c r="G395" s="22"/>
+    </row>
+    <row r="396">
+      <c r="G396" s="22"/>
+    </row>
+    <row r="397">
+      <c r="G397" s="22"/>
+    </row>
+    <row r="398">
+      <c r="G398" s="22"/>
+    </row>
+    <row r="399">
+      <c r="G399" s="22"/>
+    </row>
+    <row r="400">
+      <c r="G400" s="22"/>
+    </row>
+    <row r="401">
+      <c r="G401" s="22"/>
+    </row>
+    <row r="402">
+      <c r="G402" s="22"/>
+    </row>
+    <row r="403">
+      <c r="G403" s="22"/>
+    </row>
+    <row r="404">
+      <c r="G404" s="22"/>
+    </row>
+    <row r="405">
+      <c r="G405" s="22"/>
+    </row>
+    <row r="406">
+      <c r="G406" s="22"/>
+    </row>
+    <row r="407">
+      <c r="G407" s="22"/>
+    </row>
+    <row r="408">
+      <c r="G408" s="22"/>
+    </row>
+    <row r="409">
+      <c r="G409" s="22"/>
+    </row>
+    <row r="410">
+      <c r="G410" s="22"/>
+    </row>
+    <row r="411">
+      <c r="G411" s="22"/>
+    </row>
+    <row r="412">
+      <c r="G412" s="22"/>
+    </row>
+    <row r="413">
+      <c r="G413" s="22"/>
+    </row>
+    <row r="414">
+      <c r="G414" s="22"/>
+    </row>
+    <row r="415">
+      <c r="G415" s="22"/>
+    </row>
+    <row r="416">
+      <c r="G416" s="22"/>
+    </row>
+    <row r="417">
+      <c r="G417" s="22"/>
+    </row>
+    <row r="418">
+      <c r="G418" s="22"/>
+    </row>
+    <row r="419">
+      <c r="G419" s="22"/>
+    </row>
+    <row r="420">
+      <c r="G420" s="22"/>
+    </row>
+    <row r="421">
+      <c r="G421" s="22"/>
+    </row>
+    <row r="422">
+      <c r="G422" s="22"/>
+    </row>
+    <row r="423">
+      <c r="G423" s="22"/>
+    </row>
+    <row r="424">
+      <c r="G424" s="22"/>
+    </row>
+    <row r="425">
+      <c r="G425" s="22"/>
+    </row>
+    <row r="426">
+      <c r="G426" s="22"/>
+    </row>
+    <row r="427">
+      <c r="G427" s="22"/>
+    </row>
+    <row r="428">
+      <c r="G428" s="22"/>
+    </row>
+    <row r="429">
+      <c r="G429" s="22"/>
+    </row>
+    <row r="430">
+      <c r="G430" s="22"/>
+    </row>
+    <row r="431">
+      <c r="G431" s="22"/>
+    </row>
+    <row r="432">
+      <c r="G432" s="22"/>
+    </row>
+    <row r="433">
+      <c r="G433" s="22"/>
+    </row>
+    <row r="434">
+      <c r="G434" s="22"/>
+    </row>
+    <row r="435">
+      <c r="G435" s="22"/>
+    </row>
+    <row r="436">
+      <c r="G436" s="22"/>
+    </row>
+    <row r="437">
+      <c r="G437" s="22"/>
+    </row>
+    <row r="438">
+      <c r="G438" s="22"/>
+    </row>
+    <row r="439">
+      <c r="G439" s="22"/>
+    </row>
+    <row r="440">
+      <c r="G440" s="22"/>
+    </row>
+    <row r="441">
+      <c r="G441" s="22"/>
+    </row>
+    <row r="442">
+      <c r="G442" s="22"/>
+    </row>
+    <row r="443">
+      <c r="G443" s="22"/>
+    </row>
+    <row r="444">
+      <c r="G444" s="22"/>
+    </row>
+    <row r="445">
+      <c r="G445" s="22"/>
+    </row>
+    <row r="446">
+      <c r="G446" s="22"/>
+    </row>
+    <row r="447">
+      <c r="G447" s="22"/>
+    </row>
+    <row r="448">
+      <c r="G448" s="22"/>
+    </row>
+    <row r="449">
+      <c r="G449" s="22"/>
+    </row>
+    <row r="450">
+      <c r="G450" s="22"/>
+    </row>
+    <row r="451">
+      <c r="G451" s="22"/>
+    </row>
+    <row r="452">
+      <c r="G452" s="22"/>
+    </row>
+    <row r="453">
+      <c r="G453" s="22"/>
+    </row>
+    <row r="454">
+      <c r="G454" s="22"/>
+    </row>
+    <row r="455">
+      <c r="G455" s="22"/>
+    </row>
+    <row r="456">
+      <c r="G456" s="22"/>
+    </row>
+    <row r="457">
+      <c r="G457" s="22"/>
+    </row>
+    <row r="458">
+      <c r="G458" s="22"/>
+    </row>
+    <row r="459">
+      <c r="G459" s="22"/>
+    </row>
+    <row r="460">
+      <c r="G460" s="22"/>
+    </row>
+    <row r="461">
+      <c r="G461" s="22"/>
+    </row>
+    <row r="462">
+      <c r="G462" s="22"/>
+    </row>
+    <row r="463">
+      <c r="G463" s="22"/>
+    </row>
+    <row r="464">
+      <c r="G464" s="22"/>
+    </row>
+    <row r="465">
+      <c r="G465" s="22"/>
+    </row>
+    <row r="466">
+      <c r="G466" s="22"/>
+    </row>
+    <row r="467">
+      <c r="G467" s="22"/>
+    </row>
+    <row r="468">
+      <c r="G468" s="22"/>
+    </row>
+    <row r="469">
+      <c r="G469" s="22"/>
+    </row>
+    <row r="470">
+      <c r="G470" s="22"/>
+    </row>
+    <row r="471">
+      <c r="G471" s="22"/>
+    </row>
+    <row r="472">
+      <c r="G472" s="22"/>
+    </row>
+    <row r="473">
+      <c r="G473" s="22"/>
+    </row>
+    <row r="474">
+      <c r="G474" s="22"/>
+    </row>
+    <row r="475">
+      <c r="G475" s="22"/>
+    </row>
+    <row r="476">
+      <c r="G476" s="22"/>
+    </row>
+    <row r="477">
+      <c r="G477" s="22"/>
+    </row>
+    <row r="478">
+      <c r="G478" s="22"/>
+    </row>
+    <row r="479">
+      <c r="G479" s="22"/>
+    </row>
+    <row r="480">
+      <c r="G480" s="22"/>
+    </row>
+    <row r="481">
+      <c r="G481" s="22"/>
+    </row>
+    <row r="482">
+      <c r="G482" s="22"/>
+    </row>
+    <row r="483">
+      <c r="G483" s="22"/>
+    </row>
+    <row r="484">
+      <c r="G484" s="22"/>
+    </row>
+    <row r="485">
+      <c r="G485" s="22"/>
+    </row>
+    <row r="486">
+      <c r="G486" s="22"/>
+    </row>
+    <row r="487">
+      <c r="G487" s="22"/>
+    </row>
+    <row r="488">
+      <c r="G488" s="22"/>
+    </row>
+    <row r="489">
+      <c r="G489" s="22"/>
+    </row>
+    <row r="490">
+      <c r="G490" s="22"/>
+    </row>
+    <row r="491">
+      <c r="G491" s="22"/>
+    </row>
+    <row r="492">
+      <c r="G492" s="22"/>
+    </row>
+    <row r="493">
+      <c r="G493" s="22"/>
+    </row>
+    <row r="494">
+      <c r="G494" s="22"/>
+    </row>
+    <row r="495">
+      <c r="G495" s="22"/>
+    </row>
+    <row r="496">
+      <c r="G496" s="22"/>
+    </row>
+    <row r="497">
+      <c r="G497" s="22"/>
+    </row>
+    <row r="498">
+      <c r="G498" s="22"/>
+    </row>
+    <row r="499">
+      <c r="G499" s="22"/>
+    </row>
+    <row r="500">
+      <c r="G500" s="22"/>
+    </row>
+    <row r="501">
+      <c r="G501" s="22"/>
+    </row>
+    <row r="502">
+      <c r="G502" s="22"/>
+    </row>
+    <row r="503">
+      <c r="G503" s="22"/>
+    </row>
+    <row r="504">
+      <c r="G504" s="22"/>
+    </row>
+    <row r="505">
+      <c r="G505" s="22"/>
+    </row>
+    <row r="506">
+      <c r="G506" s="22"/>
+    </row>
+    <row r="507">
+      <c r="G507" s="22"/>
+    </row>
+    <row r="508">
+      <c r="G508" s="22"/>
+    </row>
+    <row r="509">
+      <c r="G509" s="22"/>
+    </row>
+    <row r="510">
+      <c r="G510" s="22"/>
+    </row>
+    <row r="511">
+      <c r="G511" s="22"/>
+    </row>
+    <row r="512">
+      <c r="G512" s="22"/>
+    </row>
+    <row r="513">
+      <c r="G513" s="22"/>
+    </row>
+    <row r="514">
+      <c r="G514" s="22"/>
+    </row>
+    <row r="515">
+      <c r="G515" s="22"/>
+    </row>
+    <row r="516">
+      <c r="G516" s="22"/>
+    </row>
+    <row r="517">
+      <c r="G517" s="22"/>
+    </row>
+    <row r="518">
+      <c r="G518" s="22"/>
+    </row>
+    <row r="519">
+      <c r="G519" s="22"/>
+    </row>
+    <row r="520">
+      <c r="G520" s="22"/>
+    </row>
+    <row r="521">
+      <c r="G521" s="22"/>
+    </row>
+    <row r="522">
+      <c r="G522" s="22"/>
+    </row>
+    <row r="523">
+      <c r="G523" s="22"/>
+    </row>
+    <row r="524">
+      <c r="G524" s="22"/>
+    </row>
+    <row r="525">
+      <c r="G525" s="22"/>
+    </row>
+    <row r="526">
+      <c r="G526" s="22"/>
+    </row>
+    <row r="527">
+      <c r="G527" s="22"/>
+    </row>
+    <row r="528">
+      <c r="G528" s="22"/>
+    </row>
+    <row r="529">
+      <c r="G529" s="22"/>
+    </row>
+    <row r="530">
+      <c r="G530" s="22"/>
+    </row>
+    <row r="531">
+      <c r="G531" s="22"/>
+    </row>
+    <row r="532">
+      <c r="G532" s="22"/>
+    </row>
+    <row r="533">
+      <c r="G533" s="22"/>
+    </row>
+    <row r="534">
+      <c r="G534" s="22"/>
+    </row>
+    <row r="535">
+      <c r="G535" s="22"/>
+    </row>
+    <row r="536">
+      <c r="G536" s="22"/>
+    </row>
+    <row r="537">
+      <c r="G537" s="22"/>
+    </row>
+    <row r="538">
+      <c r="G538" s="22"/>
+    </row>
+    <row r="539">
+      <c r="G539" s="22"/>
+    </row>
+    <row r="540">
+      <c r="G540" s="22"/>
+    </row>
+    <row r="541">
+      <c r="G541" s="22"/>
+    </row>
+    <row r="542">
+      <c r="G542" s="22"/>
+    </row>
+    <row r="543">
+      <c r="G543" s="22"/>
+    </row>
+    <row r="544">
+      <c r="G544" s="22"/>
+    </row>
+    <row r="545">
+      <c r="G545" s="22"/>
+    </row>
+    <row r="546">
+      <c r="G546" s="22"/>
+    </row>
+    <row r="547">
+      <c r="G547" s="22"/>
+    </row>
+    <row r="548">
+      <c r="G548" s="22"/>
+    </row>
+    <row r="549">
+      <c r="G549" s="22"/>
+    </row>
+    <row r="550">
+      <c r="G550" s="22"/>
+    </row>
+    <row r="551">
+      <c r="G551" s="22"/>
+    </row>
+    <row r="552">
+      <c r="G552" s="22"/>
+    </row>
+    <row r="553">
+      <c r="G553" s="22"/>
+    </row>
+    <row r="554">
+      <c r="G554" s="22"/>
+    </row>
+    <row r="555">
+      <c r="G555" s="22"/>
+    </row>
+    <row r="556">
+      <c r="G556" s="22"/>
+    </row>
+    <row r="557">
+      <c r="G557" s="22"/>
+    </row>
+    <row r="558">
+      <c r="G558" s="22"/>
+    </row>
+    <row r="559">
+      <c r="G559" s="22"/>
+    </row>
+    <row r="560">
+      <c r="G560" s="22"/>
+    </row>
+    <row r="561">
+      <c r="G561" s="22"/>
+    </row>
+    <row r="562">
+      <c r="G562" s="22"/>
+    </row>
+    <row r="563">
+      <c r="G563" s="22"/>
+    </row>
+    <row r="564">
+      <c r="G564" s="22"/>
+    </row>
+    <row r="565">
+      <c r="G565" s="22"/>
+    </row>
+    <row r="566">
+      <c r="G566" s="22"/>
+    </row>
+    <row r="567">
+      <c r="G567" s="22"/>
+    </row>
+    <row r="568">
+      <c r="G568" s="22"/>
+    </row>
+    <row r="569">
+      <c r="G569" s="22"/>
+    </row>
+    <row r="570">
+      <c r="G570" s="22"/>
+    </row>
+    <row r="571">
+      <c r="G571" s="22"/>
+    </row>
+    <row r="572">
+      <c r="G572" s="22"/>
+    </row>
+    <row r="573">
+      <c r="G573" s="22"/>
+    </row>
+    <row r="574">
+      <c r="G574" s="22"/>
+    </row>
+    <row r="575">
+      <c r="G575" s="22"/>
+    </row>
+    <row r="576">
+      <c r="G576" s="22"/>
+    </row>
+    <row r="577">
+      <c r="G577" s="22"/>
+    </row>
+    <row r="578">
+      <c r="G578" s="22"/>
+    </row>
+    <row r="579">
+      <c r="G579" s="22"/>
+    </row>
+    <row r="580">
+      <c r="G580" s="22"/>
+    </row>
+    <row r="581">
+      <c r="G581" s="22"/>
+    </row>
+    <row r="582">
+      <c r="G582" s="22"/>
+    </row>
+    <row r="583">
+      <c r="G583" s="22"/>
+    </row>
+    <row r="584">
+      <c r="G584" s="22"/>
+    </row>
+    <row r="585">
+      <c r="G585" s="22"/>
+    </row>
+    <row r="586">
+      <c r="G586" s="22"/>
+    </row>
+    <row r="587">
+      <c r="G587" s="22"/>
+    </row>
+    <row r="588">
+      <c r="G588" s="22"/>
+    </row>
+    <row r="589">
+      <c r="G589" s="22"/>
+    </row>
+    <row r="590">
+      <c r="G590" s="22"/>
+    </row>
+    <row r="591">
+      <c r="G591" s="22"/>
+    </row>
+    <row r="592">
+      <c r="G592" s="22"/>
+    </row>
+    <row r="593">
+      <c r="G593" s="22"/>
+    </row>
+    <row r="594">
+      <c r="G594" s="22"/>
+    </row>
+    <row r="595">
+      <c r="G595" s="22"/>
+    </row>
+    <row r="596">
+      <c r="G596" s="22"/>
+    </row>
+    <row r="597">
+      <c r="G597" s="22"/>
+    </row>
+    <row r="598">
+      <c r="G598" s="22"/>
+    </row>
+    <row r="599">
+      <c r="G599" s="22"/>
+    </row>
+    <row r="600">
+      <c r="G600" s="22"/>
+    </row>
+    <row r="601">
+      <c r="G601" s="22"/>
+    </row>
+    <row r="602">
+      <c r="G602" s="22"/>
+    </row>
+    <row r="603">
+      <c r="G603" s="22"/>
+    </row>
+    <row r="604">
+      <c r="G604" s="22"/>
+    </row>
+    <row r="605">
+      <c r="G605" s="22"/>
+    </row>
+    <row r="606">
+      <c r="G606" s="22"/>
+    </row>
+    <row r="607">
+      <c r="G607" s="22"/>
+    </row>
+    <row r="608">
+      <c r="G608" s="22"/>
+    </row>
+    <row r="609">
+      <c r="G609" s="22"/>
+    </row>
+    <row r="610">
+      <c r="G610" s="22"/>
+    </row>
+    <row r="611">
+      <c r="G611" s="22"/>
+    </row>
+    <row r="612">
+      <c r="G612" s="22"/>
+    </row>
+    <row r="613">
+      <c r="G613" s="22"/>
+    </row>
+    <row r="614">
+      <c r="G614" s="22"/>
+    </row>
+    <row r="615">
+      <c r="G615" s="22"/>
+    </row>
+    <row r="616">
+      <c r="G616" s="22"/>
+    </row>
+    <row r="617">
+      <c r="G617" s="22"/>
+    </row>
+    <row r="618">
+      <c r="G618" s="22"/>
+    </row>
+    <row r="619">
+      <c r="G619" s="22"/>
+    </row>
+    <row r="620">
+      <c r="G620" s="22"/>
+    </row>
+    <row r="621">
+      <c r="G621" s="22"/>
+    </row>
+    <row r="622">
+      <c r="G622" s="22"/>
+    </row>
+    <row r="623">
+      <c r="G623" s="22"/>
+    </row>
+    <row r="624">
+      <c r="G624" s="22"/>
+    </row>
+    <row r="625">
+      <c r="G625" s="22"/>
+    </row>
+    <row r="626">
+      <c r="G626" s="22"/>
+    </row>
+    <row r="627">
+      <c r="G627" s="22"/>
+    </row>
+    <row r="628">
+      <c r="G628" s="22"/>
+    </row>
+    <row r="629">
+      <c r="G629" s="22"/>
+    </row>
+    <row r="630">
+      <c r="G630" s="22"/>
+    </row>
+    <row r="631">
+      <c r="G631" s="22"/>
+    </row>
+    <row r="632">
+      <c r="G632" s="22"/>
+    </row>
+    <row r="633">
+      <c r="G633" s="22"/>
+    </row>
+    <row r="634">
+      <c r="G634" s="22"/>
+    </row>
+    <row r="635">
+      <c r="G635" s="22"/>
+    </row>
+    <row r="636">
+      <c r="G636" s="22"/>
+    </row>
+    <row r="637">
+      <c r="G637" s="22"/>
+    </row>
+    <row r="638">
+      <c r="G638" s="22"/>
+    </row>
+    <row r="639">
+      <c r="G639" s="22"/>
+    </row>
+    <row r="640">
+      <c r="G640" s="22"/>
+    </row>
+    <row r="641">
+      <c r="G641" s="22"/>
+    </row>
+    <row r="642">
+      <c r="G642" s="22"/>
+    </row>
+    <row r="643">
+      <c r="G643" s="22"/>
+    </row>
+    <row r="644">
+      <c r="G644" s="22"/>
+    </row>
+    <row r="645">
+      <c r="G645" s="22"/>
+    </row>
+    <row r="646">
+      <c r="G646" s="22"/>
+    </row>
+    <row r="647">
+      <c r="G647" s="22"/>
+    </row>
+    <row r="648">
+      <c r="G648" s="22"/>
+    </row>
+    <row r="649">
+      <c r="G649" s="22"/>
+    </row>
+    <row r="650">
+      <c r="G650" s="22"/>
+    </row>
+    <row r="651">
+      <c r="G651" s="22"/>
+    </row>
+    <row r="652">
+      <c r="G652" s="22"/>
+    </row>
+    <row r="653">
+      <c r="G653" s="22"/>
+    </row>
+    <row r="654">
+      <c r="G654" s="22"/>
+    </row>
+    <row r="655">
+      <c r="G655" s="22"/>
+    </row>
+    <row r="656">
+      <c r="G656" s="22"/>
+    </row>
+    <row r="657">
+      <c r="G657" s="22"/>
+    </row>
+    <row r="658">
+      <c r="G658" s="22"/>
+    </row>
+    <row r="659">
+      <c r="G659" s="22"/>
+    </row>
+    <row r="660">
+      <c r="G660" s="22"/>
+    </row>
+    <row r="661">
+      <c r="G661" s="22"/>
+    </row>
+    <row r="662">
+      <c r="G662" s="22"/>
+    </row>
+    <row r="663">
+      <c r="G663" s="22"/>
+    </row>
+    <row r="664">
+      <c r="G664" s="22"/>
+    </row>
+    <row r="665">
+      <c r="G665" s="22"/>
+    </row>
+    <row r="666">
+      <c r="G666" s="22"/>
+    </row>
+    <row r="667">
+      <c r="G667" s="22"/>
+    </row>
+    <row r="668">
+      <c r="G668" s="22"/>
+    </row>
+    <row r="669">
+      <c r="G669" s="22"/>
+    </row>
+    <row r="670">
+      <c r="G670" s="22"/>
+    </row>
+    <row r="671">
+      <c r="G671" s="22"/>
+    </row>
+    <row r="672">
+      <c r="G672" s="22"/>
+    </row>
+    <row r="673">
+      <c r="G673" s="22"/>
+    </row>
+    <row r="674">
+      <c r="G674" s="22"/>
+    </row>
+    <row r="675">
+      <c r="G675" s="22"/>
+    </row>
+    <row r="676">
+      <c r="G676" s="22"/>
+    </row>
+    <row r="677">
+      <c r="G677" s="22"/>
+    </row>
+    <row r="678">
+      <c r="G678" s="22"/>
+    </row>
+    <row r="679">
+      <c r="G679" s="22"/>
+    </row>
+    <row r="680">
+      <c r="G680" s="22"/>
+    </row>
+    <row r="681">
+      <c r="G681" s="22"/>
+    </row>
+    <row r="682">
+      <c r="G682" s="22"/>
+    </row>
+    <row r="683">
+      <c r="G683" s="22"/>
+    </row>
+    <row r="684">
+      <c r="G684" s="22"/>
+    </row>
+    <row r="685">
+      <c r="G685" s="22"/>
+    </row>
+    <row r="686">
+      <c r="G686" s="22"/>
+    </row>
+    <row r="687">
+      <c r="G687" s="22"/>
+    </row>
+    <row r="688">
+      <c r="G688" s="22"/>
+    </row>
+    <row r="689">
+      <c r="G689" s="22"/>
+    </row>
+    <row r="690">
+      <c r="G690" s="22"/>
+    </row>
+    <row r="691">
+      <c r="G691" s="22"/>
+    </row>
+    <row r="692">
+      <c r="G692" s="22"/>
+    </row>
+    <row r="693">
+      <c r="G693" s="22"/>
+    </row>
+    <row r="694">
+      <c r="G694" s="22"/>
+    </row>
+    <row r="695">
+      <c r="G695" s="22"/>
+    </row>
+    <row r="696">
+      <c r="G696" s="22"/>
+    </row>
+    <row r="697">
+      <c r="G697" s="22"/>
+    </row>
+    <row r="698">
+      <c r="G698" s="22"/>
+    </row>
+    <row r="699">
+      <c r="G699" s="22"/>
+    </row>
+    <row r="700">
+      <c r="G700" s="22"/>
+    </row>
+    <row r="701">
+      <c r="G701" s="22"/>
+    </row>
+    <row r="702">
+      <c r="G702" s="22"/>
+    </row>
+    <row r="703">
+      <c r="G703" s="22"/>
+    </row>
+    <row r="704">
+      <c r="G704" s="22"/>
+    </row>
+    <row r="705">
+      <c r="G705" s="22"/>
+    </row>
+    <row r="706">
+      <c r="G706" s="22"/>
+    </row>
+    <row r="707">
+      <c r="G707" s="22"/>
+    </row>
+    <row r="708">
+      <c r="G708" s="22"/>
+    </row>
+    <row r="709">
+      <c r="G709" s="22"/>
+    </row>
+    <row r="710">
+      <c r="G710" s="22"/>
+    </row>
+    <row r="711">
+      <c r="G711" s="22"/>
+    </row>
+    <row r="712">
+      <c r="G712" s="22"/>
+    </row>
+    <row r="713">
+      <c r="G713" s="22"/>
+    </row>
+    <row r="714">
+      <c r="G714" s="22"/>
+    </row>
+    <row r="715">
+      <c r="G715" s="22"/>
+    </row>
+    <row r="716">
+      <c r="G716" s="22"/>
+    </row>
+    <row r="717">
+      <c r="G717" s="22"/>
+    </row>
+    <row r="718">
+      <c r="G718" s="22"/>
+    </row>
+    <row r="719">
+      <c r="G719" s="22"/>
+    </row>
+    <row r="720">
+      <c r="G720" s="22"/>
+    </row>
+    <row r="721">
+      <c r="G721" s="22"/>
+    </row>
+    <row r="722">
+      <c r="G722" s="22"/>
+    </row>
+    <row r="723">
+      <c r="G723" s="22"/>
+    </row>
+    <row r="724">
+      <c r="G724" s="22"/>
+    </row>
+    <row r="725">
+      <c r="G725" s="22"/>
+    </row>
+    <row r="726">
+      <c r="G726" s="22"/>
+    </row>
+    <row r="727">
+      <c r="G727" s="22"/>
+    </row>
+    <row r="728">
+      <c r="G728" s="22"/>
+    </row>
+    <row r="729">
+      <c r="G729" s="22"/>
+    </row>
+    <row r="730">
+      <c r="G730" s="22"/>
+    </row>
+    <row r="731">
+      <c r="G731" s="22"/>
+    </row>
+    <row r="732">
+      <c r="G732" s="22"/>
+    </row>
+    <row r="733">
+      <c r="G733" s="22"/>
+    </row>
+    <row r="734">
+      <c r="G734" s="22"/>
+    </row>
+    <row r="735">
+      <c r="G735" s="22"/>
+    </row>
+    <row r="736">
+      <c r="G736" s="22"/>
+    </row>
+    <row r="737">
+      <c r="G737" s="22"/>
+    </row>
+    <row r="738">
+      <c r="G738" s="22"/>
+    </row>
+    <row r="739">
+      <c r="G739" s="22"/>
+    </row>
+    <row r="740">
+      <c r="G740" s="22"/>
+    </row>
+    <row r="741">
+      <c r="G741" s="22"/>
+    </row>
+    <row r="742">
+      <c r="G742" s="22"/>
+    </row>
+    <row r="743">
+      <c r="G743" s="22"/>
+    </row>
+    <row r="744">
+      <c r="G744" s="22"/>
+    </row>
+    <row r="745">
+      <c r="G745" s="22"/>
+    </row>
+    <row r="746">
+      <c r="G746" s="22"/>
+    </row>
+    <row r="747">
+      <c r="G747" s="22"/>
+    </row>
+    <row r="748">
+      <c r="G748" s="22"/>
+    </row>
+    <row r="749">
+      <c r="G749" s="22"/>
+    </row>
+    <row r="750">
+      <c r="G750" s="22"/>
+    </row>
+    <row r="751">
+      <c r="G751" s="22"/>
+    </row>
+    <row r="752">
+      <c r="G752" s="22"/>
+    </row>
+    <row r="753">
+      <c r="G753" s="22"/>
+    </row>
+    <row r="754">
+      <c r="G754" s="22"/>
+    </row>
+    <row r="755">
+      <c r="G755" s="22"/>
+    </row>
+    <row r="756">
+      <c r="G756" s="22"/>
+    </row>
+    <row r="757">
+      <c r="G757" s="22"/>
+    </row>
+    <row r="758">
+      <c r="G758" s="22"/>
+    </row>
+    <row r="759">
+      <c r="G759" s="22"/>
+    </row>
+    <row r="760">
+      <c r="G760" s="22"/>
+    </row>
+    <row r="761">
+      <c r="G761" s="22"/>
+    </row>
+    <row r="762">
+      <c r="G762" s="22"/>
+    </row>
+    <row r="763">
+      <c r="G763" s="22"/>
+    </row>
+    <row r="764">
+      <c r="G764" s="22"/>
+    </row>
+    <row r="765">
+      <c r="G765" s="22"/>
+    </row>
+    <row r="766">
+      <c r="G766" s="22"/>
+    </row>
+    <row r="767">
+      <c r="G767" s="22"/>
+    </row>
+    <row r="768">
+      <c r="G768" s="22"/>
+    </row>
+    <row r="769">
+      <c r="G769" s="22"/>
+    </row>
+    <row r="770">
+      <c r="G770" s="22"/>
+    </row>
+    <row r="771">
+      <c r="G771" s="22"/>
+    </row>
+    <row r="772">
+      <c r="G772" s="22"/>
+    </row>
+    <row r="773">
+      <c r="G773" s="22"/>
+    </row>
+    <row r="774">
+      <c r="G774" s="22"/>
+    </row>
+    <row r="775">
+      <c r="G775" s="22"/>
+    </row>
+    <row r="776">
+      <c r="G776" s="22"/>
+    </row>
+    <row r="777">
+      <c r="G777" s="22"/>
+    </row>
+    <row r="778">
+      <c r="G778" s="22"/>
+    </row>
+    <row r="779">
+      <c r="G779" s="22"/>
+    </row>
+    <row r="780">
+      <c r="G780" s="22"/>
+    </row>
+    <row r="781">
+      <c r="G781" s="22"/>
+    </row>
+    <row r="782">
+      <c r="G782" s="22"/>
+    </row>
+    <row r="783">
+      <c r="G783" s="22"/>
+    </row>
+    <row r="784">
+      <c r="G784" s="22"/>
+    </row>
+    <row r="785">
+      <c r="G785" s="22"/>
+    </row>
+    <row r="786">
+      <c r="G786" s="22"/>
+    </row>
+    <row r="787">
+      <c r="G787" s="22"/>
+    </row>
+    <row r="788">
+      <c r="G788" s="22"/>
+    </row>
+    <row r="789">
+      <c r="G789" s="22"/>
+    </row>
+    <row r="790">
+      <c r="G790" s="22"/>
+    </row>
+    <row r="791">
+      <c r="G791" s="22"/>
+    </row>
+    <row r="792">
+      <c r="G792" s="22"/>
+    </row>
+    <row r="793">
+      <c r="G793" s="22"/>
+    </row>
+    <row r="794">
+      <c r="G794" s="22"/>
+    </row>
+    <row r="795">
+      <c r="G795" s="22"/>
+    </row>
+    <row r="796">
+      <c r="G796" s="22"/>
+    </row>
+    <row r="797">
+      <c r="G797" s="22"/>
+    </row>
+    <row r="798">
+      <c r="G798" s="22"/>
+    </row>
+    <row r="799">
+      <c r="G799" s="22"/>
+    </row>
+    <row r="800">
+      <c r="G800" s="22"/>
+    </row>
+    <row r="801">
+      <c r="G801" s="22"/>
+    </row>
+    <row r="802">
+      <c r="G802" s="22"/>
+    </row>
+    <row r="803">
+      <c r="G803" s="22"/>
+    </row>
+    <row r="804">
+      <c r="G804" s="22"/>
+    </row>
+    <row r="805">
+      <c r="G805" s="22"/>
+    </row>
+    <row r="806">
+      <c r="G806" s="22"/>
+    </row>
+    <row r="807">
+      <c r="G807" s="22"/>
+    </row>
+    <row r="808">
+      <c r="G808" s="22"/>
+    </row>
+    <row r="809">
+      <c r="G809" s="22"/>
+    </row>
+    <row r="810">
+      <c r="G810" s="22"/>
+    </row>
+    <row r="811">
+      <c r="G811" s="22"/>
+    </row>
+    <row r="812">
+      <c r="G812" s="22"/>
+    </row>
+    <row r="813">
+      <c r="G813" s="22"/>
+    </row>
+    <row r="814">
+      <c r="G814" s="22"/>
+    </row>
+    <row r="815">
+      <c r="G815" s="22"/>
+    </row>
+    <row r="816">
+      <c r="G816" s="22"/>
+    </row>
+    <row r="817">
+      <c r="G817" s="22"/>
+    </row>
+    <row r="818">
+      <c r="G818" s="22"/>
+    </row>
+    <row r="819">
+      <c r="G819" s="22"/>
+    </row>
+    <row r="820">
+      <c r="G820" s="22"/>
+    </row>
+    <row r="821">
+      <c r="G821" s="22"/>
+    </row>
+    <row r="822">
+      <c r="G822" s="22"/>
+    </row>
+    <row r="823">
+      <c r="G823" s="22"/>
+    </row>
+    <row r="824">
+      <c r="G824" s="22"/>
+    </row>
+    <row r="825">
+      <c r="G825" s="22"/>
+    </row>
+    <row r="826">
+      <c r="G826" s="22"/>
+    </row>
+    <row r="827">
+      <c r="G827" s="22"/>
+    </row>
+    <row r="828">
+      <c r="G828" s="22"/>
+    </row>
+    <row r="829">
+      <c r="G829" s="22"/>
+    </row>
+    <row r="830">
+      <c r="G830" s="22"/>
+    </row>
+    <row r="831">
+      <c r="G831" s="22"/>
+    </row>
+    <row r="832">
+      <c r="G832" s="22"/>
+    </row>
+    <row r="833">
+      <c r="G833" s="22"/>
+    </row>
+    <row r="834">
+      <c r="G834" s="22"/>
+    </row>
+    <row r="835">
+      <c r="G835" s="22"/>
+    </row>
+    <row r="836">
+      <c r="G836" s="22"/>
+    </row>
+    <row r="837">
+      <c r="G837" s="22"/>
+    </row>
+    <row r="838">
+      <c r="G838" s="22"/>
+    </row>
+    <row r="839">
+      <c r="G839" s="22"/>
+    </row>
+    <row r="840">
+      <c r="G840" s="22"/>
+    </row>
+    <row r="841">
+      <c r="G841" s="22"/>
+    </row>
+    <row r="842">
+      <c r="G842" s="22"/>
+    </row>
+    <row r="843">
+      <c r="G843" s="22"/>
+    </row>
+    <row r="844">
+      <c r="G844" s="22"/>
+    </row>
+    <row r="845">
+      <c r="G845" s="22"/>
+    </row>
+    <row r="846">
+      <c r="G846" s="22"/>
+    </row>
+    <row r="847">
+      <c r="G847" s="22"/>
+    </row>
+    <row r="848">
+      <c r="G848" s="22"/>
+    </row>
+    <row r="849">
+      <c r="G849" s="22"/>
+    </row>
+    <row r="850">
+      <c r="G850" s="22"/>
+    </row>
+    <row r="851">
+      <c r="G851" s="22"/>
+    </row>
+    <row r="852">
+      <c r="G852" s="22"/>
+    </row>
+    <row r="853">
+      <c r="G853" s="22"/>
+    </row>
+    <row r="854">
+      <c r="G854" s="22"/>
+    </row>
+    <row r="855">
+      <c r="G855" s="22"/>
+    </row>
+    <row r="856">
+      <c r="G856" s="22"/>
+    </row>
+    <row r="857">
+      <c r="G857" s="22"/>
+    </row>
+    <row r="858">
+      <c r="G858" s="22"/>
+    </row>
+    <row r="859">
+      <c r="G859" s="22"/>
+    </row>
+    <row r="860">
+      <c r="G860" s="22"/>
+    </row>
+    <row r="861">
+      <c r="G861" s="22"/>
+    </row>
+    <row r="862">
+      <c r="G862" s="22"/>
+    </row>
+    <row r="863">
+      <c r="G863" s="22"/>
+    </row>
+    <row r="864">
+      <c r="G864" s="22"/>
+    </row>
+    <row r="865">
+      <c r="G865" s="22"/>
+    </row>
+    <row r="866">
+      <c r="G866" s="22"/>
+    </row>
+    <row r="867">
+      <c r="G867" s="22"/>
+    </row>
+    <row r="868">
+      <c r="G868" s="22"/>
+    </row>
+    <row r="869">
+      <c r="G869" s="22"/>
+    </row>
+    <row r="870">
+      <c r="G870" s="22"/>
+    </row>
+    <row r="871">
+      <c r="G871" s="22"/>
+    </row>
+    <row r="872">
+      <c r="G872" s="22"/>
+    </row>
+    <row r="873">
+      <c r="G873" s="22"/>
+    </row>
+    <row r="874">
+      <c r="G874" s="22"/>
+    </row>
+    <row r="875">
+      <c r="G875" s="22"/>
+    </row>
+    <row r="876">
+      <c r="G876" s="22"/>
+    </row>
+    <row r="877">
+      <c r="G877" s="22"/>
+    </row>
+    <row r="878">
+      <c r="G878" s="22"/>
+    </row>
+    <row r="879">
+      <c r="G879" s="22"/>
+    </row>
+    <row r="880">
+      <c r="G880" s="22"/>
+    </row>
+    <row r="881">
+      <c r="G881" s="22"/>
+    </row>
+    <row r="882">
+      <c r="G882" s="22"/>
+    </row>
+    <row r="883">
+      <c r="G883" s="22"/>
+    </row>
+    <row r="884">
+      <c r="G884" s="22"/>
+    </row>
+    <row r="885">
+      <c r="G885" s="22"/>
+    </row>
+    <row r="886">
+      <c r="G886" s="22"/>
+    </row>
+    <row r="887">
+      <c r="G887" s="22"/>
+    </row>
+    <row r="888">
+      <c r="G888" s="22"/>
+    </row>
+    <row r="889">
+      <c r="G889" s="22"/>
+    </row>
+    <row r="890">
+      <c r="G890" s="22"/>
+    </row>
+    <row r="891">
+      <c r="G891" s="22"/>
+    </row>
+    <row r="892">
+      <c r="G892" s="22"/>
+    </row>
+    <row r="893">
+      <c r="G893" s="22"/>
+    </row>
+    <row r="894">
+      <c r="G894" s="22"/>
+    </row>
+    <row r="895">
+      <c r="G895" s="22"/>
+    </row>
+    <row r="896">
+      <c r="G896" s="22"/>
+    </row>
+    <row r="897">
+      <c r="G897" s="22"/>
+    </row>
+    <row r="898">
+      <c r="G898" s="22"/>
+    </row>
+    <row r="899">
+      <c r="G899" s="22"/>
+    </row>
+    <row r="900">
+      <c r="G900" s="22"/>
+    </row>
+    <row r="901">
+      <c r="G901" s="22"/>
+    </row>
+    <row r="902">
+      <c r="G902" s="22"/>
+    </row>
+    <row r="903">
+      <c r="G903" s="22"/>
+    </row>
+    <row r="904">
+      <c r="G904" s="22"/>
+    </row>
+    <row r="905">
+      <c r="G905" s="22"/>
+    </row>
+    <row r="906">
+      <c r="G906" s="22"/>
+    </row>
+    <row r="907">
+      <c r="G907" s="22"/>
+    </row>
+    <row r="908">
+      <c r="G908" s="22"/>
+    </row>
+    <row r="909">
+      <c r="G909" s="22"/>
+    </row>
+    <row r="910">
+      <c r="G910" s="22"/>
+    </row>
+    <row r="911">
+      <c r="G911" s="22"/>
+    </row>
+    <row r="912">
+      <c r="G912" s="22"/>
+    </row>
+    <row r="913">
+      <c r="G913" s="22"/>
+    </row>
+    <row r="914">
+      <c r="G914" s="22"/>
+    </row>
+    <row r="915">
+      <c r="G915" s="22"/>
+    </row>
+    <row r="916">
+      <c r="G916" s="22"/>
+    </row>
+    <row r="917">
+      <c r="G917" s="22"/>
+    </row>
+    <row r="918">
+      <c r="G918" s="22"/>
+    </row>
+    <row r="919">
+      <c r="G919" s="22"/>
+    </row>
+    <row r="920">
+      <c r="G920" s="22"/>
+    </row>
+    <row r="921">
+      <c r="G921" s="22"/>
+    </row>
+    <row r="922">
+      <c r="G922" s="22"/>
+    </row>
+    <row r="923">
+      <c r="G923" s="22"/>
+    </row>
+    <row r="924">
+      <c r="G924" s="22"/>
+    </row>
+    <row r="925">
+      <c r="G925" s="22"/>
+    </row>
+    <row r="926">
+      <c r="G926" s="22"/>
+    </row>
+    <row r="927">
+      <c r="G927" s="22"/>
+    </row>
+    <row r="928">
+      <c r="G928" s="22"/>
+    </row>
+    <row r="929">
+      <c r="G929" s="22"/>
+    </row>
+    <row r="930">
+      <c r="G930" s="22"/>
+    </row>
+    <row r="931">
+      <c r="G931" s="22"/>
+    </row>
+    <row r="932">
+      <c r="G932" s="22"/>
+    </row>
+    <row r="933">
+      <c r="G933" s="22"/>
+    </row>
+    <row r="934">
+      <c r="G934" s="22"/>
+    </row>
+    <row r="935">
+      <c r="G935" s="22"/>
+    </row>
+    <row r="936">
+      <c r="G936" s="22"/>
+    </row>
+    <row r="937">
+      <c r="G937" s="22"/>
+    </row>
+    <row r="938">
+      <c r="G938" s="22"/>
+    </row>
+    <row r="939">
+      <c r="G939" s="22"/>
+    </row>
+    <row r="940">
+      <c r="G940" s="22"/>
+    </row>
+    <row r="941">
+      <c r="G941" s="22"/>
+    </row>
+    <row r="942">
+      <c r="G942" s="22"/>
+    </row>
+    <row r="943">
+      <c r="G943" s="22"/>
+    </row>
+    <row r="944">
+      <c r="G944" s="22"/>
+    </row>
+    <row r="945">
+      <c r="G945" s="22"/>
+    </row>
+    <row r="946">
+      <c r="G946" s="22"/>
+    </row>
+    <row r="947">
+      <c r="G947" s="22"/>
+    </row>
+    <row r="948">
+      <c r="G948" s="22"/>
+    </row>
+    <row r="949">
+      <c r="G949" s="22"/>
+    </row>
+    <row r="950">
+      <c r="G950" s="22"/>
+    </row>
+    <row r="951">
+      <c r="G951" s="22"/>
+    </row>
+    <row r="952">
+      <c r="G952" s="22"/>
+    </row>
+    <row r="953">
+      <c r="G953" s="22"/>
+    </row>
+    <row r="954">
+      <c r="G954" s="22"/>
+    </row>
+    <row r="955">
+      <c r="G955" s="22"/>
+    </row>
+    <row r="956">
+      <c r="G956" s="22"/>
+    </row>
+    <row r="957">
+      <c r="G957" s="22"/>
+    </row>
+    <row r="958">
+      <c r="G958" s="22"/>
+    </row>
+    <row r="959">
+      <c r="G959" s="22"/>
+    </row>
+    <row r="960">
+      <c r="G960" s="22"/>
+    </row>
+    <row r="961">
+      <c r="G961" s="22"/>
+    </row>
+    <row r="962">
+      <c r="G962" s="22"/>
+    </row>
+    <row r="963">
+      <c r="G963" s="22"/>
+    </row>
+    <row r="964">
+      <c r="G964" s="22"/>
+    </row>
+    <row r="965">
+      <c r="G965" s="22"/>
+    </row>
+    <row r="966">
+      <c r="G966" s="22"/>
+    </row>
+    <row r="967">
+      <c r="G967" s="22"/>
+    </row>
+    <row r="968">
+      <c r="G968" s="22"/>
+    </row>
+    <row r="969">
+      <c r="G969" s="22"/>
+    </row>
+    <row r="970">
+      <c r="G970" s="22"/>
+    </row>
+    <row r="971">
+      <c r="G971" s="22"/>
+    </row>
+    <row r="972">
+      <c r="G972" s="22"/>
+    </row>
+    <row r="973">
+      <c r="G973" s="22"/>
+    </row>
+    <row r="974">
+      <c r="G974" s="22"/>
+    </row>
+    <row r="975">
+      <c r="G975" s="22"/>
+    </row>
+    <row r="976">
+      <c r="G976" s="22"/>
+    </row>
+    <row r="977">
+      <c r="G977" s="22"/>
+    </row>
+    <row r="978">
+      <c r="G978" s="22"/>
+    </row>
+    <row r="979">
+      <c r="G979" s="22"/>
+    </row>
+    <row r="980">
+      <c r="G980" s="22"/>
+    </row>
+    <row r="981">
+      <c r="G981" s="22"/>
+    </row>
+    <row r="982">
+      <c r="G982" s="22"/>
+    </row>
+    <row r="983">
+      <c r="G983" s="22"/>
+    </row>
+    <row r="984">
+      <c r="G984" s="22"/>
+    </row>
+    <row r="985">
+      <c r="G985" s="22"/>
+    </row>
+    <row r="986">
+      <c r="G986" s="22"/>
+    </row>
+    <row r="987">
+      <c r="G987" s="22"/>
+    </row>
+    <row r="988">
+      <c r="G988" s="22"/>
+    </row>
+    <row r="989">
+      <c r="G989" s="22"/>
+    </row>
+    <row r="990">
+      <c r="G990" s="22"/>
+    </row>
+    <row r="991">
+      <c r="G991" s="22"/>
+    </row>
+    <row r="992">
+      <c r="G992" s="22"/>
+    </row>
+    <row r="993">
+      <c r="G993" s="22"/>
+    </row>
+    <row r="994">
+      <c r="G994" s="22"/>
+    </row>
+    <row r="995">
+      <c r="G995" s="22"/>
+    </row>
+    <row r="996">
+      <c r="G996" s="22"/>
+    </row>
+    <row r="997">
+      <c r="G997" s="22"/>
+    </row>
+    <row r="998">
+      <c r="G998" s="22"/>
+    </row>
+    <row r="999">
+      <c r="G999" s="22"/>
+    </row>
+    <row r="1000">
+      <c r="G1000" s="22"/>
+    </row>
+    <row r="1001">
+      <c r="G1001" s="22"/>
+    </row>
+    <row r="1002">
+      <c r="G1002" s="22"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1002">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(G1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1107,7 +4239,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -1119,16 +4251,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -1136,7 +4268,7 @@
         <v>45575.0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E2" s="16">
         <v>0.8020833333333334</v>
@@ -1153,7 +4285,7 @@
         <v>45579.0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" s="16">
         <v>0.4791666666666667</v>
@@ -1171,7 +4303,7 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" s="16">
         <v>0.6041666666666666</v>
@@ -1184,11 +4316,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="23">
+      <c r="A5" s="25">
         <v>45581.0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E5" s="16">
         <v>0.6666666666666666</v>
@@ -1201,11 +4333,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23">
+      <c r="A6" s="25">
         <v>45582.0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E6" s="16">
         <v>0.4583333333333333</v>
@@ -1218,11 +4350,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="23">
+      <c r="A7" s="25">
         <v>45584.0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E7" s="16">
         <v>0.7708333333333334</v>
@@ -1232,6 +4364,57 @@
       </c>
       <c r="G7" s="15">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="25">
+        <v>45589.0</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.4618055555555556</v>
+      </c>
+      <c r="F8" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="25">
+        <v>45589.0</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.6284722222222222</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.7118055555555556</v>
+      </c>
+      <c r="G9" s="15">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="25">
+        <v>45591.0</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.6701388888888888</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="G10" s="15">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +4444,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1273,191 +4456,317 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24">
+      <c r="A2" s="26">
         <v>45575.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="25">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E2" s="27">
         <v>0.8020833333333334</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="27">
         <v>0.8333333333333334</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="24">
+      <c r="A3" s="26">
         <v>45579.0</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="25">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E3" s="27">
         <v>0.4791666666666667</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="27">
         <v>0.5555555555555556</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26">
+      <c r="A4" s="28">
         <v>45579.0</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="25">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E4" s="27">
         <v>0.6041666666666666</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="27">
         <v>0.71875</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="24">
+      <c r="A5" s="26">
         <v>45581.0</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="25">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E5" s="27">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="27">
         <v>0.6770833333333334</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24">
+      <c r="A6" s="26">
         <v>45582.0</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="25">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E6" s="27">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="27">
         <v>0.5416666666666666</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="24">
+      <c r="A7" s="26">
         <v>45582.0</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="25">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E7" s="27">
         <v>0.5763888888888888</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="27">
         <v>0.625</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24">
+      <c r="A8" s="26">
         <v>45584.0</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E8" s="27">
         <v>0.75</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="27">
         <v>0.8125</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="26">
+        <v>45586.0</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="26">
+        <v>45589.0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="26">
+        <v>45589.0</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0.7361111111111112</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="26">
+        <v>45591.0</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.8125</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B8"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1484,7 +4793,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -1496,16 +4805,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -1513,7 +4822,7 @@
         <v>45575.0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="16">
         <v>0.8020833333333334</v>
@@ -1531,13 +4840,13 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="28">
+      <c r="E3" s="33">
         <v>0.5</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="32">
         <v>0.5555555555555556</v>
       </c>
       <c r="G3" s="15">
@@ -1550,13 +4859,13 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="29">
+      <c r="E4" s="32">
         <v>0.6041666666666666</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="33">
         <v>0.71875</v>
       </c>
       <c r="G4" s="15">

--- a/Pitches/Backlog.xlsx
+++ b/Pitches/Backlog.xlsx
@@ -16,7 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="149">
+  <si>
+    <t>Deadline Resultaten</t>
+  </si>
+  <si>
+    <t>Resultaten</t>
+  </si>
   <si>
     <t>Deadline</t>
   </si>
@@ -45,6 +51,9 @@
     <t>Pitches</t>
   </si>
   <si>
+    <t>Pitches uitwerken</t>
+  </si>
+  <si>
     <t>Ideëen brainstormen</t>
   </si>
   <si>
@@ -66,12 +75,63 @@
     <t>Algemene analyse &amp; design</t>
   </si>
   <si>
-    <t>Flashcard idee verder uitwerken</t>
+    <t>Leerhulpmiddel analyse</t>
+  </si>
+  <si>
+    <t>Leerhulpmiddel idee verder uitwerken</t>
   </si>
   <si>
     <t>Detailanalyse &amp; -design, code, demo, iteratie 1</t>
   </si>
   <si>
+    <t>Detailanalyse</t>
+  </si>
+  <si>
+    <t>Fully dressed "maak vragen"</t>
+  </si>
+  <si>
+    <t>Fully dressed "doorloop vragen"</t>
+  </si>
+  <si>
+    <t>Fully dressed "genereer proefexamen"</t>
+  </si>
+  <si>
+    <t>Fully dressed "maak vragenset"</t>
+  </si>
+  <si>
+    <t>Interactie diagram</t>
+  </si>
+  <si>
+    <t>Bezig</t>
+  </si>
+  <si>
+    <t>Klassen diagram</t>
+  </si>
+  <si>
+    <t>Maak vraag</t>
+  </si>
+  <si>
+    <t>Calvin, Sander</t>
+  </si>
+  <si>
+    <t>Maak vragenset</t>
+  </si>
+  <si>
+    <t>Bert, Safwaan, Thibe</t>
+  </si>
+  <si>
+    <t>Doorloop vragen</t>
+  </si>
+  <si>
+    <t>Genereer proefexamen</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
     <t>Detailanalyse &amp; -design, code, demo, iteratie 2</t>
   </si>
   <si>
@@ -90,6 +150,9 @@
     <t>Geschatte totaaltijd(Minuten)</t>
   </si>
   <si>
+    <t>Algemene Analyse</t>
+  </si>
+  <si>
     <t>Bespreking projectafspraken</t>
   </si>
   <si>
@@ -111,12 +174,60 @@
     <t>Oefenen pitches en pitches presenteren</t>
   </si>
   <si>
+    <t>Detailanalyse iteratie 1</t>
+  </si>
+  <si>
     <t>Analyse eerste versie maken</t>
   </si>
   <si>
     <t>Feedback analyse toepassen, fully dressed use cases maken</t>
   </si>
   <si>
+    <t>Bespreking aanpak iteratie 1</t>
+  </si>
+  <si>
+    <t>Feedback fully dressed use cases, bespreking taakverdeling</t>
+  </si>
+  <si>
+    <t>SSD en contracten van use case "maak vraag" + project basis setup + base class Question</t>
+  </si>
+  <si>
+    <t>Klassediagram maken</t>
+  </si>
+  <si>
+    <t>Sequentiediagramen maak vragen maken + kleine aanpassingen klassediagram</t>
+  </si>
+  <si>
+    <t>Iteratie 1 programmeren</t>
+  </si>
+  <si>
+    <t>Problemen met project setup aanpassen en migreren naar vs</t>
+  </si>
+  <si>
+    <t>Aanmaken GUI voor vragen te maken: flashcards</t>
+  </si>
+  <si>
+    <t>Maken CreateFillInQuestionView</t>
+  </si>
+  <si>
+    <t>Fill In Question omvormen naar QPalette voor kleuren</t>
+  </si>
+  <si>
+    <t>Connecteren van create question klasses met controller en kleine fixes met samenvoegen code</t>
+  </si>
+  <si>
+    <t>Bekijken om maak vragen met mainwindow te mergen(niet gelukt) + kleine bugfixes</t>
+  </si>
+  <si>
+    <t>Samenvoegen mainwindow en bespreken over deze samenvoeging</t>
+  </si>
+  <si>
+    <t>Samenvoegen branches en laatste controles voor iteratie 1/demo</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
     <t>Bespreking project</t>
   </si>
   <si>
@@ -138,6 +249,48 @@
     <t>Working on Analyse</t>
   </si>
   <si>
+    <t>Feedback verwerken</t>
+  </si>
+  <si>
+    <t>SSD Contracten en basis structure code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KlasseDiagram Model Kant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KlasseDiagram View Kant </t>
+  </si>
+  <si>
+    <t>Sequentie Diagramen</t>
+  </si>
+  <si>
+    <t>Maak Vraag</t>
+  </si>
+  <si>
+    <t>Problemen met project (geen prints) convert naar VS</t>
+  </si>
+  <si>
+    <t>Restructuring Questions class with Answer Class</t>
+  </si>
+  <si>
+    <t>Calvin helpen met CreateQuestionView</t>
+  </si>
+  <si>
+    <t>Help Thibe met interactie diagram en limiet op Questions</t>
+  </si>
+  <si>
+    <t>Afwerking op Maak Vragen</t>
+  </si>
+  <si>
+    <t>Samen code</t>
+  </si>
+  <si>
+    <t>Code bekijken en bespreken over merge ( wachten op thibe)</t>
+  </si>
+  <si>
+    <t>Alles connecteren</t>
+  </si>
+  <si>
     <t>Eerste meeting</t>
   </si>
   <si>
@@ -159,6 +312,30 @@
     <t>Fully fledges use cases opstellen en feedback verwerken</t>
   </si>
   <si>
+    <t>Fully fledged use case make van vragenset aanmaken + overleg Thibe</t>
+  </si>
+  <si>
+    <t>uml maken</t>
+  </si>
+  <si>
+    <t>uml verder maken</t>
+  </si>
+  <si>
+    <t>07/11 - 17/11</t>
+  </si>
+  <si>
+    <t>gewerkt aan gui en deels onderliggende model</t>
+  </si>
+  <si>
+    <t>15 ofzo</t>
+  </si>
+  <si>
+    <t>samenvoegen van verschillende componenten</t>
+  </si>
+  <si>
+    <t>Taken</t>
+  </si>
+  <si>
     <t xml:space="preserve">Totaaltijd </t>
   </si>
   <si>
@@ -189,9 +366,6 @@
     <t>1 uur 30 min</t>
   </si>
   <si>
-    <t>Analyse</t>
-  </si>
-  <si>
     <t>Werken aan de analyse</t>
   </si>
   <si>
@@ -202,16 +376,107 @@
   </si>
   <si>
     <t>3 uur 30 min</t>
+  </si>
+  <si>
+    <t>Iteratie 1</t>
+  </si>
+  <si>
+    <t>Fully dressed use case: genereer proefexamen en open vragenset</t>
+  </si>
+  <si>
+    <t>2 uur 30 min</t>
+  </si>
+  <si>
+    <t>Contracten + sequentie diagrammen: genereer proefexamen en open vragenset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vragenset management model (aanmaken, zoeken) </t>
+  </si>
+  <si>
+    <t>Vragen management model (aanmaken, zoeken, opslaan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 uur</t>
+  </si>
+  <si>
+    <t>Afmaken vragen management model (aanmaken, zoeken, opslaan)</t>
+  </si>
+  <si>
+    <t>Ondervraging GUI</t>
+  </si>
+  <si>
+    <t>2 uur 15 min</t>
+  </si>
+  <si>
+    <t>Ondervraging model</t>
+  </si>
+  <si>
+    <t>8 uur</t>
+  </si>
+  <si>
+    <t>Ondervraging GUI multipleChoice</t>
+  </si>
+  <si>
+    <t>5 uur</t>
+  </si>
+  <si>
+    <t>4 uur</t>
+  </si>
+  <si>
+    <t>Ondervraging GUI flashcard</t>
+  </si>
+  <si>
+    <t>4 uur 15 min</t>
+  </si>
+  <si>
+    <t>2,5 uur</t>
+  </si>
+  <si>
+    <t>Ondervraging fill in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ondervraging model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 uur </t>
+  </si>
+  <si>
+    <t>Afwerking model + GUI ondervraging</t>
+  </si>
+  <si>
+    <t>7 uur</t>
+  </si>
+  <si>
+    <t>Pitch 2 bijwerken</t>
+  </si>
+  <si>
+    <t>Meeting Pitches</t>
+  </si>
+  <si>
+    <t>Pitch 1 bijwerken en controlleren</t>
+  </si>
+  <si>
+    <t>Pitches oefenen en presenteren</t>
+  </si>
+  <si>
+    <t>Oefenexamen beginnen</t>
+  </si>
+  <si>
+    <t>Oefenexamen CLI afwerken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="166" formatCode="d/m"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="d/m"/>
+    <numFmt numFmtId="168" formatCode="d-M-yyyy"/>
+    <numFmt numFmtId="169" formatCode="H:mm:ss"/>
+    <numFmt numFmtId="170" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -235,7 +500,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +519,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="20">
     <border/>
     <border>
       <left style="thin">
@@ -301,11 +572,221 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF356854"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF356854"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF356854"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7E1CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB7E1CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF356854"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7E1CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB7E1CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7E1CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB7E1CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7E1CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB7E1CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7E1CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -329,9 +810,15 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -348,6 +835,9 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -357,34 +847,148 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -393,20 +997,44 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
     <dxf>
       <font/>
       <fill>
@@ -417,7 +1045,51 @@
       </fill>
       <border/>
     </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
   </dxfs>
+  <tableStyles count="1">
+    <tableStyle count="3" pivot="0" name="Sander-style">
+      <tableStyleElement dxfId="2" type="headerRow"/>
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -443,6 +1115,22 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H25" displayName="Tabel1" name="Tabel1" id="1">
+  <tableColumns count="8">
+    <tableColumn name="Datum" id="1"/>
+    <tableColumn name="Mijlpaal" id="2"/>
+    <tableColumn name="Taak" id="3"/>
+    <tableColumn name="Prioriteit(1-10)" id="4"/>
+    <tableColumn name="Starttijd" id="5"/>
+    <tableColumn name="Eindtijd" id="6"/>
+    <tableColumn name="Totaaltijd (uur)" id="7"/>
+    <tableColumn name="Geschatte totaaltijd(Minuten)" id="8"/>
+  </tableColumns>
+  <tableStyleInfo name="Sander-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,14 +1337,16 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.25"/>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
     <col customWidth="1" min="2" max="2" width="38.63"/>
-    <col customWidth="1" min="3" max="3" width="47.75"/>
-    <col customWidth="1" min="4" max="4" width="16.5"/>
-    <col customWidth="1" min="5" max="5" width="18.5"/>
-    <col customWidth="1" min="6" max="6" width="16.88"/>
-    <col customWidth="1" min="7" max="7" width="14.13"/>
-    <col customWidth="1" min="8" max="8" width="16.38"/>
+    <col customWidth="1" min="3" max="3" width="13.25"/>
+    <col customWidth="1" min="4" max="4" width="38.63"/>
+    <col customWidth="1" min="5" max="5" width="47.75"/>
+    <col customWidth="1" min="6" max="6" width="16.5"/>
+    <col customWidth="1" min="7" max="7" width="18.5"/>
+    <col customWidth="1" min="8" max="8" width="16.88"/>
+    <col customWidth="1" min="9" max="9" width="14.13"/>
+    <col customWidth="1" min="10" max="10" width="16.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -681,8 +1371,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -690,69 +1386,79 @@
         <v>45586.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="3">
+        <v>45586.0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5">
         <v>10.0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="I2" s="5">
         <v>1.0</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5">
         <v>10.0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="I3" s="5">
         <v>3.5</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="H4" s="5">
         <v>10.0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="I4" s="5">
         <v>3.5</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -760,87 +1466,307 @@
         <v>45593.0</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8">
+        <v>45593.0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="3">
         <v>45614.0</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" s="10">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8">
+        <v>45606.0</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8">
+        <v>45606.0</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8">
+        <v>45610.0</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8">
+        <v>45610.0</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="12">
         <v>45646.0</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="10">
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="12">
         <v>45649.0</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="12"/>
+      <c r="B19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="14"/>
+      <c r="C21" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
   </mergeCells>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F19">
+      <formula1>"Compleet,Bezig,Niet Begonnen"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -865,153 +1791,308 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>23</v>
+      <c r="A1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12">
+      <c r="A2" s="14">
         <v>45575.0</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="16">
+      <c r="B2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="19">
         <v>0.8020833333333334</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="19">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="18">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12">
+      <c r="A3" s="14">
         <v>45579.0</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="C3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="19">
         <v>0.4791666666666667</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="19">
         <v>0.5555555555555556</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="18">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17">
+      <c r="A4" s="20">
         <v>45579.0</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="C4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="19">
         <v>0.6041666666666666</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="19">
         <v>0.71875</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="18">
         <v>2.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20">
+      <c r="A5" s="22">
         <v>45581.0</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15">
+      <c r="C5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18">
         <v>0.5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12">
+      <c r="A6" s="14">
         <v>45582.0</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="15">
+      <c r="C6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="18">
         <v>3.5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12">
+      <c r="A7" s="14">
         <v>45584.0</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="C7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="18">
         <v>1.5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12">
+      <c r="A8" s="14">
         <v>45586.0</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="15">
+      <c r="C8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="18">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12">
+      <c r="A9" s="14">
         <v>45589.0</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="15">
+      <c r="B9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="18">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12">
+      <c r="A10" s="14">
         <v>45591.0</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="C10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="18">
         <v>3.5</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="14">
+        <v>45593.0</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14">
+        <v>45595.0</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" ht="31.5" customHeight="1">
+      <c r="A13" s="14">
+        <v>45596.0</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="18">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="23">
+        <v>45597.0</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="24">
+        <v>45598.0</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="23">
+        <v>45598.0</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14">
+        <v>45603.0</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14">
+        <v>45606.0</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14">
+        <v>45608.0</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14">
+        <v>45609.0</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="14">
+        <v>45610.0</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="14">
+        <v>45610.0</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14">
+        <v>45613.0</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="18">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B23"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1022,3191 +2103,3495 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.25"/>
+    <col customWidth="1" min="1" max="1" width="13.63"/>
     <col customWidth="1" min="2" max="2" width="21.25"/>
     <col customWidth="1" min="3" max="3" width="51.5"/>
     <col customWidth="1" min="4" max="4" width="20.25"/>
     <col customWidth="1" min="5" max="6" width="18.38"/>
     <col customWidth="1" min="7" max="7" width="20.75"/>
-    <col customWidth="1" min="8" max="8" width="22.75"/>
+    <col customWidth="1" min="8" max="8" width="26.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>23</v>
+      <c r="A1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12">
+      <c r="A2" s="30">
         <v>45575.0</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="16">
+      <c r="B2" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="32">
         <v>0.8020833333333334</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="32">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="33">
         <f t="shared" ref="G2:G8" si="1">HOUR(F2-E2) + MINUTE(F2-E2) / 60</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12">
+      <c r="A3" s="34">
         <v>45579.0</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="B3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="36">
         <v>0.4791666666666667</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="36">
         <v>0.5555555555555556</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="33">
         <f t="shared" si="1"/>
         <v>1.833333333</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17">
+      <c r="A4" s="37">
         <v>45579.0</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="B4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="32">
         <v>0.6041666666666666</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="32">
         <v>0.71875</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="33">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12">
+      <c r="A5" s="34">
         <v>45581.0</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="B5" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="36">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="36">
         <v>0.6770833333333334</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="33">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12">
+      <c r="A6" s="30">
         <v>45582.0</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="B6" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="32">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="32">
         <v>0.5416666666666666</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="33">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12">
+      <c r="A7" s="34">
         <v>45582.0</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="B7" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="36">
         <v>0.5763888888888888</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="36">
         <v>0.625</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="33">
         <f t="shared" si="1"/>
         <v>1.166666667</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12">
+      <c r="A8" s="30">
         <v>45584.0</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="B8" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="32">
         <v>0.75</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="32">
         <v>0.8125</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="33">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12">
+      <c r="A9" s="34">
         <v>45586.0</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="24">
+      <c r="B9" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12">
+      <c r="A10" s="30">
         <v>45589.0</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="B10" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="32">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="32">
         <v>0.5833333333333334</v>
       </c>
-      <c r="G10" s="22">
-        <f t="shared" ref="G10:G11" si="2">HOUR(F10-E10) + MINUTE(F10-E10) / 60</f>
+      <c r="G10" s="33">
+        <f t="shared" ref="G10:G25" si="2">HOUR(F10-E10) + MINUTE(F10-E10) / 60</f>
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12">
+      <c r="A11" s="34">
         <v>45589.0</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="B11" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="36">
         <v>0.625</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="36">
         <v>0.7361111111111112</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="33">
         <f t="shared" si="2"/>
         <v>2.666666667</v>
       </c>
     </row>
     <row r="12">
-      <c r="G12" s="22"/>
+      <c r="A12" s="30">
+        <v>45591.0</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0.6875</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0.8125</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
-      <c r="G13" s="22"/>
+      <c r="A13" s="34">
+        <v>45595.0</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="G13" s="33">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
-      <c r="G14" s="22"/>
+      <c r="A14" s="30">
+        <v>45596.0</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
-      <c r="G15" s="22"/>
+      <c r="A15" s="34">
+        <v>45597.0</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="G15" s="33">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="16">
-      <c r="G16" s="22"/>
+      <c r="A16" s="30">
+        <v>45597.0</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43">
+        <v>0.625</v>
+      </c>
+      <c r="F16" s="43">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="G16" s="44">
+        <f t="shared" si="2"/>
+        <v>1.666666667</v>
+      </c>
+      <c r="H16" s="45"/>
     </row>
     <row r="17">
-      <c r="G17" s="22"/>
+      <c r="A17" s="46">
+        <v>45598.0</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="49">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="G17" s="44">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="50"/>
     </row>
     <row r="18">
-      <c r="G18" s="22"/>
+      <c r="A18" s="51">
+        <v>45598.0</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43">
+        <v>0.6354166666666666</v>
+      </c>
+      <c r="F18" s="43">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="G18" s="44">
+        <f t="shared" si="2"/>
+        <v>3.166666667</v>
+      </c>
+      <c r="H18" s="45"/>
     </row>
     <row r="19">
-      <c r="G19" s="22"/>
+      <c r="A19" s="34">
+        <v>45603.0</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="53">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="F19" s="53">
+        <v>0.7395833333333334</v>
+      </c>
+      <c r="G19" s="44">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="H19" s="50"/>
     </row>
     <row r="20">
-      <c r="G20" s="22"/>
+      <c r="A20" s="51">
+        <v>45603.0</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="54">
+        <v>0.7395833333333334</v>
+      </c>
+      <c r="F20" s="54">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="G20" s="44">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="H20" s="45"/>
     </row>
     <row r="21">
-      <c r="G21" s="22"/>
+      <c r="A21" s="46">
+        <v>45603.0</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="55">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="F21" s="55">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G21" s="44">
+        <f t="shared" si="2"/>
+        <v>0.6666666667</v>
+      </c>
+      <c r="H21" s="50"/>
     </row>
     <row r="22">
-      <c r="G22" s="22"/>
+      <c r="A22" s="30">
+        <v>45608.0</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="56">
+        <v>0.59375</v>
+      </c>
+      <c r="F22" s="56">
+        <v>0.65625</v>
+      </c>
+      <c r="G22" s="44">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H22" s="45"/>
     </row>
     <row r="23">
-      <c r="G23" s="22"/>
+      <c r="A23" s="46">
+        <v>45609.0</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="55">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F23" s="55">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="G23" s="44">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="H23" s="50"/>
     </row>
     <row r="24">
-      <c r="G24" s="22"/>
+      <c r="A24" s="51">
+        <v>45610.0</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="54">
+        <v>0.6736111111111112</v>
+      </c>
+      <c r="F24" s="54">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="G24" s="44">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="45"/>
     </row>
     <row r="25">
-      <c r="G25" s="22"/>
+      <c r="A25" s="57">
+        <v>45613.0</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60">
+        <v>0.78125</v>
+      </c>
+      <c r="F25" s="60">
+        <v>0.96875</v>
+      </c>
+      <c r="G25" s="61">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="H25" s="62"/>
     </row>
     <row r="26">
-      <c r="G26" s="22"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27">
-      <c r="G27" s="22"/>
+      <c r="G27" s="63"/>
     </row>
     <row r="28">
-      <c r="G28" s="22"/>
+      <c r="G28" s="63"/>
     </row>
     <row r="29">
-      <c r="G29" s="22"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30">
-      <c r="G30" s="22"/>
+      <c r="G30" s="63"/>
     </row>
     <row r="31">
-      <c r="G31" s="22"/>
+      <c r="G31" s="63"/>
     </row>
     <row r="32">
-      <c r="G32" s="22"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33">
-      <c r="G33" s="22"/>
+      <c r="G33" s="63"/>
     </row>
     <row r="34">
-      <c r="G34" s="22"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35">
-      <c r="G35" s="22"/>
+      <c r="G35" s="63"/>
     </row>
     <row r="36">
-      <c r="G36" s="22"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37">
-      <c r="G37" s="22"/>
+      <c r="G37" s="63"/>
     </row>
     <row r="38">
-      <c r="G38" s="22"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39">
-      <c r="G39" s="22"/>
+      <c r="G39" s="63"/>
     </row>
     <row r="40">
-      <c r="G40" s="22"/>
+      <c r="G40" s="63"/>
     </row>
     <row r="41">
-      <c r="G41" s="22"/>
+      <c r="G41" s="63"/>
     </row>
     <row r="42">
-      <c r="G42" s="22"/>
+      <c r="G42" s="63"/>
     </row>
     <row r="43">
-      <c r="G43" s="22"/>
+      <c r="G43" s="63"/>
     </row>
     <row r="44">
-      <c r="G44" s="22"/>
+      <c r="G44" s="63"/>
     </row>
     <row r="45">
-      <c r="G45" s="22"/>
+      <c r="G45" s="63"/>
     </row>
     <row r="46">
-      <c r="G46" s="22"/>
+      <c r="G46" s="63"/>
     </row>
     <row r="47">
-      <c r="G47" s="22"/>
+      <c r="G47" s="63"/>
     </row>
     <row r="48">
-      <c r="G48" s="22"/>
+      <c r="G48" s="63"/>
     </row>
     <row r="49">
-      <c r="G49" s="22"/>
+      <c r="G49" s="63"/>
     </row>
     <row r="50">
-      <c r="G50" s="22"/>
+      <c r="G50" s="63"/>
     </row>
     <row r="51">
-      <c r="G51" s="22"/>
+      <c r="G51" s="63"/>
     </row>
     <row r="52">
-      <c r="G52" s="22"/>
+      <c r="G52" s="63"/>
     </row>
     <row r="53">
-      <c r="G53" s="22"/>
+      <c r="G53" s="63"/>
     </row>
     <row r="54">
-      <c r="G54" s="22"/>
+      <c r="G54" s="63"/>
     </row>
     <row r="55">
-      <c r="G55" s="22"/>
+      <c r="G55" s="63"/>
     </row>
     <row r="56">
-      <c r="G56" s="22"/>
+      <c r="G56" s="63"/>
     </row>
     <row r="57">
-      <c r="G57" s="22"/>
+      <c r="G57" s="63"/>
     </row>
     <row r="58">
-      <c r="G58" s="22"/>
+      <c r="G58" s="63"/>
     </row>
     <row r="59">
-      <c r="G59" s="22"/>
+      <c r="G59" s="63"/>
     </row>
     <row r="60">
-      <c r="G60" s="22"/>
+      <c r="G60" s="63"/>
     </row>
     <row r="61">
-      <c r="G61" s="22"/>
+      <c r="G61" s="63"/>
     </row>
     <row r="62">
-      <c r="G62" s="22"/>
+      <c r="G62" s="63"/>
     </row>
     <row r="63">
-      <c r="G63" s="22"/>
+      <c r="G63" s="63"/>
     </row>
     <row r="64">
-      <c r="G64" s="22"/>
+      <c r="G64" s="63"/>
     </row>
     <row r="65">
-      <c r="G65" s="22"/>
+      <c r="G65" s="63"/>
     </row>
     <row r="66">
-      <c r="G66" s="22"/>
+      <c r="G66" s="63"/>
     </row>
     <row r="67">
-      <c r="G67" s="22"/>
+      <c r="G67" s="63"/>
     </row>
     <row r="68">
-      <c r="G68" s="22"/>
+      <c r="G68" s="63"/>
     </row>
     <row r="69">
-      <c r="G69" s="22"/>
+      <c r="G69" s="63"/>
     </row>
     <row r="70">
-      <c r="G70" s="22"/>
+      <c r="G70" s="63"/>
     </row>
     <row r="71">
-      <c r="G71" s="22"/>
+      <c r="G71" s="63"/>
     </row>
     <row r="72">
-      <c r="G72" s="22"/>
+      <c r="G72" s="63"/>
     </row>
     <row r="73">
-      <c r="G73" s="22"/>
+      <c r="G73" s="63"/>
     </row>
     <row r="74">
-      <c r="G74" s="22"/>
+      <c r="G74" s="63"/>
     </row>
     <row r="75">
-      <c r="G75" s="22"/>
+      <c r="G75" s="63"/>
     </row>
     <row r="76">
-      <c r="G76" s="22"/>
+      <c r="G76" s="63"/>
     </row>
     <row r="77">
-      <c r="G77" s="22"/>
+      <c r="G77" s="63"/>
     </row>
     <row r="78">
-      <c r="G78" s="22"/>
+      <c r="G78" s="63"/>
     </row>
     <row r="79">
-      <c r="G79" s="22"/>
+      <c r="G79" s="63"/>
     </row>
     <row r="80">
-      <c r="G80" s="22"/>
+      <c r="G80" s="63"/>
     </row>
     <row r="81">
-      <c r="G81" s="22"/>
+      <c r="G81" s="63"/>
     </row>
     <row r="82">
-      <c r="G82" s="22"/>
+      <c r="G82" s="63"/>
     </row>
     <row r="83">
-      <c r="G83" s="22"/>
+      <c r="G83" s="63"/>
     </row>
     <row r="84">
-      <c r="G84" s="22"/>
+      <c r="G84" s="63"/>
     </row>
     <row r="85">
-      <c r="G85" s="22"/>
+      <c r="G85" s="63"/>
     </row>
     <row r="86">
-      <c r="G86" s="22"/>
+      <c r="G86" s="63"/>
     </row>
     <row r="87">
-      <c r="G87" s="22"/>
+      <c r="G87" s="63"/>
     </row>
     <row r="88">
-      <c r="G88" s="22"/>
+      <c r="G88" s="63"/>
     </row>
     <row r="89">
-      <c r="G89" s="22"/>
+      <c r="G89" s="63"/>
     </row>
     <row r="90">
-      <c r="G90" s="22"/>
+      <c r="G90" s="63"/>
     </row>
     <row r="91">
-      <c r="G91" s="22"/>
+      <c r="G91" s="63"/>
     </row>
     <row r="92">
-      <c r="G92" s="22"/>
+      <c r="G92" s="63"/>
     </row>
     <row r="93">
-      <c r="G93" s="22"/>
+      <c r="G93" s="63"/>
     </row>
     <row r="94">
-      <c r="G94" s="22"/>
+      <c r="G94" s="63"/>
     </row>
     <row r="95">
-      <c r="G95" s="22"/>
+      <c r="G95" s="63"/>
     </row>
     <row r="96">
-      <c r="G96" s="22"/>
+      <c r="G96" s="63"/>
     </row>
     <row r="97">
-      <c r="G97" s="22"/>
+      <c r="G97" s="63"/>
     </row>
     <row r="98">
-      <c r="G98" s="22"/>
+      <c r="G98" s="63"/>
     </row>
     <row r="99">
-      <c r="G99" s="22"/>
+      <c r="G99" s="63"/>
     </row>
     <row r="100">
-      <c r="G100" s="22"/>
+      <c r="G100" s="63"/>
     </row>
     <row r="101">
-      <c r="G101" s="22"/>
+      <c r="G101" s="63"/>
     </row>
     <row r="102">
-      <c r="G102" s="22"/>
+      <c r="G102" s="63"/>
     </row>
     <row r="103">
-      <c r="G103" s="22"/>
+      <c r="G103" s="63"/>
     </row>
     <row r="104">
-      <c r="G104" s="22"/>
+      <c r="G104" s="63"/>
     </row>
     <row r="105">
-      <c r="G105" s="22"/>
+      <c r="G105" s="63"/>
     </row>
     <row r="106">
-      <c r="G106" s="22"/>
+      <c r="G106" s="63"/>
     </row>
     <row r="107">
-      <c r="G107" s="22"/>
+      <c r="G107" s="63"/>
     </row>
     <row r="108">
-      <c r="G108" s="22"/>
+      <c r="G108" s="63"/>
     </row>
     <row r="109">
-      <c r="G109" s="22"/>
+      <c r="G109" s="63"/>
     </row>
     <row r="110">
-      <c r="G110" s="22"/>
+      <c r="G110" s="63"/>
     </row>
     <row r="111">
-      <c r="G111" s="22"/>
+      <c r="G111" s="63"/>
     </row>
     <row r="112">
-      <c r="G112" s="22"/>
+      <c r="G112" s="63"/>
     </row>
     <row r="113">
-      <c r="G113" s="22"/>
+      <c r="G113" s="63"/>
     </row>
     <row r="114">
-      <c r="G114" s="22"/>
+      <c r="G114" s="63"/>
     </row>
     <row r="115">
-      <c r="G115" s="22"/>
+      <c r="G115" s="63"/>
     </row>
     <row r="116">
-      <c r="G116" s="22"/>
+      <c r="G116" s="63"/>
     </row>
     <row r="117">
-      <c r="G117" s="22"/>
+      <c r="G117" s="63"/>
     </row>
     <row r="118">
-      <c r="G118" s="22"/>
+      <c r="G118" s="63"/>
     </row>
     <row r="119">
-      <c r="G119" s="22"/>
+      <c r="G119" s="63"/>
     </row>
     <row r="120">
-      <c r="G120" s="22"/>
+      <c r="G120" s="63"/>
     </row>
     <row r="121">
-      <c r="G121" s="22"/>
+      <c r="G121" s="63"/>
     </row>
     <row r="122">
-      <c r="G122" s="22"/>
+      <c r="G122" s="63"/>
     </row>
     <row r="123">
-      <c r="G123" s="22"/>
+      <c r="G123" s="63"/>
     </row>
     <row r="124">
-      <c r="G124" s="22"/>
+      <c r="G124" s="63"/>
     </row>
     <row r="125">
-      <c r="G125" s="22"/>
+      <c r="G125" s="63"/>
     </row>
     <row r="126">
-      <c r="G126" s="22"/>
+      <c r="G126" s="63"/>
     </row>
     <row r="127">
-      <c r="G127" s="22"/>
+      <c r="G127" s="63"/>
     </row>
     <row r="128">
-      <c r="G128" s="22"/>
+      <c r="G128" s="63"/>
     </row>
     <row r="129">
-      <c r="G129" s="22"/>
+      <c r="G129" s="63"/>
     </row>
     <row r="130">
-      <c r="G130" s="22"/>
+      <c r="G130" s="63"/>
     </row>
     <row r="131">
-      <c r="G131" s="22"/>
+      <c r="G131" s="63"/>
     </row>
     <row r="132">
-      <c r="G132" s="22"/>
+      <c r="G132" s="63"/>
     </row>
     <row r="133">
-      <c r="G133" s="22"/>
+      <c r="G133" s="63"/>
     </row>
     <row r="134">
-      <c r="G134" s="22"/>
+      <c r="G134" s="63"/>
     </row>
     <row r="135">
-      <c r="G135" s="22"/>
+      <c r="G135" s="63"/>
     </row>
     <row r="136">
-      <c r="G136" s="22"/>
+      <c r="G136" s="63"/>
     </row>
     <row r="137">
-      <c r="G137" s="22"/>
+      <c r="G137" s="63"/>
     </row>
     <row r="138">
-      <c r="G138" s="22"/>
+      <c r="G138" s="63"/>
     </row>
     <row r="139">
-      <c r="G139" s="22"/>
+      <c r="G139" s="63"/>
     </row>
     <row r="140">
-      <c r="G140" s="22"/>
+      <c r="G140" s="63"/>
     </row>
     <row r="141">
-      <c r="G141" s="22"/>
+      <c r="G141" s="63"/>
     </row>
     <row r="142">
-      <c r="G142" s="22"/>
+      <c r="G142" s="63"/>
     </row>
     <row r="143">
-      <c r="G143" s="22"/>
+      <c r="G143" s="63"/>
     </row>
     <row r="144">
-      <c r="G144" s="22"/>
+      <c r="G144" s="63"/>
     </row>
     <row r="145">
-      <c r="G145" s="22"/>
+      <c r="G145" s="63"/>
     </row>
     <row r="146">
-      <c r="G146" s="22"/>
+      <c r="G146" s="63"/>
     </row>
     <row r="147">
-      <c r="G147" s="22"/>
+      <c r="G147" s="63"/>
     </row>
     <row r="148">
-      <c r="G148" s="22"/>
+      <c r="G148" s="63"/>
     </row>
     <row r="149">
-      <c r="G149" s="22"/>
+      <c r="G149" s="63"/>
     </row>
     <row r="150">
-      <c r="G150" s="22"/>
+      <c r="G150" s="63"/>
     </row>
     <row r="151">
-      <c r="G151" s="22"/>
+      <c r="G151" s="63"/>
     </row>
     <row r="152">
-      <c r="G152" s="22"/>
+      <c r="G152" s="63"/>
     </row>
     <row r="153">
-      <c r="G153" s="22"/>
+      <c r="G153" s="63"/>
     </row>
     <row r="154">
-      <c r="G154" s="22"/>
+      <c r="G154" s="63"/>
     </row>
     <row r="155">
-      <c r="G155" s="22"/>
+      <c r="G155" s="63"/>
     </row>
     <row r="156">
-      <c r="G156" s="22"/>
+      <c r="G156" s="63"/>
     </row>
     <row r="157">
-      <c r="G157" s="22"/>
+      <c r="G157" s="63"/>
     </row>
     <row r="158">
-      <c r="G158" s="22"/>
+      <c r="G158" s="63"/>
     </row>
     <row r="159">
-      <c r="G159" s="22"/>
+      <c r="G159" s="63"/>
     </row>
     <row r="160">
-      <c r="G160" s="22"/>
+      <c r="G160" s="63"/>
     </row>
     <row r="161">
-      <c r="G161" s="22"/>
+      <c r="G161" s="63"/>
     </row>
     <row r="162">
-      <c r="G162" s="22"/>
+      <c r="G162" s="63"/>
     </row>
     <row r="163">
-      <c r="G163" s="22"/>
+      <c r="G163" s="63"/>
     </row>
     <row r="164">
-      <c r="G164" s="22"/>
+      <c r="G164" s="63"/>
     </row>
     <row r="165">
-      <c r="G165" s="22"/>
+      <c r="G165" s="63"/>
     </row>
     <row r="166">
-      <c r="G166" s="22"/>
+      <c r="G166" s="63"/>
     </row>
     <row r="167">
-      <c r="G167" s="22"/>
+      <c r="G167" s="63"/>
     </row>
     <row r="168">
-      <c r="G168" s="22"/>
+      <c r="G168" s="63"/>
     </row>
     <row r="169">
-      <c r="G169" s="22"/>
+      <c r="G169" s="63"/>
     </row>
     <row r="170">
-      <c r="G170" s="22"/>
+      <c r="G170" s="63"/>
     </row>
     <row r="171">
-      <c r="G171" s="22"/>
+      <c r="G171" s="63"/>
     </row>
     <row r="172">
-      <c r="G172" s="22"/>
+      <c r="G172" s="63"/>
     </row>
     <row r="173">
-      <c r="G173" s="22"/>
+      <c r="G173" s="63"/>
     </row>
     <row r="174">
-      <c r="G174" s="22"/>
+      <c r="G174" s="63"/>
     </row>
     <row r="175">
-      <c r="G175" s="22"/>
+      <c r="G175" s="63"/>
     </row>
     <row r="176">
-      <c r="G176" s="22"/>
+      <c r="G176" s="63"/>
     </row>
     <row r="177">
-      <c r="G177" s="22"/>
+      <c r="G177" s="63"/>
     </row>
     <row r="178">
-      <c r="G178" s="22"/>
+      <c r="G178" s="63"/>
     </row>
     <row r="179">
-      <c r="G179" s="22"/>
+      <c r="G179" s="63"/>
     </row>
     <row r="180">
-      <c r="G180" s="22"/>
+      <c r="G180" s="63"/>
     </row>
     <row r="181">
-      <c r="G181" s="22"/>
+      <c r="G181" s="63"/>
     </row>
     <row r="182">
-      <c r="G182" s="22"/>
+      <c r="G182" s="63"/>
     </row>
     <row r="183">
-      <c r="G183" s="22"/>
+      <c r="G183" s="63"/>
     </row>
     <row r="184">
-      <c r="G184" s="22"/>
+      <c r="G184" s="63"/>
     </row>
     <row r="185">
-      <c r="G185" s="22"/>
+      <c r="G185" s="63"/>
     </row>
     <row r="186">
-      <c r="G186" s="22"/>
+      <c r="G186" s="63"/>
     </row>
     <row r="187">
-      <c r="G187" s="22"/>
+      <c r="G187" s="63"/>
     </row>
     <row r="188">
-      <c r="G188" s="22"/>
+      <c r="G188" s="63"/>
     </row>
     <row r="189">
-      <c r="G189" s="22"/>
+      <c r="G189" s="63"/>
     </row>
     <row r="190">
-      <c r="G190" s="22"/>
+      <c r="G190" s="63"/>
     </row>
     <row r="191">
-      <c r="G191" s="22"/>
+      <c r="G191" s="63"/>
     </row>
     <row r="192">
-      <c r="G192" s="22"/>
+      <c r="G192" s="63"/>
     </row>
     <row r="193">
-      <c r="G193" s="22"/>
+      <c r="G193" s="63"/>
     </row>
     <row r="194">
-      <c r="G194" s="22"/>
+      <c r="G194" s="63"/>
     </row>
     <row r="195">
-      <c r="G195" s="22"/>
+      <c r="G195" s="63"/>
     </row>
     <row r="196">
-      <c r="G196" s="22"/>
+      <c r="G196" s="63"/>
     </row>
     <row r="197">
-      <c r="G197" s="22"/>
+      <c r="G197" s="63"/>
     </row>
     <row r="198">
-      <c r="G198" s="22"/>
+      <c r="G198" s="63"/>
     </row>
     <row r="199">
-      <c r="G199" s="22"/>
+      <c r="G199" s="63"/>
     </row>
     <row r="200">
-      <c r="G200" s="22"/>
+      <c r="G200" s="63"/>
     </row>
     <row r="201">
-      <c r="G201" s="22"/>
+      <c r="G201" s="63"/>
     </row>
     <row r="202">
-      <c r="G202" s="22"/>
+      <c r="G202" s="63"/>
     </row>
     <row r="203">
-      <c r="G203" s="22"/>
+      <c r="G203" s="63"/>
     </row>
     <row r="204">
-      <c r="G204" s="22"/>
+      <c r="G204" s="63"/>
     </row>
     <row r="205">
-      <c r="G205" s="22"/>
+      <c r="G205" s="63"/>
     </row>
     <row r="206">
-      <c r="G206" s="22"/>
+      <c r="G206" s="63"/>
     </row>
     <row r="207">
-      <c r="G207" s="22"/>
+      <c r="G207" s="63"/>
     </row>
     <row r="208">
-      <c r="G208" s="22"/>
+      <c r="G208" s="63"/>
     </row>
     <row r="209">
-      <c r="G209" s="22"/>
+      <c r="G209" s="63"/>
     </row>
     <row r="210">
-      <c r="G210" s="22"/>
+      <c r="G210" s="63"/>
     </row>
     <row r="211">
-      <c r="G211" s="22"/>
+      <c r="G211" s="63"/>
     </row>
     <row r="212">
-      <c r="G212" s="22"/>
+      <c r="G212" s="63"/>
     </row>
     <row r="213">
-      <c r="G213" s="22"/>
+      <c r="G213" s="63"/>
     </row>
     <row r="214">
-      <c r="G214" s="22"/>
+      <c r="G214" s="63"/>
     </row>
     <row r="215">
-      <c r="G215" s="22"/>
+      <c r="G215" s="63"/>
     </row>
     <row r="216">
-      <c r="G216" s="22"/>
+      <c r="G216" s="63"/>
     </row>
     <row r="217">
-      <c r="G217" s="22"/>
+      <c r="G217" s="63"/>
     </row>
     <row r="218">
-      <c r="G218" s="22"/>
+      <c r="G218" s="63"/>
     </row>
     <row r="219">
-      <c r="G219" s="22"/>
+      <c r="G219" s="63"/>
     </row>
     <row r="220">
-      <c r="G220" s="22"/>
+      <c r="G220" s="63"/>
     </row>
     <row r="221">
-      <c r="G221" s="22"/>
+      <c r="G221" s="63"/>
     </row>
     <row r="222">
-      <c r="G222" s="22"/>
+      <c r="G222" s="63"/>
     </row>
     <row r="223">
-      <c r="G223" s="22"/>
+      <c r="G223" s="63"/>
     </row>
     <row r="224">
-      <c r="G224" s="22"/>
+      <c r="G224" s="63"/>
     </row>
     <row r="225">
-      <c r="G225" s="22"/>
+      <c r="G225" s="63"/>
     </row>
     <row r="226">
-      <c r="G226" s="22"/>
+      <c r="G226" s="63"/>
     </row>
     <row r="227">
-      <c r="G227" s="22"/>
+      <c r="G227" s="63"/>
     </row>
     <row r="228">
-      <c r="G228" s="22"/>
+      <c r="G228" s="63"/>
     </row>
     <row r="229">
-      <c r="G229" s="22"/>
+      <c r="G229" s="63"/>
     </row>
     <row r="230">
-      <c r="G230" s="22"/>
+      <c r="G230" s="63"/>
     </row>
     <row r="231">
-      <c r="G231" s="22"/>
+      <c r="G231" s="63"/>
     </row>
     <row r="232">
-      <c r="G232" s="22"/>
+      <c r="G232" s="63"/>
     </row>
     <row r="233">
-      <c r="G233" s="22"/>
+      <c r="G233" s="63"/>
     </row>
     <row r="234">
-      <c r="G234" s="22"/>
+      <c r="G234" s="63"/>
     </row>
     <row r="235">
-      <c r="G235" s="22"/>
+      <c r="G235" s="63"/>
     </row>
     <row r="236">
-      <c r="G236" s="22"/>
+      <c r="G236" s="63"/>
     </row>
     <row r="237">
-      <c r="G237" s="22"/>
+      <c r="G237" s="63"/>
     </row>
     <row r="238">
-      <c r="G238" s="22"/>
+      <c r="G238" s="63"/>
     </row>
     <row r="239">
-      <c r="G239" s="22"/>
+      <c r="G239" s="63"/>
     </row>
     <row r="240">
-      <c r="G240" s="22"/>
+      <c r="G240" s="63"/>
     </row>
     <row r="241">
-      <c r="G241" s="22"/>
+      <c r="G241" s="63"/>
     </row>
     <row r="242">
-      <c r="G242" s="22"/>
+      <c r="G242" s="63"/>
     </row>
     <row r="243">
-      <c r="G243" s="22"/>
+      <c r="G243" s="63"/>
     </row>
     <row r="244">
-      <c r="G244" s="22"/>
+      <c r="G244" s="63"/>
     </row>
     <row r="245">
-      <c r="G245" s="22"/>
+      <c r="G245" s="63"/>
     </row>
     <row r="246">
-      <c r="G246" s="22"/>
+      <c r="G246" s="63"/>
     </row>
     <row r="247">
-      <c r="G247" s="22"/>
+      <c r="G247" s="63"/>
     </row>
     <row r="248">
-      <c r="G248" s="22"/>
+      <c r="G248" s="63"/>
     </row>
     <row r="249">
-      <c r="G249" s="22"/>
+      <c r="G249" s="63"/>
     </row>
     <row r="250">
-      <c r="G250" s="22"/>
+      <c r="G250" s="63"/>
     </row>
     <row r="251">
-      <c r="G251" s="22"/>
+      <c r="G251" s="63"/>
     </row>
     <row r="252">
-      <c r="G252" s="22"/>
+      <c r="G252" s="63"/>
     </row>
     <row r="253">
-      <c r="G253" s="22"/>
+      <c r="G253" s="63"/>
     </row>
     <row r="254">
-      <c r="G254" s="22"/>
+      <c r="G254" s="63"/>
     </row>
     <row r="255">
-      <c r="G255" s="22"/>
+      <c r="G255" s="63"/>
     </row>
     <row r="256">
-      <c r="G256" s="22"/>
+      <c r="G256" s="63"/>
     </row>
     <row r="257">
-      <c r="G257" s="22"/>
+      <c r="G257" s="63"/>
     </row>
     <row r="258">
-      <c r="G258" s="22"/>
+      <c r="G258" s="63"/>
     </row>
     <row r="259">
-      <c r="G259" s="22"/>
+      <c r="G259" s="63"/>
     </row>
     <row r="260">
-      <c r="G260" s="22"/>
+      <c r="G260" s="63"/>
     </row>
     <row r="261">
-      <c r="G261" s="22"/>
+      <c r="G261" s="63"/>
     </row>
     <row r="262">
-      <c r="G262" s="22"/>
+      <c r="G262" s="63"/>
     </row>
     <row r="263">
-      <c r="G263" s="22"/>
+      <c r="G263" s="63"/>
     </row>
     <row r="264">
-      <c r="G264" s="22"/>
+      <c r="G264" s="63"/>
     </row>
     <row r="265">
-      <c r="G265" s="22"/>
+      <c r="G265" s="63"/>
     </row>
     <row r="266">
-      <c r="G266" s="22"/>
+      <c r="G266" s="63"/>
     </row>
     <row r="267">
-      <c r="G267" s="22"/>
+      <c r="G267" s="63"/>
     </row>
     <row r="268">
-      <c r="G268" s="22"/>
+      <c r="G268" s="63"/>
     </row>
     <row r="269">
-      <c r="G269" s="22"/>
+      <c r="G269" s="63"/>
     </row>
     <row r="270">
-      <c r="G270" s="22"/>
+      <c r="G270" s="63"/>
     </row>
     <row r="271">
-      <c r="G271" s="22"/>
+      <c r="G271" s="63"/>
     </row>
     <row r="272">
-      <c r="G272" s="22"/>
+      <c r="G272" s="63"/>
     </row>
     <row r="273">
-      <c r="G273" s="22"/>
+      <c r="G273" s="63"/>
     </row>
     <row r="274">
-      <c r="G274" s="22"/>
+      <c r="G274" s="63"/>
     </row>
     <row r="275">
-      <c r="G275" s="22"/>
+      <c r="G275" s="63"/>
     </row>
     <row r="276">
-      <c r="G276" s="22"/>
+      <c r="G276" s="63"/>
     </row>
     <row r="277">
-      <c r="G277" s="22"/>
+      <c r="G277" s="63"/>
     </row>
     <row r="278">
-      <c r="G278" s="22"/>
+      <c r="G278" s="63"/>
     </row>
     <row r="279">
-      <c r="G279" s="22"/>
+      <c r="G279" s="63"/>
     </row>
     <row r="280">
-      <c r="G280" s="22"/>
+      <c r="G280" s="63"/>
     </row>
     <row r="281">
-      <c r="G281" s="22"/>
+      <c r="G281" s="63"/>
     </row>
     <row r="282">
-      <c r="G282" s="22"/>
+      <c r="G282" s="63"/>
     </row>
     <row r="283">
-      <c r="G283" s="22"/>
+      <c r="G283" s="63"/>
     </row>
     <row r="284">
-      <c r="G284" s="22"/>
+      <c r="G284" s="63"/>
     </row>
     <row r="285">
-      <c r="G285" s="22"/>
+      <c r="G285" s="63"/>
     </row>
     <row r="286">
-      <c r="G286" s="22"/>
+      <c r="G286" s="63"/>
     </row>
     <row r="287">
-      <c r="G287" s="22"/>
+      <c r="G287" s="63"/>
     </row>
     <row r="288">
-      <c r="G288" s="22"/>
+      <c r="G288" s="63"/>
     </row>
     <row r="289">
-      <c r="G289" s="22"/>
+      <c r="G289" s="63"/>
     </row>
     <row r="290">
-      <c r="G290" s="22"/>
+      <c r="G290" s="63"/>
     </row>
     <row r="291">
-      <c r="G291" s="22"/>
+      <c r="G291" s="63"/>
     </row>
     <row r="292">
-      <c r="G292" s="22"/>
+      <c r="G292" s="63"/>
     </row>
     <row r="293">
-      <c r="G293" s="22"/>
+      <c r="G293" s="63"/>
     </row>
     <row r="294">
-      <c r="G294" s="22"/>
+      <c r="G294" s="63"/>
     </row>
     <row r="295">
-      <c r="G295" s="22"/>
+      <c r="G295" s="63"/>
     </row>
     <row r="296">
-      <c r="G296" s="22"/>
+      <c r="G296" s="63"/>
     </row>
     <row r="297">
-      <c r="G297" s="22"/>
+      <c r="G297" s="63"/>
     </row>
     <row r="298">
-      <c r="G298" s="22"/>
+      <c r="G298" s="63"/>
     </row>
     <row r="299">
-      <c r="G299" s="22"/>
+      <c r="G299" s="63"/>
     </row>
     <row r="300">
-      <c r="G300" s="22"/>
+      <c r="G300" s="63"/>
     </row>
     <row r="301">
-      <c r="G301" s="22"/>
+      <c r="G301" s="63"/>
     </row>
     <row r="302">
-      <c r="G302" s="22"/>
+      <c r="G302" s="63"/>
     </row>
     <row r="303">
-      <c r="G303" s="22"/>
+      <c r="G303" s="63"/>
     </row>
     <row r="304">
-      <c r="G304" s="22"/>
+      <c r="G304" s="63"/>
     </row>
     <row r="305">
-      <c r="G305" s="22"/>
+      <c r="G305" s="63"/>
     </row>
     <row r="306">
-      <c r="G306" s="22"/>
+      <c r="G306" s="63"/>
     </row>
     <row r="307">
-      <c r="G307" s="22"/>
+      <c r="G307" s="63"/>
     </row>
     <row r="308">
-      <c r="G308" s="22"/>
+      <c r="G308" s="63"/>
     </row>
     <row r="309">
-      <c r="G309" s="22"/>
+      <c r="G309" s="63"/>
     </row>
     <row r="310">
-      <c r="G310" s="22"/>
+      <c r="G310" s="63"/>
     </row>
     <row r="311">
-      <c r="G311" s="22"/>
+      <c r="G311" s="63"/>
     </row>
     <row r="312">
-      <c r="G312" s="22"/>
+      <c r="G312" s="63"/>
     </row>
     <row r="313">
-      <c r="G313" s="22"/>
+      <c r="G313" s="63"/>
     </row>
     <row r="314">
-      <c r="G314" s="22"/>
+      <c r="G314" s="63"/>
     </row>
     <row r="315">
-      <c r="G315" s="22"/>
+      <c r="G315" s="63"/>
     </row>
     <row r="316">
-      <c r="G316" s="22"/>
+      <c r="G316" s="63"/>
     </row>
     <row r="317">
-      <c r="G317" s="22"/>
+      <c r="G317" s="63"/>
     </row>
     <row r="318">
-      <c r="G318" s="22"/>
+      <c r="G318" s="63"/>
     </row>
     <row r="319">
-      <c r="G319" s="22"/>
+      <c r="G319" s="63"/>
     </row>
     <row r="320">
-      <c r="G320" s="22"/>
+      <c r="G320" s="63"/>
     </row>
     <row r="321">
-      <c r="G321" s="22"/>
+      <c r="G321" s="63"/>
     </row>
     <row r="322">
-      <c r="G322" s="22"/>
+      <c r="G322" s="63"/>
     </row>
     <row r="323">
-      <c r="G323" s="22"/>
+      <c r="G323" s="63"/>
     </row>
     <row r="324">
-      <c r="G324" s="22"/>
+      <c r="G324" s="63"/>
     </row>
     <row r="325">
-      <c r="G325" s="22"/>
+      <c r="G325" s="63"/>
     </row>
     <row r="326">
-      <c r="G326" s="22"/>
+      <c r="G326" s="63"/>
     </row>
     <row r="327">
-      <c r="G327" s="22"/>
+      <c r="G327" s="63"/>
     </row>
     <row r="328">
-      <c r="G328" s="22"/>
+      <c r="G328" s="63"/>
     </row>
     <row r="329">
-      <c r="G329" s="22"/>
+      <c r="G329" s="63"/>
     </row>
     <row r="330">
-      <c r="G330" s="22"/>
+      <c r="G330" s="63"/>
     </row>
     <row r="331">
-      <c r="G331" s="22"/>
+      <c r="G331" s="63"/>
     </row>
     <row r="332">
-      <c r="G332" s="22"/>
+      <c r="G332" s="63"/>
     </row>
     <row r="333">
-      <c r="G333" s="22"/>
+      <c r="G333" s="63"/>
     </row>
     <row r="334">
-      <c r="G334" s="22"/>
+      <c r="G334" s="63"/>
     </row>
     <row r="335">
-      <c r="G335" s="22"/>
+      <c r="G335" s="63"/>
     </row>
     <row r="336">
-      <c r="G336" s="22"/>
+      <c r="G336" s="63"/>
     </row>
     <row r="337">
-      <c r="G337" s="22"/>
+      <c r="G337" s="63"/>
     </row>
     <row r="338">
-      <c r="G338" s="22"/>
+      <c r="G338" s="63"/>
     </row>
     <row r="339">
-      <c r="G339" s="22"/>
+      <c r="G339" s="63"/>
     </row>
     <row r="340">
-      <c r="G340" s="22"/>
+      <c r="G340" s="63"/>
     </row>
     <row r="341">
-      <c r="G341" s="22"/>
+      <c r="G341" s="63"/>
     </row>
     <row r="342">
-      <c r="G342" s="22"/>
+      <c r="G342" s="63"/>
     </row>
     <row r="343">
-      <c r="G343" s="22"/>
+      <c r="G343" s="63"/>
     </row>
     <row r="344">
-      <c r="G344" s="22"/>
+      <c r="G344" s="63"/>
     </row>
     <row r="345">
-      <c r="G345" s="22"/>
+      <c r="G345" s="63"/>
     </row>
     <row r="346">
-      <c r="G346" s="22"/>
+      <c r="G346" s="63"/>
     </row>
     <row r="347">
-      <c r="G347" s="22"/>
+      <c r="G347" s="63"/>
     </row>
     <row r="348">
-      <c r="G348" s="22"/>
+      <c r="G348" s="63"/>
     </row>
     <row r="349">
-      <c r="G349" s="22"/>
+      <c r="G349" s="63"/>
     </row>
     <row r="350">
-      <c r="G350" s="22"/>
+      <c r="G350" s="63"/>
     </row>
     <row r="351">
-      <c r="G351" s="22"/>
+      <c r="G351" s="63"/>
     </row>
     <row r="352">
-      <c r="G352" s="22"/>
+      <c r="G352" s="63"/>
     </row>
     <row r="353">
-      <c r="G353" s="22"/>
+      <c r="G353" s="63"/>
     </row>
     <row r="354">
-      <c r="G354" s="22"/>
+      <c r="G354" s="63"/>
     </row>
     <row r="355">
-      <c r="G355" s="22"/>
+      <c r="G355" s="63"/>
     </row>
     <row r="356">
-      <c r="G356" s="22"/>
+      <c r="G356" s="63"/>
     </row>
     <row r="357">
-      <c r="G357" s="22"/>
+      <c r="G357" s="63"/>
     </row>
     <row r="358">
-      <c r="G358" s="22"/>
+      <c r="G358" s="63"/>
     </row>
     <row r="359">
-      <c r="G359" s="22"/>
+      <c r="G359" s="63"/>
     </row>
     <row r="360">
-      <c r="G360" s="22"/>
+      <c r="G360" s="63"/>
     </row>
     <row r="361">
-      <c r="G361" s="22"/>
+      <c r="G361" s="63"/>
     </row>
     <row r="362">
-      <c r="G362" s="22"/>
+      <c r="G362" s="63"/>
     </row>
     <row r="363">
-      <c r="G363" s="22"/>
+      <c r="G363" s="63"/>
     </row>
     <row r="364">
-      <c r="G364" s="22"/>
+      <c r="G364" s="63"/>
     </row>
     <row r="365">
-      <c r="G365" s="22"/>
+      <c r="G365" s="63"/>
     </row>
     <row r="366">
-      <c r="G366" s="22"/>
+      <c r="G366" s="63"/>
     </row>
     <row r="367">
-      <c r="G367" s="22"/>
+      <c r="G367" s="63"/>
     </row>
     <row r="368">
-      <c r="G368" s="22"/>
+      <c r="G368" s="63"/>
     </row>
     <row r="369">
-      <c r="G369" s="22"/>
+      <c r="G369" s="63"/>
     </row>
     <row r="370">
-      <c r="G370" s="22"/>
+      <c r="G370" s="63"/>
     </row>
     <row r="371">
-      <c r="G371" s="22"/>
+      <c r="G371" s="63"/>
     </row>
     <row r="372">
-      <c r="G372" s="22"/>
+      <c r="G372" s="63"/>
     </row>
     <row r="373">
-      <c r="G373" s="22"/>
+      <c r="G373" s="63"/>
     </row>
     <row r="374">
-      <c r="G374" s="22"/>
+      <c r="G374" s="63"/>
     </row>
     <row r="375">
-      <c r="G375" s="22"/>
+      <c r="G375" s="63"/>
     </row>
     <row r="376">
-      <c r="G376" s="22"/>
+      <c r="G376" s="63"/>
     </row>
     <row r="377">
-      <c r="G377" s="22"/>
+      <c r="G377" s="63"/>
     </row>
     <row r="378">
-      <c r="G378" s="22"/>
+      <c r="G378" s="63"/>
     </row>
     <row r="379">
-      <c r="G379" s="22"/>
+      <c r="G379" s="63"/>
     </row>
     <row r="380">
-      <c r="G380" s="22"/>
+      <c r="G380" s="63"/>
     </row>
     <row r="381">
-      <c r="G381" s="22"/>
+      <c r="G381" s="63"/>
     </row>
     <row r="382">
-      <c r="G382" s="22"/>
+      <c r="G382" s="63"/>
     </row>
     <row r="383">
-      <c r="G383" s="22"/>
+      <c r="G383" s="63"/>
     </row>
     <row r="384">
-      <c r="G384" s="22"/>
+      <c r="G384" s="63"/>
     </row>
     <row r="385">
-      <c r="G385" s="22"/>
+      <c r="G385" s="63"/>
     </row>
     <row r="386">
-      <c r="G386" s="22"/>
+      <c r="G386" s="63"/>
     </row>
     <row r="387">
-      <c r="G387" s="22"/>
+      <c r="G387" s="63"/>
     </row>
     <row r="388">
-      <c r="G388" s="22"/>
+      <c r="G388" s="63"/>
     </row>
     <row r="389">
-      <c r="G389" s="22"/>
+      <c r="G389" s="63"/>
     </row>
     <row r="390">
-      <c r="G390" s="22"/>
+      <c r="G390" s="63"/>
     </row>
     <row r="391">
-      <c r="G391" s="22"/>
+      <c r="G391" s="63"/>
     </row>
     <row r="392">
-      <c r="G392" s="22"/>
+      <c r="G392" s="63"/>
     </row>
     <row r="393">
-      <c r="G393" s="22"/>
+      <c r="G393" s="63"/>
     </row>
     <row r="394">
-      <c r="G394" s="22"/>
+      <c r="G394" s="63"/>
     </row>
     <row r="395">
-      <c r="G395" s="22"/>
+      <c r="G395" s="63"/>
     </row>
     <row r="396">
-      <c r="G396" s="22"/>
+      <c r="G396" s="63"/>
     </row>
     <row r="397">
-      <c r="G397" s="22"/>
+      <c r="G397" s="63"/>
     </row>
     <row r="398">
-      <c r="G398" s="22"/>
+      <c r="G398" s="63"/>
     </row>
     <row r="399">
-      <c r="G399" s="22"/>
+      <c r="G399" s="63"/>
     </row>
     <row r="400">
-      <c r="G400" s="22"/>
+      <c r="G400" s="63"/>
     </row>
     <row r="401">
-      <c r="G401" s="22"/>
+      <c r="G401" s="63"/>
     </row>
     <row r="402">
-      <c r="G402" s="22"/>
+      <c r="G402" s="63"/>
     </row>
     <row r="403">
-      <c r="G403" s="22"/>
+      <c r="G403" s="63"/>
     </row>
     <row r="404">
-      <c r="G404" s="22"/>
+      <c r="G404" s="63"/>
     </row>
     <row r="405">
-      <c r="G405" s="22"/>
+      <c r="G405" s="63"/>
     </row>
     <row r="406">
-      <c r="G406" s="22"/>
+      <c r="G406" s="63"/>
     </row>
     <row r="407">
-      <c r="G407" s="22"/>
+      <c r="G407" s="63"/>
     </row>
     <row r="408">
-      <c r="G408" s="22"/>
+      <c r="G408" s="63"/>
     </row>
     <row r="409">
-      <c r="G409" s="22"/>
+      <c r="G409" s="63"/>
     </row>
     <row r="410">
-      <c r="G410" s="22"/>
+      <c r="G410" s="63"/>
     </row>
     <row r="411">
-      <c r="G411" s="22"/>
+      <c r="G411" s="63"/>
     </row>
     <row r="412">
-      <c r="G412" s="22"/>
+      <c r="G412" s="63"/>
     </row>
     <row r="413">
-      <c r="G413" s="22"/>
+      <c r="G413" s="63"/>
     </row>
     <row r="414">
-      <c r="G414" s="22"/>
+      <c r="G414" s="63"/>
     </row>
     <row r="415">
-      <c r="G415" s="22"/>
+      <c r="G415" s="63"/>
     </row>
     <row r="416">
-      <c r="G416" s="22"/>
+      <c r="G416" s="63"/>
     </row>
     <row r="417">
-      <c r="G417" s="22"/>
+      <c r="G417" s="63"/>
     </row>
     <row r="418">
-      <c r="G418" s="22"/>
+      <c r="G418" s="63"/>
     </row>
     <row r="419">
-      <c r="G419" s="22"/>
+      <c r="G419" s="63"/>
     </row>
     <row r="420">
-      <c r="G420" s="22"/>
+      <c r="G420" s="63"/>
     </row>
     <row r="421">
-      <c r="G421" s="22"/>
+      <c r="G421" s="63"/>
     </row>
     <row r="422">
-      <c r="G422" s="22"/>
+      <c r="G422" s="63"/>
     </row>
     <row r="423">
-      <c r="G423" s="22"/>
+      <c r="G423" s="63"/>
     </row>
     <row r="424">
-      <c r="G424" s="22"/>
+      <c r="G424" s="63"/>
     </row>
     <row r="425">
-      <c r="G425" s="22"/>
+      <c r="G425" s="63"/>
     </row>
     <row r="426">
-      <c r="G426" s="22"/>
+      <c r="G426" s="63"/>
     </row>
     <row r="427">
-      <c r="G427" s="22"/>
+      <c r="G427" s="63"/>
     </row>
     <row r="428">
-      <c r="G428" s="22"/>
+      <c r="G428" s="63"/>
     </row>
     <row r="429">
-      <c r="G429" s="22"/>
+      <c r="G429" s="63"/>
     </row>
     <row r="430">
-      <c r="G430" s="22"/>
+      <c r="G430" s="63"/>
     </row>
     <row r="431">
-      <c r="G431" s="22"/>
+      <c r="G431" s="63"/>
     </row>
     <row r="432">
-      <c r="G432" s="22"/>
+      <c r="G432" s="63"/>
     </row>
     <row r="433">
-      <c r="G433" s="22"/>
+      <c r="G433" s="63"/>
     </row>
     <row r="434">
-      <c r="G434" s="22"/>
+      <c r="G434" s="63"/>
     </row>
     <row r="435">
-      <c r="G435" s="22"/>
+      <c r="G435" s="63"/>
     </row>
     <row r="436">
-      <c r="G436" s="22"/>
+      <c r="G436" s="63"/>
     </row>
     <row r="437">
-      <c r="G437" s="22"/>
+      <c r="G437" s="63"/>
     </row>
     <row r="438">
-      <c r="G438" s="22"/>
+      <c r="G438" s="63"/>
     </row>
     <row r="439">
-      <c r="G439" s="22"/>
+      <c r="G439" s="63"/>
     </row>
     <row r="440">
-      <c r="G440" s="22"/>
+      <c r="G440" s="63"/>
     </row>
     <row r="441">
-      <c r="G441" s="22"/>
+      <c r="G441" s="63"/>
     </row>
     <row r="442">
-      <c r="G442" s="22"/>
+      <c r="G442" s="63"/>
     </row>
     <row r="443">
-      <c r="G443" s="22"/>
+      <c r="G443" s="63"/>
     </row>
     <row r="444">
-      <c r="G444" s="22"/>
+      <c r="G444" s="63"/>
     </row>
     <row r="445">
-      <c r="G445" s="22"/>
+      <c r="G445" s="63"/>
     </row>
     <row r="446">
-      <c r="G446" s="22"/>
+      <c r="G446" s="63"/>
     </row>
     <row r="447">
-      <c r="G447" s="22"/>
+      <c r="G447" s="63"/>
     </row>
     <row r="448">
-      <c r="G448" s="22"/>
+      <c r="G448" s="63"/>
     </row>
     <row r="449">
-      <c r="G449" s="22"/>
+      <c r="G449" s="63"/>
     </row>
     <row r="450">
-      <c r="G450" s="22"/>
+      <c r="G450" s="63"/>
     </row>
     <row r="451">
-      <c r="G451" s="22"/>
+      <c r="G451" s="63"/>
     </row>
     <row r="452">
-      <c r="G452" s="22"/>
+      <c r="G452" s="63"/>
     </row>
     <row r="453">
-      <c r="G453" s="22"/>
+      <c r="G453" s="63"/>
     </row>
     <row r="454">
-      <c r="G454" s="22"/>
+      <c r="G454" s="63"/>
     </row>
     <row r="455">
-      <c r="G455" s="22"/>
+      <c r="G455" s="63"/>
     </row>
     <row r="456">
-      <c r="G456" s="22"/>
+      <c r="G456" s="63"/>
     </row>
     <row r="457">
-      <c r="G457" s="22"/>
+      <c r="G457" s="63"/>
     </row>
     <row r="458">
-      <c r="G458" s="22"/>
+      <c r="G458" s="63"/>
     </row>
     <row r="459">
-      <c r="G459" s="22"/>
+      <c r="G459" s="63"/>
     </row>
     <row r="460">
-      <c r="G460" s="22"/>
+      <c r="G460" s="63"/>
     </row>
     <row r="461">
-      <c r="G461" s="22"/>
+      <c r="G461" s="63"/>
     </row>
     <row r="462">
-      <c r="G462" s="22"/>
+      <c r="G462" s="63"/>
     </row>
     <row r="463">
-      <c r="G463" s="22"/>
+      <c r="G463" s="63"/>
     </row>
     <row r="464">
-      <c r="G464" s="22"/>
+      <c r="G464" s="63"/>
     </row>
     <row r="465">
-      <c r="G465" s="22"/>
+      <c r="G465" s="63"/>
     </row>
     <row r="466">
-      <c r="G466" s="22"/>
+      <c r="G466" s="63"/>
     </row>
     <row r="467">
-      <c r="G467" s="22"/>
+      <c r="G467" s="63"/>
     </row>
     <row r="468">
-      <c r="G468" s="22"/>
+      <c r="G468" s="63"/>
     </row>
     <row r="469">
-      <c r="G469" s="22"/>
+      <c r="G469" s="63"/>
     </row>
     <row r="470">
-      <c r="G470" s="22"/>
+      <c r="G470" s="63"/>
     </row>
     <row r="471">
-      <c r="G471" s="22"/>
+      <c r="G471" s="63"/>
     </row>
     <row r="472">
-      <c r="G472" s="22"/>
+      <c r="G472" s="63"/>
     </row>
     <row r="473">
-      <c r="G473" s="22"/>
+      <c r="G473" s="63"/>
     </row>
     <row r="474">
-      <c r="G474" s="22"/>
+      <c r="G474" s="63"/>
     </row>
     <row r="475">
-      <c r="G475" s="22"/>
+      <c r="G475" s="63"/>
     </row>
     <row r="476">
-      <c r="G476" s="22"/>
+      <c r="G476" s="63"/>
     </row>
     <row r="477">
-      <c r="G477" s="22"/>
+      <c r="G477" s="63"/>
     </row>
     <row r="478">
-      <c r="G478" s="22"/>
+      <c r="G478" s="63"/>
     </row>
     <row r="479">
-      <c r="G479" s="22"/>
+      <c r="G479" s="63"/>
     </row>
     <row r="480">
-      <c r="G480" s="22"/>
+      <c r="G480" s="63"/>
     </row>
     <row r="481">
-      <c r="G481" s="22"/>
+      <c r="G481" s="63"/>
     </row>
     <row r="482">
-      <c r="G482" s="22"/>
+      <c r="G482" s="63"/>
     </row>
     <row r="483">
-      <c r="G483" s="22"/>
+      <c r="G483" s="63"/>
     </row>
     <row r="484">
-      <c r="G484" s="22"/>
+      <c r="G484" s="63"/>
     </row>
     <row r="485">
-      <c r="G485" s="22"/>
+      <c r="G485" s="63"/>
     </row>
     <row r="486">
-      <c r="G486" s="22"/>
+      <c r="G486" s="63"/>
     </row>
     <row r="487">
-      <c r="G487" s="22"/>
+      <c r="G487" s="63"/>
     </row>
     <row r="488">
-      <c r="G488" s="22"/>
+      <c r="G488" s="63"/>
     </row>
     <row r="489">
-      <c r="G489" s="22"/>
+      <c r="G489" s="63"/>
     </row>
     <row r="490">
-      <c r="G490" s="22"/>
+      <c r="G490" s="63"/>
     </row>
     <row r="491">
-      <c r="G491" s="22"/>
+      <c r="G491" s="63"/>
     </row>
     <row r="492">
-      <c r="G492" s="22"/>
+      <c r="G492" s="63"/>
     </row>
     <row r="493">
-      <c r="G493" s="22"/>
+      <c r="G493" s="63"/>
     </row>
     <row r="494">
-      <c r="G494" s="22"/>
+      <c r="G494" s="63"/>
     </row>
     <row r="495">
-      <c r="G495" s="22"/>
+      <c r="G495" s="63"/>
     </row>
     <row r="496">
-      <c r="G496" s="22"/>
+      <c r="G496" s="63"/>
     </row>
     <row r="497">
-      <c r="G497" s="22"/>
+      <c r="G497" s="63"/>
     </row>
     <row r="498">
-      <c r="G498" s="22"/>
+      <c r="G498" s="63"/>
     </row>
     <row r="499">
-      <c r="G499" s="22"/>
+      <c r="G499" s="63"/>
     </row>
     <row r="500">
-      <c r="G500" s="22"/>
+      <c r="G500" s="63"/>
     </row>
     <row r="501">
-      <c r="G501" s="22"/>
+      <c r="G501" s="63"/>
     </row>
     <row r="502">
-      <c r="G502" s="22"/>
+      <c r="G502" s="63"/>
     </row>
     <row r="503">
-      <c r="G503" s="22"/>
+      <c r="G503" s="63"/>
     </row>
     <row r="504">
-      <c r="G504" s="22"/>
+      <c r="G504" s="63"/>
     </row>
     <row r="505">
-      <c r="G505" s="22"/>
+      <c r="G505" s="63"/>
     </row>
     <row r="506">
-      <c r="G506" s="22"/>
+      <c r="G506" s="63"/>
     </row>
     <row r="507">
-      <c r="G507" s="22"/>
+      <c r="G507" s="63"/>
     </row>
     <row r="508">
-      <c r="G508" s="22"/>
+      <c r="G508" s="63"/>
     </row>
     <row r="509">
-      <c r="G509" s="22"/>
+      <c r="G509" s="63"/>
     </row>
     <row r="510">
-      <c r="G510" s="22"/>
+      <c r="G510" s="63"/>
     </row>
     <row r="511">
-      <c r="G511" s="22"/>
+      <c r="G511" s="63"/>
     </row>
     <row r="512">
-      <c r="G512" s="22"/>
+      <c r="G512" s="63"/>
     </row>
     <row r="513">
-      <c r="G513" s="22"/>
+      <c r="G513" s="63"/>
     </row>
     <row r="514">
-      <c r="G514" s="22"/>
+      <c r="G514" s="63"/>
     </row>
     <row r="515">
-      <c r="G515" s="22"/>
+      <c r="G515" s="63"/>
     </row>
     <row r="516">
-      <c r="G516" s="22"/>
+      <c r="G516" s="63"/>
     </row>
     <row r="517">
-      <c r="G517" s="22"/>
+      <c r="G517" s="63"/>
     </row>
     <row r="518">
-      <c r="G518" s="22"/>
+      <c r="G518" s="63"/>
     </row>
     <row r="519">
-      <c r="G519" s="22"/>
+      <c r="G519" s="63"/>
     </row>
     <row r="520">
-      <c r="G520" s="22"/>
+      <c r="G520" s="63"/>
     </row>
     <row r="521">
-      <c r="G521" s="22"/>
+      <c r="G521" s="63"/>
     </row>
     <row r="522">
-      <c r="G522" s="22"/>
+      <c r="G522" s="63"/>
     </row>
     <row r="523">
-      <c r="G523" s="22"/>
+      <c r="G523" s="63"/>
     </row>
     <row r="524">
-      <c r="G524" s="22"/>
+      <c r="G524" s="63"/>
     </row>
     <row r="525">
-      <c r="G525" s="22"/>
+      <c r="G525" s="63"/>
     </row>
     <row r="526">
-      <c r="G526" s="22"/>
+      <c r="G526" s="63"/>
     </row>
     <row r="527">
-      <c r="G527" s="22"/>
+      <c r="G527" s="63"/>
     </row>
     <row r="528">
-      <c r="G528" s="22"/>
+      <c r="G528" s="63"/>
     </row>
     <row r="529">
-      <c r="G529" s="22"/>
+      <c r="G529" s="63"/>
     </row>
     <row r="530">
-      <c r="G530" s="22"/>
+      <c r="G530" s="63"/>
     </row>
     <row r="531">
-      <c r="G531" s="22"/>
+      <c r="G531" s="63"/>
     </row>
     <row r="532">
-      <c r="G532" s="22"/>
+      <c r="G532" s="63"/>
     </row>
     <row r="533">
-      <c r="G533" s="22"/>
+      <c r="G533" s="63"/>
     </row>
     <row r="534">
-      <c r="G534" s="22"/>
+      <c r="G534" s="63"/>
     </row>
     <row r="535">
-      <c r="G535" s="22"/>
+      <c r="G535" s="63"/>
     </row>
     <row r="536">
-      <c r="G536" s="22"/>
+      <c r="G536" s="63"/>
     </row>
     <row r="537">
-      <c r="G537" s="22"/>
+      <c r="G537" s="63"/>
     </row>
     <row r="538">
-      <c r="G538" s="22"/>
+      <c r="G538" s="63"/>
     </row>
     <row r="539">
-      <c r="G539" s="22"/>
+      <c r="G539" s="63"/>
     </row>
     <row r="540">
-      <c r="G540" s="22"/>
+      <c r="G540" s="63"/>
     </row>
     <row r="541">
-      <c r="G541" s="22"/>
+      <c r="G541" s="63"/>
     </row>
     <row r="542">
-      <c r="G542" s="22"/>
+      <c r="G542" s="63"/>
     </row>
     <row r="543">
-      <c r="G543" s="22"/>
+      <c r="G543" s="63"/>
     </row>
     <row r="544">
-      <c r="G544" s="22"/>
+      <c r="G544" s="63"/>
     </row>
     <row r="545">
-      <c r="G545" s="22"/>
+      <c r="G545" s="63"/>
     </row>
     <row r="546">
-      <c r="G546" s="22"/>
+      <c r="G546" s="63"/>
     </row>
     <row r="547">
-      <c r="G547" s="22"/>
+      <c r="G547" s="63"/>
     </row>
     <row r="548">
-      <c r="G548" s="22"/>
+      <c r="G548" s="63"/>
     </row>
     <row r="549">
-      <c r="G549" s="22"/>
+      <c r="G549" s="63"/>
     </row>
     <row r="550">
-      <c r="G550" s="22"/>
+      <c r="G550" s="63"/>
     </row>
     <row r="551">
-      <c r="G551" s="22"/>
+      <c r="G551" s="63"/>
     </row>
     <row r="552">
-      <c r="G552" s="22"/>
+      <c r="G552" s="63"/>
     </row>
     <row r="553">
-      <c r="G553" s="22"/>
+      <c r="G553" s="63"/>
     </row>
     <row r="554">
-      <c r="G554" s="22"/>
+      <c r="G554" s="63"/>
     </row>
     <row r="555">
-      <c r="G555" s="22"/>
+      <c r="G555" s="63"/>
     </row>
     <row r="556">
-      <c r="G556" s="22"/>
+      <c r="G556" s="63"/>
     </row>
     <row r="557">
-      <c r="G557" s="22"/>
+      <c r="G557" s="63"/>
     </row>
     <row r="558">
-      <c r="G558" s="22"/>
+      <c r="G558" s="63"/>
     </row>
     <row r="559">
-      <c r="G559" s="22"/>
+      <c r="G559" s="63"/>
     </row>
     <row r="560">
-      <c r="G560" s="22"/>
+      <c r="G560" s="63"/>
     </row>
     <row r="561">
-      <c r="G561" s="22"/>
+      <c r="G561" s="63"/>
     </row>
     <row r="562">
-      <c r="G562" s="22"/>
+      <c r="G562" s="63"/>
     </row>
     <row r="563">
-      <c r="G563" s="22"/>
+      <c r="G563" s="63"/>
     </row>
     <row r="564">
-      <c r="G564" s="22"/>
+      <c r="G564" s="63"/>
     </row>
     <row r="565">
-      <c r="G565" s="22"/>
+      <c r="G565" s="63"/>
     </row>
     <row r="566">
-      <c r="G566" s="22"/>
+      <c r="G566" s="63"/>
     </row>
     <row r="567">
-      <c r="G567" s="22"/>
+      <c r="G567" s="63"/>
     </row>
     <row r="568">
-      <c r="G568" s="22"/>
+      <c r="G568" s="63"/>
     </row>
     <row r="569">
-      <c r="G569" s="22"/>
+      <c r="G569" s="63"/>
     </row>
     <row r="570">
-      <c r="G570" s="22"/>
+      <c r="G570" s="63"/>
     </row>
     <row r="571">
-      <c r="G571" s="22"/>
+      <c r="G571" s="63"/>
     </row>
     <row r="572">
-      <c r="G572" s="22"/>
+      <c r="G572" s="63"/>
     </row>
     <row r="573">
-      <c r="G573" s="22"/>
+      <c r="G573" s="63"/>
     </row>
     <row r="574">
-      <c r="G574" s="22"/>
+      <c r="G574" s="63"/>
     </row>
     <row r="575">
-      <c r="G575" s="22"/>
+      <c r="G575" s="63"/>
     </row>
     <row r="576">
-      <c r="G576" s="22"/>
+      <c r="G576" s="63"/>
     </row>
     <row r="577">
-      <c r="G577" s="22"/>
+      <c r="G577" s="63"/>
     </row>
     <row r="578">
-      <c r="G578" s="22"/>
+      <c r="G578" s="63"/>
     </row>
     <row r="579">
-      <c r="G579" s="22"/>
+      <c r="G579" s="63"/>
     </row>
     <row r="580">
-      <c r="G580" s="22"/>
+      <c r="G580" s="63"/>
     </row>
     <row r="581">
-      <c r="G581" s="22"/>
+      <c r="G581" s="63"/>
     </row>
     <row r="582">
-      <c r="G582" s="22"/>
+      <c r="G582" s="63"/>
     </row>
     <row r="583">
-      <c r="G583" s="22"/>
+      <c r="G583" s="63"/>
     </row>
     <row r="584">
-      <c r="G584" s="22"/>
+      <c r="G584" s="63"/>
     </row>
     <row r="585">
-      <c r="G585" s="22"/>
+      <c r="G585" s="63"/>
     </row>
     <row r="586">
-      <c r="G586" s="22"/>
+      <c r="G586" s="63"/>
     </row>
     <row r="587">
-      <c r="G587" s="22"/>
+      <c r="G587" s="63"/>
     </row>
     <row r="588">
-      <c r="G588" s="22"/>
+      <c r="G588" s="63"/>
     </row>
     <row r="589">
-      <c r="G589" s="22"/>
+      <c r="G589" s="63"/>
     </row>
     <row r="590">
-      <c r="G590" s="22"/>
+      <c r="G590" s="63"/>
     </row>
     <row r="591">
-      <c r="G591" s="22"/>
+      <c r="G591" s="63"/>
     </row>
     <row r="592">
-      <c r="G592" s="22"/>
+      <c r="G592" s="63"/>
     </row>
     <row r="593">
-      <c r="G593" s="22"/>
+      <c r="G593" s="63"/>
     </row>
     <row r="594">
-      <c r="G594" s="22"/>
+      <c r="G594" s="63"/>
     </row>
     <row r="595">
-      <c r="G595" s="22"/>
+      <c r="G595" s="63"/>
     </row>
     <row r="596">
-      <c r="G596" s="22"/>
+      <c r="G596" s="63"/>
     </row>
     <row r="597">
-      <c r="G597" s="22"/>
+      <c r="G597" s="63"/>
     </row>
     <row r="598">
-      <c r="G598" s="22"/>
+      <c r="G598" s="63"/>
     </row>
     <row r="599">
-      <c r="G599" s="22"/>
+      <c r="G599" s="63"/>
     </row>
     <row r="600">
-      <c r="G600" s="22"/>
+      <c r="G600" s="63"/>
     </row>
     <row r="601">
-      <c r="G601" s="22"/>
+      <c r="G601" s="63"/>
     </row>
     <row r="602">
-      <c r="G602" s="22"/>
+      <c r="G602" s="63"/>
     </row>
     <row r="603">
-      <c r="G603" s="22"/>
+      <c r="G603" s="63"/>
     </row>
     <row r="604">
-      <c r="G604" s="22"/>
+      <c r="G604" s="63"/>
     </row>
     <row r="605">
-      <c r="G605" s="22"/>
+      <c r="G605" s="63"/>
     </row>
     <row r="606">
-      <c r="G606" s="22"/>
+      <c r="G606" s="63"/>
     </row>
     <row r="607">
-      <c r="G607" s="22"/>
+      <c r="G607" s="63"/>
     </row>
     <row r="608">
-      <c r="G608" s="22"/>
+      <c r="G608" s="63"/>
     </row>
     <row r="609">
-      <c r="G609" s="22"/>
+      <c r="G609" s="63"/>
     </row>
     <row r="610">
-      <c r="G610" s="22"/>
+      <c r="G610" s="63"/>
     </row>
     <row r="611">
-      <c r="G611" s="22"/>
+      <c r="G611" s="63"/>
     </row>
     <row r="612">
-      <c r="G612" s="22"/>
+      <c r="G612" s="63"/>
     </row>
     <row r="613">
-      <c r="G613" s="22"/>
+      <c r="G613" s="63"/>
     </row>
     <row r="614">
-      <c r="G614" s="22"/>
+      <c r="G614" s="63"/>
     </row>
     <row r="615">
-      <c r="G615" s="22"/>
+      <c r="G615" s="63"/>
     </row>
     <row r="616">
-      <c r="G616" s="22"/>
+      <c r="G616" s="63"/>
     </row>
     <row r="617">
-      <c r="G617" s="22"/>
+      <c r="G617" s="63"/>
     </row>
     <row r="618">
-      <c r="G618" s="22"/>
+      <c r="G618" s="63"/>
     </row>
     <row r="619">
-      <c r="G619" s="22"/>
+      <c r="G619" s="63"/>
     </row>
     <row r="620">
-      <c r="G620" s="22"/>
+      <c r="G620" s="63"/>
     </row>
     <row r="621">
-      <c r="G621" s="22"/>
+      <c r="G621" s="63"/>
     </row>
     <row r="622">
-      <c r="G622" s="22"/>
+      <c r="G622" s="63"/>
     </row>
     <row r="623">
-      <c r="G623" s="22"/>
+      <c r="G623" s="63"/>
     </row>
     <row r="624">
-      <c r="G624" s="22"/>
+      <c r="G624" s="63"/>
     </row>
     <row r="625">
-      <c r="G625" s="22"/>
+      <c r="G625" s="63"/>
     </row>
     <row r="626">
-      <c r="G626" s="22"/>
+      <c r="G626" s="63"/>
     </row>
     <row r="627">
-      <c r="G627" s="22"/>
+      <c r="G627" s="63"/>
     </row>
     <row r="628">
-      <c r="G628" s="22"/>
+      <c r="G628" s="63"/>
     </row>
     <row r="629">
-      <c r="G629" s="22"/>
+      <c r="G629" s="63"/>
     </row>
     <row r="630">
-      <c r="G630" s="22"/>
+      <c r="G630" s="63"/>
     </row>
     <row r="631">
-      <c r="G631" s="22"/>
+      <c r="G631" s="63"/>
     </row>
     <row r="632">
-      <c r="G632" s="22"/>
+      <c r="G632" s="63"/>
     </row>
     <row r="633">
-      <c r="G633" s="22"/>
+      <c r="G633" s="63"/>
     </row>
     <row r="634">
-      <c r="G634" s="22"/>
+      <c r="G634" s="63"/>
     </row>
     <row r="635">
-      <c r="G635" s="22"/>
+      <c r="G635" s="63"/>
     </row>
     <row r="636">
-      <c r="G636" s="22"/>
+      <c r="G636" s="63"/>
     </row>
     <row r="637">
-      <c r="G637" s="22"/>
+      <c r="G637" s="63"/>
     </row>
     <row r="638">
-      <c r="G638" s="22"/>
+      <c r="G638" s="63"/>
     </row>
     <row r="639">
-      <c r="G639" s="22"/>
+      <c r="G639" s="63"/>
     </row>
     <row r="640">
-      <c r="G640" s="22"/>
+      <c r="G640" s="63"/>
     </row>
     <row r="641">
-      <c r="G641" s="22"/>
+      <c r="G641" s="63"/>
     </row>
     <row r="642">
-      <c r="G642" s="22"/>
+      <c r="G642" s="63"/>
     </row>
     <row r="643">
-      <c r="G643" s="22"/>
+      <c r="G643" s="63"/>
     </row>
     <row r="644">
-      <c r="G644" s="22"/>
+      <c r="G644" s="63"/>
     </row>
     <row r="645">
-      <c r="G645" s="22"/>
+      <c r="G645" s="63"/>
     </row>
     <row r="646">
-      <c r="G646" s="22"/>
+      <c r="G646" s="63"/>
     </row>
     <row r="647">
-      <c r="G647" s="22"/>
+      <c r="G647" s="63"/>
     </row>
     <row r="648">
-      <c r="G648" s="22"/>
+      <c r="G648" s="63"/>
     </row>
     <row r="649">
-      <c r="G649" s="22"/>
+      <c r="G649" s="63"/>
     </row>
     <row r="650">
-      <c r="G650" s="22"/>
+      <c r="G650" s="63"/>
     </row>
     <row r="651">
-      <c r="G651" s="22"/>
+      <c r="G651" s="63"/>
     </row>
     <row r="652">
-      <c r="G652" s="22"/>
+      <c r="G652" s="63"/>
     </row>
     <row r="653">
-      <c r="G653" s="22"/>
+      <c r="G653" s="63"/>
     </row>
     <row r="654">
-      <c r="G654" s="22"/>
+      <c r="G654" s="63"/>
     </row>
     <row r="655">
-      <c r="G655" s="22"/>
+      <c r="G655" s="63"/>
     </row>
     <row r="656">
-      <c r="G656" s="22"/>
+      <c r="G656" s="63"/>
     </row>
     <row r="657">
-      <c r="G657" s="22"/>
+      <c r="G657" s="63"/>
     </row>
     <row r="658">
-      <c r="G658" s="22"/>
+      <c r="G658" s="63"/>
     </row>
     <row r="659">
-      <c r="G659" s="22"/>
+      <c r="G659" s="63"/>
     </row>
     <row r="660">
-      <c r="G660" s="22"/>
+      <c r="G660" s="63"/>
     </row>
     <row r="661">
-      <c r="G661" s="22"/>
+      <c r="G661" s="63"/>
     </row>
     <row r="662">
-      <c r="G662" s="22"/>
+      <c r="G662" s="63"/>
     </row>
     <row r="663">
-      <c r="G663" s="22"/>
+      <c r="G663" s="63"/>
     </row>
     <row r="664">
-      <c r="G664" s="22"/>
+      <c r="G664" s="63"/>
     </row>
     <row r="665">
-      <c r="G665" s="22"/>
+      <c r="G665" s="63"/>
     </row>
     <row r="666">
-      <c r="G666" s="22"/>
+      <c r="G666" s="63"/>
     </row>
     <row r="667">
-      <c r="G667" s="22"/>
+      <c r="G667" s="63"/>
     </row>
     <row r="668">
-      <c r="G668" s="22"/>
+      <c r="G668" s="63"/>
     </row>
     <row r="669">
-      <c r="G669" s="22"/>
+      <c r="G669" s="63"/>
     </row>
     <row r="670">
-      <c r="G670" s="22"/>
+      <c r="G670" s="63"/>
     </row>
     <row r="671">
-      <c r="G671" s="22"/>
+      <c r="G671" s="63"/>
     </row>
     <row r="672">
-      <c r="G672" s="22"/>
+      <c r="G672" s="63"/>
     </row>
     <row r="673">
-      <c r="G673" s="22"/>
+      <c r="G673" s="63"/>
     </row>
     <row r="674">
-      <c r="G674" s="22"/>
+      <c r="G674" s="63"/>
     </row>
     <row r="675">
-      <c r="G675" s="22"/>
+      <c r="G675" s="63"/>
     </row>
     <row r="676">
-      <c r="G676" s="22"/>
+      <c r="G676" s="63"/>
     </row>
     <row r="677">
-      <c r="G677" s="22"/>
+      <c r="G677" s="63"/>
     </row>
     <row r="678">
-      <c r="G678" s="22"/>
+      <c r="G678" s="63"/>
     </row>
     <row r="679">
-      <c r="G679" s="22"/>
+      <c r="G679" s="63"/>
     </row>
     <row r="680">
-      <c r="G680" s="22"/>
+      <c r="G680" s="63"/>
     </row>
     <row r="681">
-      <c r="G681" s="22"/>
+      <c r="G681" s="63"/>
     </row>
     <row r="682">
-      <c r="G682" s="22"/>
+      <c r="G682" s="63"/>
     </row>
     <row r="683">
-      <c r="G683" s="22"/>
+      <c r="G683" s="63"/>
     </row>
     <row r="684">
-      <c r="G684" s="22"/>
+      <c r="G684" s="63"/>
     </row>
     <row r="685">
-      <c r="G685" s="22"/>
+      <c r="G685" s="63"/>
     </row>
     <row r="686">
-      <c r="G686" s="22"/>
+      <c r="G686" s="63"/>
     </row>
     <row r="687">
-      <c r="G687" s="22"/>
+      <c r="G687" s="63"/>
     </row>
     <row r="688">
-      <c r="G688" s="22"/>
+      <c r="G688" s="63"/>
     </row>
     <row r="689">
-      <c r="G689" s="22"/>
+      <c r="G689" s="63"/>
     </row>
     <row r="690">
-      <c r="G690" s="22"/>
+      <c r="G690" s="63"/>
     </row>
     <row r="691">
-      <c r="G691" s="22"/>
+      <c r="G691" s="63"/>
     </row>
     <row r="692">
-      <c r="G692" s="22"/>
+      <c r="G692" s="63"/>
     </row>
     <row r="693">
-      <c r="G693" s="22"/>
+      <c r="G693" s="63"/>
     </row>
     <row r="694">
-      <c r="G694" s="22"/>
+      <c r="G694" s="63"/>
     </row>
     <row r="695">
-      <c r="G695" s="22"/>
+      <c r="G695" s="63"/>
     </row>
     <row r="696">
-      <c r="G696" s="22"/>
+      <c r="G696" s="63"/>
     </row>
     <row r="697">
-      <c r="G697" s="22"/>
+      <c r="G697" s="63"/>
     </row>
     <row r="698">
-      <c r="G698" s="22"/>
+      <c r="G698" s="63"/>
     </row>
     <row r="699">
-      <c r="G699" s="22"/>
+      <c r="G699" s="63"/>
     </row>
     <row r="700">
-      <c r="G700" s="22"/>
+      <c r="G700" s="63"/>
     </row>
     <row r="701">
-      <c r="G701" s="22"/>
+      <c r="G701" s="63"/>
     </row>
     <row r="702">
-      <c r="G702" s="22"/>
+      <c r="G702" s="63"/>
     </row>
     <row r="703">
-      <c r="G703" s="22"/>
+      <c r="G703" s="63"/>
     </row>
     <row r="704">
-      <c r="G704" s="22"/>
+      <c r="G704" s="63"/>
     </row>
     <row r="705">
-      <c r="G705" s="22"/>
+      <c r="G705" s="63"/>
     </row>
     <row r="706">
-      <c r="G706" s="22"/>
+      <c r="G706" s="63"/>
     </row>
     <row r="707">
-      <c r="G707" s="22"/>
+      <c r="G707" s="63"/>
     </row>
     <row r="708">
-      <c r="G708" s="22"/>
+      <c r="G708" s="63"/>
     </row>
     <row r="709">
-      <c r="G709" s="22"/>
+      <c r="G709" s="63"/>
     </row>
     <row r="710">
-      <c r="G710" s="22"/>
+      <c r="G710" s="63"/>
     </row>
     <row r="711">
-      <c r="G711" s="22"/>
+      <c r="G711" s="63"/>
     </row>
     <row r="712">
-      <c r="G712" s="22"/>
+      <c r="G712" s="63"/>
     </row>
     <row r="713">
-      <c r="G713" s="22"/>
+      <c r="G713" s="63"/>
     </row>
     <row r="714">
-      <c r="G714" s="22"/>
+      <c r="G714" s="63"/>
     </row>
     <row r="715">
-      <c r="G715" s="22"/>
+      <c r="G715" s="63"/>
     </row>
     <row r="716">
-      <c r="G716" s="22"/>
+      <c r="G716" s="63"/>
     </row>
     <row r="717">
-      <c r="G717" s="22"/>
+      <c r="G717" s="63"/>
     </row>
     <row r="718">
-      <c r="G718" s="22"/>
+      <c r="G718" s="63"/>
     </row>
     <row r="719">
-      <c r="G719" s="22"/>
+      <c r="G719" s="63"/>
     </row>
     <row r="720">
-      <c r="G720" s="22"/>
+      <c r="G720" s="63"/>
     </row>
     <row r="721">
-      <c r="G721" s="22"/>
+      <c r="G721" s="63"/>
     </row>
     <row r="722">
-      <c r="G722" s="22"/>
+      <c r="G722" s="63"/>
     </row>
     <row r="723">
-      <c r="G723" s="22"/>
+      <c r="G723" s="63"/>
     </row>
     <row r="724">
-      <c r="G724" s="22"/>
+      <c r="G724" s="63"/>
     </row>
     <row r="725">
-      <c r="G725" s="22"/>
+      <c r="G725" s="63"/>
     </row>
     <row r="726">
-      <c r="G726" s="22"/>
+      <c r="G726" s="63"/>
     </row>
     <row r="727">
-      <c r="G727" s="22"/>
+      <c r="G727" s="63"/>
     </row>
     <row r="728">
-      <c r="G728" s="22"/>
+      <c r="G728" s="63"/>
     </row>
     <row r="729">
-      <c r="G729" s="22"/>
+      <c r="G729" s="63"/>
     </row>
     <row r="730">
-      <c r="G730" s="22"/>
+      <c r="G730" s="63"/>
     </row>
     <row r="731">
-      <c r="G731" s="22"/>
+      <c r="G731" s="63"/>
     </row>
     <row r="732">
-      <c r="G732" s="22"/>
+      <c r="G732" s="63"/>
     </row>
     <row r="733">
-      <c r="G733" s="22"/>
+      <c r="G733" s="63"/>
     </row>
     <row r="734">
-      <c r="G734" s="22"/>
+      <c r="G734" s="63"/>
     </row>
     <row r="735">
-      <c r="G735" s="22"/>
+      <c r="G735" s="63"/>
     </row>
     <row r="736">
-      <c r="G736" s="22"/>
+      <c r="G736" s="63"/>
     </row>
     <row r="737">
-      <c r="G737" s="22"/>
+      <c r="G737" s="63"/>
     </row>
     <row r="738">
-      <c r="G738" s="22"/>
+      <c r="G738" s="63"/>
     </row>
     <row r="739">
-      <c r="G739" s="22"/>
+      <c r="G739" s="63"/>
     </row>
     <row r="740">
-      <c r="G740" s="22"/>
+      <c r="G740" s="63"/>
     </row>
     <row r="741">
-      <c r="G741" s="22"/>
+      <c r="G741" s="63"/>
     </row>
     <row r="742">
-      <c r="G742" s="22"/>
+      <c r="G742" s="63"/>
     </row>
     <row r="743">
-      <c r="G743" s="22"/>
+      <c r="G743" s="63"/>
     </row>
     <row r="744">
-      <c r="G744" s="22"/>
+      <c r="G744" s="63"/>
     </row>
     <row r="745">
-      <c r="G745" s="22"/>
+      <c r="G745" s="63"/>
     </row>
     <row r="746">
-      <c r="G746" s="22"/>
+      <c r="G746" s="63"/>
     </row>
     <row r="747">
-      <c r="G747" s="22"/>
+      <c r="G747" s="63"/>
     </row>
     <row r="748">
-      <c r="G748" s="22"/>
+      <c r="G748" s="63"/>
     </row>
     <row r="749">
-      <c r="G749" s="22"/>
+      <c r="G749" s="63"/>
     </row>
     <row r="750">
-      <c r="G750" s="22"/>
+      <c r="G750" s="63"/>
     </row>
     <row r="751">
-      <c r="G751" s="22"/>
+      <c r="G751" s="63"/>
     </row>
     <row r="752">
-      <c r="G752" s="22"/>
+      <c r="G752" s="63"/>
     </row>
     <row r="753">
-      <c r="G753" s="22"/>
+      <c r="G753" s="63"/>
     </row>
     <row r="754">
-      <c r="G754" s="22"/>
+      <c r="G754" s="63"/>
     </row>
     <row r="755">
-      <c r="G755" s="22"/>
+      <c r="G755" s="63"/>
     </row>
     <row r="756">
-      <c r="G756" s="22"/>
+      <c r="G756" s="63"/>
     </row>
     <row r="757">
-      <c r="G757" s="22"/>
+      <c r="G757" s="63"/>
     </row>
     <row r="758">
-      <c r="G758" s="22"/>
+      <c r="G758" s="63"/>
     </row>
     <row r="759">
-      <c r="G759" s="22"/>
+      <c r="G759" s="63"/>
     </row>
     <row r="760">
-      <c r="G760" s="22"/>
+      <c r="G760" s="63"/>
     </row>
     <row r="761">
-      <c r="G761" s="22"/>
+      <c r="G761" s="63"/>
     </row>
     <row r="762">
-      <c r="G762" s="22"/>
+      <c r="G762" s="63"/>
     </row>
     <row r="763">
-      <c r="G763" s="22"/>
+      <c r="G763" s="63"/>
     </row>
     <row r="764">
-      <c r="G764" s="22"/>
+      <c r="G764" s="63"/>
     </row>
     <row r="765">
-      <c r="G765" s="22"/>
+      <c r="G765" s="63"/>
     </row>
     <row r="766">
-      <c r="G766" s="22"/>
+      <c r="G766" s="63"/>
     </row>
     <row r="767">
-      <c r="G767" s="22"/>
+      <c r="G767" s="63"/>
     </row>
     <row r="768">
-      <c r="G768" s="22"/>
+      <c r="G768" s="63"/>
     </row>
     <row r="769">
-      <c r="G769" s="22"/>
+      <c r="G769" s="63"/>
     </row>
     <row r="770">
-      <c r="G770" s="22"/>
+      <c r="G770" s="63"/>
     </row>
     <row r="771">
-      <c r="G771" s="22"/>
+      <c r="G771" s="63"/>
     </row>
     <row r="772">
-      <c r="G772" s="22"/>
+      <c r="G772" s="63"/>
     </row>
     <row r="773">
-      <c r="G773" s="22"/>
+      <c r="G773" s="63"/>
     </row>
     <row r="774">
-      <c r="G774" s="22"/>
+      <c r="G774" s="63"/>
     </row>
     <row r="775">
-      <c r="G775" s="22"/>
+      <c r="G775" s="63"/>
     </row>
     <row r="776">
-      <c r="G776" s="22"/>
+      <c r="G776" s="63"/>
     </row>
     <row r="777">
-      <c r="G777" s="22"/>
+      <c r="G777" s="63"/>
     </row>
     <row r="778">
-      <c r="G778" s="22"/>
+      <c r="G778" s="63"/>
     </row>
     <row r="779">
-      <c r="G779" s="22"/>
+      <c r="G779" s="63"/>
     </row>
     <row r="780">
-      <c r="G780" s="22"/>
+      <c r="G780" s="63"/>
     </row>
     <row r="781">
-      <c r="G781" s="22"/>
+      <c r="G781" s="63"/>
     </row>
     <row r="782">
-      <c r="G782" s="22"/>
+      <c r="G782" s="63"/>
     </row>
     <row r="783">
-      <c r="G783" s="22"/>
+      <c r="G783" s="63"/>
     </row>
     <row r="784">
-      <c r="G784" s="22"/>
+      <c r="G784" s="63"/>
     </row>
     <row r="785">
-      <c r="G785" s="22"/>
+      <c r="G785" s="63"/>
     </row>
     <row r="786">
-      <c r="G786" s="22"/>
+      <c r="G786" s="63"/>
     </row>
     <row r="787">
-      <c r="G787" s="22"/>
+      <c r="G787" s="63"/>
     </row>
     <row r="788">
-      <c r="G788" s="22"/>
+      <c r="G788" s="63"/>
     </row>
     <row r="789">
-      <c r="G789" s="22"/>
+      <c r="G789" s="63"/>
     </row>
     <row r="790">
-      <c r="G790" s="22"/>
+      <c r="G790" s="63"/>
     </row>
     <row r="791">
-      <c r="G791" s="22"/>
+      <c r="G791" s="63"/>
     </row>
     <row r="792">
-      <c r="G792" s="22"/>
+      <c r="G792" s="63"/>
     </row>
     <row r="793">
-      <c r="G793" s="22"/>
+      <c r="G793" s="63"/>
     </row>
     <row r="794">
-      <c r="G794" s="22"/>
+      <c r="G794" s="63"/>
     </row>
     <row r="795">
-      <c r="G795" s="22"/>
+      <c r="G795" s="63"/>
     </row>
     <row r="796">
-      <c r="G796" s="22"/>
+      <c r="G796" s="63"/>
     </row>
     <row r="797">
-      <c r="G797" s="22"/>
+      <c r="G797" s="63"/>
     </row>
     <row r="798">
-      <c r="G798" s="22"/>
+      <c r="G798" s="63"/>
     </row>
     <row r="799">
-      <c r="G799" s="22"/>
+      <c r="G799" s="63"/>
     </row>
     <row r="800">
-      <c r="G800" s="22"/>
+      <c r="G800" s="63"/>
     </row>
     <row r="801">
-      <c r="G801" s="22"/>
+      <c r="G801" s="63"/>
     </row>
     <row r="802">
-      <c r="G802" s="22"/>
+      <c r="G802" s="63"/>
     </row>
     <row r="803">
-      <c r="G803" s="22"/>
+      <c r="G803" s="63"/>
     </row>
     <row r="804">
-      <c r="G804" s="22"/>
+      <c r="G804" s="63"/>
     </row>
     <row r="805">
-      <c r="G805" s="22"/>
+      <c r="G805" s="63"/>
     </row>
     <row r="806">
-      <c r="G806" s="22"/>
+      <c r="G806" s="63"/>
     </row>
     <row r="807">
-      <c r="G807" s="22"/>
+      <c r="G807" s="63"/>
     </row>
     <row r="808">
-      <c r="G808" s="22"/>
+      <c r="G808" s="63"/>
     </row>
     <row r="809">
-      <c r="G809" s="22"/>
+      <c r="G809" s="63"/>
     </row>
     <row r="810">
-      <c r="G810" s="22"/>
+      <c r="G810" s="63"/>
     </row>
     <row r="811">
-      <c r="G811" s="22"/>
+      <c r="G811" s="63"/>
     </row>
     <row r="812">
-      <c r="G812" s="22"/>
+      <c r="G812" s="63"/>
     </row>
     <row r="813">
-      <c r="G813" s="22"/>
+      <c r="G813" s="63"/>
     </row>
     <row r="814">
-      <c r="G814" s="22"/>
+      <c r="G814" s="63"/>
     </row>
     <row r="815">
-      <c r="G815" s="22"/>
+      <c r="G815" s="63"/>
     </row>
     <row r="816">
-      <c r="G816" s="22"/>
+      <c r="G816" s="63"/>
     </row>
     <row r="817">
-      <c r="G817" s="22"/>
+      <c r="G817" s="63"/>
     </row>
     <row r="818">
-      <c r="G818" s="22"/>
+      <c r="G818" s="63"/>
     </row>
     <row r="819">
-      <c r="G819" s="22"/>
+      <c r="G819" s="63"/>
     </row>
     <row r="820">
-      <c r="G820" s="22"/>
+      <c r="G820" s="63"/>
     </row>
     <row r="821">
-      <c r="G821" s="22"/>
+      <c r="G821" s="63"/>
     </row>
     <row r="822">
-      <c r="G822" s="22"/>
+      <c r="G822" s="63"/>
     </row>
     <row r="823">
-      <c r="G823" s="22"/>
+      <c r="G823" s="63"/>
     </row>
     <row r="824">
-      <c r="G824" s="22"/>
+      <c r="G824" s="63"/>
     </row>
     <row r="825">
-      <c r="G825" s="22"/>
+      <c r="G825" s="63"/>
     </row>
     <row r="826">
-      <c r="G826" s="22"/>
+      <c r="G826" s="63"/>
     </row>
     <row r="827">
-      <c r="G827" s="22"/>
+      <c r="G827" s="63"/>
     </row>
     <row r="828">
-      <c r="G828" s="22"/>
+      <c r="G828" s="63"/>
     </row>
     <row r="829">
-      <c r="G829" s="22"/>
+      <c r="G829" s="63"/>
     </row>
     <row r="830">
-      <c r="G830" s="22"/>
+      <c r="G830" s="63"/>
     </row>
     <row r="831">
-      <c r="G831" s="22"/>
+      <c r="G831" s="63"/>
     </row>
     <row r="832">
-      <c r="G832" s="22"/>
+      <c r="G832" s="63"/>
     </row>
     <row r="833">
-      <c r="G833" s="22"/>
+      <c r="G833" s="63"/>
     </row>
     <row r="834">
-      <c r="G834" s="22"/>
+      <c r="G834" s="63"/>
     </row>
     <row r="835">
-      <c r="G835" s="22"/>
+      <c r="G835" s="63"/>
     </row>
     <row r="836">
-      <c r="G836" s="22"/>
+      <c r="G836" s="63"/>
     </row>
     <row r="837">
-      <c r="G837" s="22"/>
+      <c r="G837" s="63"/>
     </row>
     <row r="838">
-      <c r="G838" s="22"/>
+      <c r="G838" s="63"/>
     </row>
     <row r="839">
-      <c r="G839" s="22"/>
+      <c r="G839" s="63"/>
     </row>
     <row r="840">
-      <c r="G840" s="22"/>
+      <c r="G840" s="63"/>
     </row>
     <row r="841">
-      <c r="G841" s="22"/>
+      <c r="G841" s="63"/>
     </row>
     <row r="842">
-      <c r="G842" s="22"/>
+      <c r="G842" s="63"/>
     </row>
     <row r="843">
-      <c r="G843" s="22"/>
+      <c r="G843" s="63"/>
     </row>
     <row r="844">
-      <c r="G844" s="22"/>
+      <c r="G844" s="63"/>
     </row>
     <row r="845">
-      <c r="G845" s="22"/>
+      <c r="G845" s="63"/>
     </row>
     <row r="846">
-      <c r="G846" s="22"/>
+      <c r="G846" s="63"/>
     </row>
     <row r="847">
-      <c r="G847" s="22"/>
+      <c r="G847" s="63"/>
     </row>
     <row r="848">
-      <c r="G848" s="22"/>
+      <c r="G848" s="63"/>
     </row>
     <row r="849">
-      <c r="G849" s="22"/>
+      <c r="G849" s="63"/>
     </row>
     <row r="850">
-      <c r="G850" s="22"/>
+      <c r="G850" s="63"/>
     </row>
     <row r="851">
-      <c r="G851" s="22"/>
+      <c r="G851" s="63"/>
     </row>
     <row r="852">
-      <c r="G852" s="22"/>
+      <c r="G852" s="63"/>
     </row>
     <row r="853">
-      <c r="G853" s="22"/>
+      <c r="G853" s="63"/>
     </row>
     <row r="854">
-      <c r="G854" s="22"/>
+      <c r="G854" s="63"/>
     </row>
     <row r="855">
-      <c r="G855" s="22"/>
+      <c r="G855" s="63"/>
     </row>
     <row r="856">
-      <c r="G856" s="22"/>
+      <c r="G856" s="63"/>
     </row>
     <row r="857">
-      <c r="G857" s="22"/>
+      <c r="G857" s="63"/>
     </row>
     <row r="858">
-      <c r="G858" s="22"/>
+      <c r="G858" s="63"/>
     </row>
     <row r="859">
-      <c r="G859" s="22"/>
+      <c r="G859" s="63"/>
     </row>
     <row r="860">
-      <c r="G860" s="22"/>
+      <c r="G860" s="63"/>
     </row>
     <row r="861">
-      <c r="G861" s="22"/>
+      <c r="G861" s="63"/>
     </row>
     <row r="862">
-      <c r="G862" s="22"/>
+      <c r="G862" s="63"/>
     </row>
     <row r="863">
-      <c r="G863" s="22"/>
+      <c r="G863" s="63"/>
     </row>
     <row r="864">
-      <c r="G864" s="22"/>
+      <c r="G864" s="63"/>
     </row>
     <row r="865">
-      <c r="G865" s="22"/>
+      <c r="G865" s="63"/>
     </row>
     <row r="866">
-      <c r="G866" s="22"/>
+      <c r="G866" s="63"/>
     </row>
     <row r="867">
-      <c r="G867" s="22"/>
+      <c r="G867" s="63"/>
     </row>
     <row r="868">
-      <c r="G868" s="22"/>
+      <c r="G868" s="63"/>
     </row>
     <row r="869">
-      <c r="G869" s="22"/>
+      <c r="G869" s="63"/>
     </row>
     <row r="870">
-      <c r="G870" s="22"/>
+      <c r="G870" s="63"/>
     </row>
     <row r="871">
-      <c r="G871" s="22"/>
+      <c r="G871" s="63"/>
     </row>
     <row r="872">
-      <c r="G872" s="22"/>
+      <c r="G872" s="63"/>
     </row>
     <row r="873">
-      <c r="G873" s="22"/>
+      <c r="G873" s="63"/>
     </row>
     <row r="874">
-      <c r="G874" s="22"/>
+      <c r="G874" s="63"/>
     </row>
     <row r="875">
-      <c r="G875" s="22"/>
+      <c r="G875" s="63"/>
     </row>
     <row r="876">
-      <c r="G876" s="22"/>
+      <c r="G876" s="63"/>
     </row>
     <row r="877">
-      <c r="G877" s="22"/>
+      <c r="G877" s="63"/>
     </row>
     <row r="878">
-      <c r="G878" s="22"/>
+      <c r="G878" s="63"/>
     </row>
     <row r="879">
-      <c r="G879" s="22"/>
+      <c r="G879" s="63"/>
     </row>
     <row r="880">
-      <c r="G880" s="22"/>
+      <c r="G880" s="63"/>
     </row>
     <row r="881">
-      <c r="G881" s="22"/>
+      <c r="G881" s="63"/>
     </row>
     <row r="882">
-      <c r="G882" s="22"/>
+      <c r="G882" s="63"/>
     </row>
     <row r="883">
-      <c r="G883" s="22"/>
+      <c r="G883" s="63"/>
     </row>
     <row r="884">
-      <c r="G884" s="22"/>
+      <c r="G884" s="63"/>
     </row>
     <row r="885">
-      <c r="G885" s="22"/>
+      <c r="G885" s="63"/>
     </row>
     <row r="886">
-      <c r="G886" s="22"/>
+      <c r="G886" s="63"/>
     </row>
     <row r="887">
-      <c r="G887" s="22"/>
+      <c r="G887" s="63"/>
     </row>
     <row r="888">
-      <c r="G888" s="22"/>
+      <c r="G888" s="63"/>
     </row>
     <row r="889">
-      <c r="G889" s="22"/>
+      <c r="G889" s="63"/>
     </row>
     <row r="890">
-      <c r="G890" s="22"/>
+      <c r="G890" s="63"/>
     </row>
     <row r="891">
-      <c r="G891" s="22"/>
+      <c r="G891" s="63"/>
     </row>
     <row r="892">
-      <c r="G892" s="22"/>
+      <c r="G892" s="63"/>
     </row>
     <row r="893">
-      <c r="G893" s="22"/>
+      <c r="G893" s="63"/>
     </row>
     <row r="894">
-      <c r="G894" s="22"/>
+      <c r="G894" s="63"/>
     </row>
     <row r="895">
-      <c r="G895" s="22"/>
+      <c r="G895" s="63"/>
     </row>
     <row r="896">
-      <c r="G896" s="22"/>
+      <c r="G896" s="63"/>
     </row>
     <row r="897">
-      <c r="G897" s="22"/>
+      <c r="G897" s="63"/>
     </row>
     <row r="898">
-      <c r="G898" s="22"/>
+      <c r="G898" s="63"/>
     </row>
     <row r="899">
-      <c r="G899" s="22"/>
+      <c r="G899" s="63"/>
     </row>
     <row r="900">
-      <c r="G900" s="22"/>
+      <c r="G900" s="63"/>
     </row>
     <row r="901">
-      <c r="G901" s="22"/>
+      <c r="G901" s="63"/>
     </row>
     <row r="902">
-      <c r="G902" s="22"/>
+      <c r="G902" s="63"/>
     </row>
     <row r="903">
-      <c r="G903" s="22"/>
+      <c r="G903" s="63"/>
     </row>
     <row r="904">
-      <c r="G904" s="22"/>
+      <c r="G904" s="63"/>
     </row>
     <row r="905">
-      <c r="G905" s="22"/>
+      <c r="G905" s="63"/>
     </row>
     <row r="906">
-      <c r="G906" s="22"/>
+      <c r="G906" s="63"/>
     </row>
     <row r="907">
-      <c r="G907" s="22"/>
+      <c r="G907" s="63"/>
     </row>
     <row r="908">
-      <c r="G908" s="22"/>
+      <c r="G908" s="63"/>
     </row>
     <row r="909">
-      <c r="G909" s="22"/>
+      <c r="G909" s="63"/>
     </row>
     <row r="910">
-      <c r="G910" s="22"/>
+      <c r="G910" s="63"/>
     </row>
     <row r="911">
-      <c r="G911" s="22"/>
+      <c r="G911" s="63"/>
     </row>
     <row r="912">
-      <c r="G912" s="22"/>
+      <c r="G912" s="63"/>
     </row>
     <row r="913">
-      <c r="G913" s="22"/>
+      <c r="G913" s="63"/>
     </row>
     <row r="914">
-      <c r="G914" s="22"/>
+      <c r="G914" s="63"/>
     </row>
     <row r="915">
-      <c r="G915" s="22"/>
+      <c r="G915" s="63"/>
     </row>
     <row r="916">
-      <c r="G916" s="22"/>
+      <c r="G916" s="63"/>
     </row>
     <row r="917">
-      <c r="G917" s="22"/>
+      <c r="G917" s="63"/>
     </row>
     <row r="918">
-      <c r="G918" s="22"/>
+      <c r="G918" s="63"/>
     </row>
     <row r="919">
-      <c r="G919" s="22"/>
+      <c r="G919" s="63"/>
     </row>
     <row r="920">
-      <c r="G920" s="22"/>
+      <c r="G920" s="63"/>
     </row>
     <row r="921">
-      <c r="G921" s="22"/>
+      <c r="G921" s="63"/>
     </row>
     <row r="922">
-      <c r="G922" s="22"/>
+      <c r="G922" s="63"/>
     </row>
     <row r="923">
-      <c r="G923" s="22"/>
+      <c r="G923" s="63"/>
     </row>
     <row r="924">
-      <c r="G924" s="22"/>
+      <c r="G924" s="63"/>
     </row>
     <row r="925">
-      <c r="G925" s="22"/>
+      <c r="G925" s="63"/>
     </row>
     <row r="926">
-      <c r="G926" s="22"/>
+      <c r="G926" s="63"/>
     </row>
     <row r="927">
-      <c r="G927" s="22"/>
+      <c r="G927" s="63"/>
     </row>
     <row r="928">
-      <c r="G928" s="22"/>
+      <c r="G928" s="63"/>
     </row>
     <row r="929">
-      <c r="G929" s="22"/>
+      <c r="G929" s="63"/>
     </row>
     <row r="930">
-      <c r="G930" s="22"/>
+      <c r="G930" s="63"/>
     </row>
     <row r="931">
-      <c r="G931" s="22"/>
+      <c r="G931" s="63"/>
     </row>
     <row r="932">
-      <c r="G932" s="22"/>
+      <c r="G932" s="63"/>
     </row>
     <row r="933">
-      <c r="G933" s="22"/>
+      <c r="G933" s="63"/>
     </row>
     <row r="934">
-      <c r="G934" s="22"/>
+      <c r="G934" s="63"/>
     </row>
     <row r="935">
-      <c r="G935" s="22"/>
+      <c r="G935" s="63"/>
     </row>
     <row r="936">
-      <c r="G936" s="22"/>
+      <c r="G936" s="63"/>
     </row>
     <row r="937">
-      <c r="G937" s="22"/>
+      <c r="G937" s="63"/>
     </row>
     <row r="938">
-      <c r="G938" s="22"/>
+      <c r="G938" s="63"/>
     </row>
     <row r="939">
-      <c r="G939" s="22"/>
+      <c r="G939" s="63"/>
     </row>
     <row r="940">
-      <c r="G940" s="22"/>
+      <c r="G940" s="63"/>
     </row>
     <row r="941">
-      <c r="G941" s="22"/>
+      <c r="G941" s="63"/>
     </row>
     <row r="942">
-      <c r="G942" s="22"/>
+      <c r="G942" s="63"/>
     </row>
     <row r="943">
-      <c r="G943" s="22"/>
+      <c r="G943" s="63"/>
     </row>
     <row r="944">
-      <c r="G944" s="22"/>
+      <c r="G944" s="63"/>
     </row>
     <row r="945">
-      <c r="G945" s="22"/>
+      <c r="G945" s="63"/>
     </row>
     <row r="946">
-      <c r="G946" s="22"/>
+      <c r="G946" s="63"/>
     </row>
     <row r="947">
-      <c r="G947" s="22"/>
+      <c r="G947" s="63"/>
     </row>
     <row r="948">
-      <c r="G948" s="22"/>
+      <c r="G948" s="63"/>
     </row>
     <row r="949">
-      <c r="G949" s="22"/>
+      <c r="G949" s="63"/>
     </row>
     <row r="950">
-      <c r="G950" s="22"/>
+      <c r="G950" s="63"/>
     </row>
     <row r="951">
-      <c r="G951" s="22"/>
+      <c r="G951" s="63"/>
     </row>
     <row r="952">
-      <c r="G952" s="22"/>
+      <c r="G952" s="63"/>
     </row>
     <row r="953">
-      <c r="G953" s="22"/>
+      <c r="G953" s="63"/>
     </row>
     <row r="954">
-      <c r="G954" s="22"/>
+      <c r="G954" s="63"/>
     </row>
     <row r="955">
-      <c r="G955" s="22"/>
+      <c r="G955" s="63"/>
     </row>
     <row r="956">
-      <c r="G956" s="22"/>
+      <c r="G956" s="63"/>
     </row>
     <row r="957">
-      <c r="G957" s="22"/>
+      <c r="G957" s="63"/>
     </row>
     <row r="958">
-      <c r="G958" s="22"/>
+      <c r="G958" s="63"/>
     </row>
     <row r="959">
-      <c r="G959" s="22"/>
+      <c r="G959" s="63"/>
     </row>
     <row r="960">
-      <c r="G960" s="22"/>
+      <c r="G960" s="63"/>
     </row>
     <row r="961">
-      <c r="G961" s="22"/>
+      <c r="G961" s="63"/>
     </row>
     <row r="962">
-      <c r="G962" s="22"/>
+      <c r="G962" s="63"/>
     </row>
     <row r="963">
-      <c r="G963" s="22"/>
+      <c r="G963" s="63"/>
     </row>
     <row r="964">
-      <c r="G964" s="22"/>
+      <c r="G964" s="63"/>
     </row>
     <row r="965">
-      <c r="G965" s="22"/>
+      <c r="G965" s="63"/>
     </row>
     <row r="966">
-      <c r="G966" s="22"/>
+      <c r="G966" s="63"/>
     </row>
     <row r="967">
-      <c r="G967" s="22"/>
+      <c r="G967" s="63"/>
     </row>
     <row r="968">
-      <c r="G968" s="22"/>
+      <c r="G968" s="63"/>
     </row>
     <row r="969">
-      <c r="G969" s="22"/>
+      <c r="G969" s="63"/>
     </row>
     <row r="970">
-      <c r="G970" s="22"/>
+      <c r="G970" s="63"/>
     </row>
     <row r="971">
-      <c r="G971" s="22"/>
+      <c r="G971" s="63"/>
     </row>
     <row r="972">
-      <c r="G972" s="22"/>
+      <c r="G972" s="63"/>
     </row>
     <row r="973">
-      <c r="G973" s="22"/>
+      <c r="G973" s="63"/>
     </row>
     <row r="974">
-      <c r="G974" s="22"/>
+      <c r="G974" s="63"/>
     </row>
     <row r="975">
-      <c r="G975" s="22"/>
+      <c r="G975" s="63"/>
     </row>
     <row r="976">
-      <c r="G976" s="22"/>
+      <c r="G976" s="63"/>
     </row>
     <row r="977">
-      <c r="G977" s="22"/>
+      <c r="G977" s="63"/>
     </row>
     <row r="978">
-      <c r="G978" s="22"/>
+      <c r="G978" s="63"/>
     </row>
     <row r="979">
-      <c r="G979" s="22"/>
+      <c r="G979" s="63"/>
     </row>
     <row r="980">
-      <c r="G980" s="22"/>
+      <c r="G980" s="63"/>
     </row>
     <row r="981">
-      <c r="G981" s="22"/>
+      <c r="G981" s="63"/>
     </row>
     <row r="982">
-      <c r="G982" s="22"/>
+      <c r="G982" s="63"/>
     </row>
     <row r="983">
-      <c r="G983" s="22"/>
+      <c r="G983" s="63"/>
     </row>
     <row r="984">
-      <c r="G984" s="22"/>
+      <c r="G984" s="63"/>
     </row>
     <row r="985">
-      <c r="G985" s="22"/>
+      <c r="G985" s="63"/>
     </row>
     <row r="986">
-      <c r="G986" s="22"/>
+      <c r="G986" s="63"/>
     </row>
     <row r="987">
-      <c r="G987" s="22"/>
+      <c r="G987" s="63"/>
     </row>
     <row r="988">
-      <c r="G988" s="22"/>
+      <c r="G988" s="63"/>
     </row>
     <row r="989">
-      <c r="G989" s="22"/>
+      <c r="G989" s="63"/>
     </row>
     <row r="990">
-      <c r="G990" s="22"/>
+      <c r="G990" s="63"/>
     </row>
     <row r="991">
-      <c r="G991" s="22"/>
+      <c r="G991" s="63"/>
     </row>
     <row r="992">
-      <c r="G992" s="22"/>
+      <c r="G992" s="63"/>
     </row>
     <row r="993">
-      <c r="G993" s="22"/>
+      <c r="G993" s="63"/>
     </row>
     <row r="994">
-      <c r="G994" s="22"/>
+      <c r="G994" s="63"/>
     </row>
     <row r="995">
-      <c r="G995" s="22"/>
+      <c r="G995" s="63"/>
     </row>
     <row r="996">
-      <c r="G996" s="22"/>
+      <c r="G996" s="63"/>
     </row>
     <row r="997">
-      <c r="G997" s="22"/>
+      <c r="G997" s="63"/>
     </row>
     <row r="998">
-      <c r="G998" s="22"/>
+      <c r="G998" s="63"/>
     </row>
     <row r="999">
-      <c r="G999" s="22"/>
+      <c r="G999" s="63"/>
     </row>
     <row r="1000">
-      <c r="G1000" s="22"/>
+      <c r="G1000" s="63"/>
     </row>
     <row r="1001">
-      <c r="G1001" s="22"/>
+      <c r="G1001" s="63"/>
     </row>
     <row r="1002">
-      <c r="G1002" s="22"/>
+      <c r="G1002" s="63"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1002">
@@ -4214,7 +5599,22 @@
       <formula>LEN(TRIM(G1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F25">
+      <formula1>OR(TIMEVALUE(TEXT(E2, "hh:mm:ss"))=E2, AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A25">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2:G25">
+      <formula1>AND(ISNUMBER(G2),(NOT(OR(NOT(ISERROR(DATEVALUE(G2))), AND(ISNUMBER(G2), LEFT(CELL("format", G2))="D")))))</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="C2:C25"/>
+  </dataValidations>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4238,186 +5638,270 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>23</v>
+      <c r="A1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12">
+      <c r="A2" s="14">
         <v>45575.0</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="16">
+      <c r="B2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="19">
         <v>0.8020833333333334</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="19">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="18">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12">
+      <c r="A3" s="14">
         <v>45579.0</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="C3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="19">
         <v>0.4791666666666667</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="19">
         <v>0.5555555555555556</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="18">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17">
+      <c r="A4" s="20">
         <v>45579.0</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="C4" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="19">
         <v>0.6041666666666666</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="19">
         <v>0.71875</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="18">
         <v>2.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>45581.0</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="C5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="19">
         <v>0.6770833333333334</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="18">
         <v>0.25</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>45582.0</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="C6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="19">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="19">
         <v>0.5416666666666666</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="18">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>45584.0</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="C7" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="19">
         <v>0.7708333333333334</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="19">
         <v>0.8125</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="18">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>45589.0</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="C8" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="19">
         <v>0.4618055555555556</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="18">
         <v>14.0</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="18">
         <v>3.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>45589.0</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="C9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="19">
         <v>0.6284722222222222</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="19">
         <v>0.7118055555555556</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="18">
         <v>2.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>45591.0</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="C10" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="19">
         <v>0.6701388888888888</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="19">
         <v>0.8055555555555556</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="18">
         <v>3.0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="24">
+        <v>45596.0</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.59375</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="G11" s="18">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="65">
+        <v>45597.0</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="G12" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="65">
+        <v>45597.0</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.6319444444444444</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="24">
+        <v>45613.0</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="G15" s="18">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B7"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4434,339 +5918,645 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="13.25"/>
     <col customWidth="1" min="2" max="2" width="21.25"/>
-    <col customWidth="1" min="3" max="3" width="51.5"/>
-    <col customWidth="1" min="4" max="4" width="16.13"/>
+    <col customWidth="1" min="3" max="3" width="65.13"/>
+    <col customWidth="1" min="4" max="4" width="13.63"/>
     <col customWidth="1" min="5" max="5" width="15.0"/>
     <col customWidth="1" min="6" max="6" width="14.13"/>
     <col customWidth="1" min="7" max="7" width="18.13"/>
-    <col customWidth="1" min="8" max="8" width="22.75"/>
+    <col customWidth="1" min="8" max="8" width="20.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26">
+      <c r="A2" s="67">
         <v>45575.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5">
         <v>10.0</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="68">
         <v>0.8020833333333334</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="68">
         <v>0.8333333333333334</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="26">
+      <c r="A3" s="67">
         <v>45579.0</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5">
         <v>10.0</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="68">
         <v>0.4791666666666667</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="68">
         <v>0.5555555555555556</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="28">
+      <c r="A4" s="69">
         <v>45579.0</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
-        <v>34</v>
+      <c r="C4" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D4" s="5">
         <v>10.0</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="68">
         <v>0.6041666666666666</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="68">
         <v>0.71875</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="26">
+      <c r="A5" s="67">
         <v>45581.0</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D5" s="5">
         <v>10.0</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="68">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="68">
         <v>0.6770833333333334</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="26">
+      <c r="A6" s="67">
         <v>45582.0</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5">
         <v>10.0</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="68">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="68">
         <v>0.5416666666666666</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="26">
+      <c r="A7" s="67">
         <v>45582.0</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D7" s="5">
         <v>10.0</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="68">
         <v>0.5763888888888888</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="68">
         <v>0.625</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="26">
+      <c r="A8" s="67">
         <v>45584.0</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="29" t="s">
-        <v>55</v>
+      <c r="C8" s="70" t="s">
+        <v>114</v>
       </c>
       <c r="D8" s="5">
         <v>10.0</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="68">
         <v>0.75</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="68">
         <v>0.8125</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="26">
+      <c r="A9" s="67">
         <v>45586.0</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="30" t="s">
-        <v>30</v>
+      <c r="C9" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="D9" s="5">
         <v>10.0</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="68">
         <v>0.6145833333333334</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="68">
         <v>0.625</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="26">
+      <c r="A10" s="67">
         <v>45589.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="D10" s="5">
         <v>10.0</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="68">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="68">
         <v>0.5833333333333334</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="26">
+      <c r="A11" s="67">
         <v>45589.0</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D11" s="5">
         <v>10.0</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="68">
         <v>0.625</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="68">
         <v>0.7361111111111112</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="26">
+      <c r="A12" s="67">
         <v>45591.0</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5">
         <v>10.0</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="68">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="68">
         <v>0.8125</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>49</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="67">
+        <v>45595.0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E13" s="68">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F13" s="68">
+        <v>0.5625</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="67">
+        <v>45595.0</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E14" s="68">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F14" s="68">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="31"/>
+      <c r="A15" s="67">
+        <v>45599.0</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E15" s="68">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="F15" s="68">
+        <v>0.625</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="31"/>
+      <c r="A16" s="67">
+        <v>45599.0</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="E16" s="68">
+        <v>0.625</v>
+      </c>
+      <c r="F16" s="68">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="31"/>
+      <c r="A17" s="67">
+        <v>45600.0</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="74">
+        <v>8.5</v>
+      </c>
+      <c r="E17" s="75">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="F17" s="75">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="76"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="67">
+        <v>45602.0</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="E18" s="80">
+        <v>0.5729166666666666</v>
+      </c>
+      <c r="F18" s="80">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="67">
+        <v>45604.0</v>
+      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="74">
+        <v>7.5</v>
+      </c>
+      <c r="E19" s="75">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="F19" s="75">
+        <v>0.4895833333333333</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="67">
+        <v>45605.0</v>
+      </c>
+      <c r="B20" s="77"/>
+      <c r="C20" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="E20" s="80">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F20" s="80">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="G20" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="77"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="67">
+        <v>45606.0</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="74">
+        <v>7.5</v>
+      </c>
+      <c r="E21" s="75">
+        <v>0.6875</v>
+      </c>
+      <c r="F21" s="75">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G21" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="76"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="67">
+        <v>45607.0</v>
+      </c>
+      <c r="B22" s="77"/>
+      <c r="C22" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="E22" s="80">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="F22" s="80">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G22" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="67">
+        <v>45608.0</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="74">
+        <v>7.5</v>
+      </c>
+      <c r="E23" s="75">
+        <v>0.71875</v>
+      </c>
+      <c r="F23" s="75">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="G23" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="67">
+        <v>45609.0</v>
+      </c>
+      <c r="B24" s="77"/>
+      <c r="C24" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="E24" s="80">
+        <v>0.7395833333333334</v>
+      </c>
+      <c r="F24" s="80">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G24" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="67">
+        <v>45612.0</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="74">
+        <v>7.5</v>
+      </c>
+      <c r="E25" s="75">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F25" s="75">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="83" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="67">
+        <v>45613.0</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="E26" s="68">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F26" s="68">
+        <v>0.75</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="84" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B26"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H19:H21"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4786,90 +6576,150 @@
     <col customWidth="1" min="2" max="2" width="21.25"/>
     <col customWidth="1" min="3" max="3" width="51.5"/>
     <col customWidth="1" min="4" max="4" width="20.25"/>
-    <col customWidth="1" min="5" max="6" width="18.38"/>
+    <col customWidth="1" min="5" max="5" width="18.38"/>
+    <col customWidth="1" min="6" max="6" width="22.13"/>
     <col customWidth="1" min="7" max="7" width="20.75"/>
     <col customWidth="1" min="8" max="8" width="22.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>23</v>
+      <c r="A1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12">
+      <c r="A2" s="14">
         <v>45575.0</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0.8020833333333334</v>
-      </c>
-      <c r="F2" s="16">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="C2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="18">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17">
+      <c r="A3" s="20">
         <v>45579.0</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="33">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="20">
+        <v>45579.0</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="64"/>
+      <c r="E4" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="14">
+        <v>45580.0</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="14">
+        <v>45581.0</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14">
+        <v>45584.0</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14">
+        <v>45586.0</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="18">
         <v>0.5</v>
       </c>
-      <c r="F3" s="32">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="G3" s="15">
+    </row>
+    <row r="9">
+      <c r="A9" s="14">
+        <v>45606.0</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14">
+        <v>45610.0</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="18">
         <v>2.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="17">
-        <v>45579.0</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="32">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="F4" s="33">
-        <v>0.71875</v>
-      </c>
-      <c r="G4" s="15">
-        <v>2.5</v>
+    <row r="11">
+      <c r="A11" s="14">
+        <v>45612.0</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="18">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" s="18">
+        <f>SUM(E2:E11)</f>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>

--- a/Pitches/Backlog.xlsx
+++ b/Pitches/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="260">
   <si>
     <t>Deadline Resultaten</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Interactie diagram</t>
   </si>
   <si>
-    <t>Bezig</t>
-  </si>
-  <si>
     <t>Klassen diagram</t>
   </si>
   <si>
@@ -126,15 +123,126 @@
     <t>Genereer proefexamen</t>
   </si>
   <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>Code</t>
+    <t>Safwaan</t>
   </si>
   <si>
     <t>Detailanalyse &amp; -design, code, demo, iteratie 2</t>
   </si>
   <si>
+    <t>Vragenset aanmaken</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>31-nov</t>
+  </si>
+  <si>
+    <t>Doorloop Vragen</t>
+  </si>
+  <si>
+    <t>Doorloop vragen configuratiescherm</t>
+  </si>
+  <si>
+    <t>Thibe</t>
+  </si>
+  <si>
+    <t>Doorloop vragen algoritme</t>
+  </si>
+  <si>
+    <t>Doorloop vragen resultaten</t>
+  </si>
+  <si>
+    <t>Genereer proefexamen GUI</t>
+  </si>
+  <si>
+    <t>Maak vragenset/mainwindow</t>
+  </si>
+  <si>
+    <t>Vraag tonen in mainwindow</t>
+  </si>
+  <si>
+    <t>Niet Begonnen</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Fully dressed use case</t>
+  </si>
+  <si>
+    <t>Server setup</t>
+  </si>
+  <si>
+    <t>Database setup</t>
+  </si>
+  <si>
+    <t>Login GUI</t>
+  </si>
+  <si>
+    <t>Server-Login</t>
+  </si>
+  <si>
+    <t>Deel vragen met vrienden</t>
+  </si>
+  <si>
+    <t>Vrienden kunnen toevoegen</t>
+  </si>
+  <si>
+    <t>Inbox</t>
+  </si>
+  <si>
+    <t>Vragen delen via code</t>
+  </si>
+  <si>
+    <t>Sander</t>
+  </si>
+  <si>
+    <t>Vragen delen via vriendenlijst</t>
+  </si>
+  <si>
+    <t>Server-Vragen tijdelijk opslaan via zip</t>
+  </si>
+  <si>
+    <t>Safwaan(Overgenomen door Thibe)</t>
+  </si>
+  <si>
+    <t>Vragen kunnen halen met code</t>
+  </si>
+  <si>
+    <t>Maak groep aan</t>
+  </si>
+  <si>
+    <t>Server-maak groep aan</t>
+  </si>
+  <si>
+    <t>Bert, Calvin</t>
+  </si>
+  <si>
+    <t>Maak groep aan GUI</t>
+  </si>
+  <si>
+    <t>Nodig gebruikers uit tot groep</t>
+  </si>
+  <si>
+    <t>Server-gebruikers uitnodigen tot groep</t>
+  </si>
+  <si>
+    <t>Bert Calvin</t>
+  </si>
+  <si>
+    <t>Groep bekijken GUI</t>
+  </si>
+  <si>
+    <t>Zet vragenset of oefenexamen in de groep</t>
+  </si>
+  <si>
+    <t>Server-zet vragenset of oefenexamen in groep</t>
+  </si>
+  <si>
+    <t>Bekijk vragensets en oefenexamens van groep</t>
+  </si>
+  <si>
     <t>Demo</t>
   </si>
   <si>
@@ -225,6 +333,90 @@
     <t>Samenvoegen branches en laatste controles voor iteratie 1/demo</t>
   </si>
   <si>
+    <t>Detailanalyse iteratie 2</t>
+  </si>
+  <si>
+    <t>Taakverdeling tot 31ste uitwerken</t>
+  </si>
+  <si>
+    <t>Basis setup server en database</t>
+  </si>
+  <si>
+    <t>Detailanalyse login maken buiten sequentiediagrammen</t>
+  </si>
+  <si>
+    <t>31/11/2024</t>
+  </si>
+  <si>
+    <t>Code Iteratie 2</t>
+  </si>
+  <si>
+    <t>Server login en register api + jwt implementeren + code in classes proberen te zetten</t>
+  </si>
+  <si>
+    <t>Client side storen van session</t>
+  </si>
+  <si>
+    <t>Samenvoegen + bespreken volgende taakverdeling</t>
+  </si>
+  <si>
+    <t>Login feedback frontend</t>
+  </si>
+  <si>
+    <t>Server groepen creëren + probleem met foreign keys proberen op te lossen</t>
+  </si>
+  <si>
+    <t>Uitloggen gui en opslaan van inlogstatus na herstart</t>
+  </si>
+  <si>
+    <t>Creëren, verwijderen groepen en verwijderen user met token verificatie</t>
+  </si>
+  <si>
+    <t>Inviten van users tot groepen en ophalen van users invites</t>
+  </si>
+  <si>
+    <t>Accepten en rejecten van invites-backend</t>
+  </si>
+  <si>
+    <t>Placeholder voor use cases "Maak groep aan" en "Nodig gebruikers uit tot groep"</t>
+  </si>
+  <si>
+    <t>Overige</t>
+  </si>
+  <si>
+    <t>Bespreking afronden project</t>
+  </si>
+  <si>
+    <t>Sander en Thibe helpen van mergen naar main + token verification toepassen op hun requests</t>
+  </si>
+  <si>
+    <t>Deploymogelijkheden bekijken en maken fully dressed use case "Maak groep aan"</t>
+  </si>
+  <si>
+    <t>Code en Detailanalyse Iteratie 2</t>
+  </si>
+  <si>
+    <t>Fully dressed use case "Nodig gebruikers uit tot groep" afmaken en groepen joinen via code toegevoegd</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Test cases schrijven + mergen + code cleanup</t>
+  </si>
+  <si>
+    <t>Deploymogelijkheden linux bekijken</t>
+  </si>
+  <si>
+    <t>Linux deployment proberen te fixen + Windows Deployment maken + Testdata maken + kleine fixes</t>
+  </si>
+  <si>
+    <t>Conclusie</t>
+  </si>
+  <si>
+    <t>Praten over demo aanpak</t>
+  </si>
+  <si>
     <t>Analyse</t>
   </si>
   <si>
@@ -291,6 +483,63 @@
     <t>Alles connecteren</t>
   </si>
   <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Bespreking planning iteratie 2</t>
+  </si>
+  <si>
+    <t>GUI login + basis connect</t>
+  </si>
+  <si>
+    <t>JWS session save client side</t>
+  </si>
+  <si>
+    <t>Meeting over mergen</t>
+  </si>
+  <si>
+    <t>Fixing connects for login met Calvin</t>
+  </si>
+  <si>
+    <t>Deel Vragen met vrienden</t>
+  </si>
+  <si>
+    <t>Bespreken opsplittsing deel vragen</t>
+  </si>
+  <si>
+    <t>Start Pagina Share</t>
+  </si>
+  <si>
+    <t>Connecties naar controller</t>
+  </si>
+  <si>
+    <t>Zip Functie  Windows + Linux</t>
+  </si>
+  <si>
+    <t>Share Code</t>
+  </si>
+  <si>
+    <t>Added Comments and small bug fixes</t>
+  </si>
+  <si>
+    <t>Small fixes</t>
+  </si>
+  <si>
+    <t>Merge fixes and bug fixes, Beetje Use case ook met Thibe</t>
+  </si>
+  <si>
+    <t>Laatste Bespreken</t>
+  </si>
+  <si>
+    <t>Testen met Linux  (Attempt, problemen met linux)</t>
+  </si>
+  <si>
+    <t>Meer Linux testen (executable gemaakt maar problemen)</t>
+  </si>
+  <si>
+    <t>Test data demo+ klein visual fix</t>
+  </si>
+  <si>
     <t>Eerste meeting</t>
   </si>
   <si>
@@ -333,118 +582,175 @@
     <t>samenvoegen van verschillende componenten</t>
   </si>
   <si>
+    <t>taakverdeling regelen</t>
+  </si>
+  <si>
+    <t>bijeenkomst voor samenvoegen en verdere taakverdeling</t>
+  </si>
+  <si>
+    <t>functionaliteit van nieuwe questionset maken</t>
+  </si>
+  <si>
+    <t>styling doen van het homescreen</t>
+  </si>
+  <si>
+    <t>goede opslitsing van de verschillende widgets in hun eigen klasse</t>
+  </si>
+  <si>
+    <t>visual bugs eruit halen</t>
+  </si>
+  <si>
+    <t>kleuren kunnen toekennen aan questionsets en deze kunnen aanpassen</t>
+  </si>
+  <si>
+    <t>op een question klikken wordt deze getoond en kun je deze managen</t>
+  </si>
+  <si>
     <t>Taken</t>
   </si>
   <si>
     <t xml:space="preserve">Totaaltijd </t>
   </si>
   <si>
-    <t>45 min</t>
-  </si>
-  <si>
     <t xml:space="preserve">- </t>
   </si>
   <si>
-    <t>1 uur 20 min</t>
-  </si>
-  <si>
-    <t>2 uur 45 min</t>
-  </si>
-  <si>
-    <t>15 min</t>
+    <t>Afwerking pitches</t>
+  </si>
+  <si>
+    <t>Werken aan de analyse</t>
+  </si>
+  <si>
+    <t>Iteratie 1</t>
+  </si>
+  <si>
+    <t>Fully dressed use case: genereer proefexamen en open vragenset</t>
+  </si>
+  <si>
+    <t>Contracten + sequentie diagrammen: genereer proefexamen en open vragenset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vragenset management model (aanmaken, zoeken) </t>
   </si>
   <si>
     <t>2 uur</t>
   </si>
   <si>
-    <t>1 uur 10 min</t>
-  </si>
-  <si>
-    <t>Afwerking pitches</t>
+    <t>Vragen management model (aanmaken, zoeken, opslaan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 uur</t>
+  </si>
+  <si>
+    <t>Afmaken vragen management model (aanmaken, zoeken, opslaan)</t>
+  </si>
+  <si>
+    <t>Ondervraging GUI</t>
+  </si>
+  <si>
+    <t>Ondervraging model</t>
+  </si>
+  <si>
+    <t>8 uur</t>
+  </si>
+  <si>
+    <t>Ondervraging GUI multipleChoice</t>
+  </si>
+  <si>
+    <t>4 uur</t>
+  </si>
+  <si>
+    <t>Ondervraging GUI flashcard</t>
+  </si>
+  <si>
+    <t>2 uur 30 min</t>
+  </si>
+  <si>
+    <t>Ondervraging fill in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ondervraging model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 uur </t>
+  </si>
+  <si>
+    <t>Afwerking model + GUI ondervraging</t>
+  </si>
+  <si>
+    <t>Iteratie 2</t>
+  </si>
+  <si>
+    <t>Bespreking opdeling iteratie 2</t>
+  </si>
+  <si>
+    <t>Fouten doorlopen ondervraging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 uur </t>
+  </si>
+  <si>
+    <t>Ondervraging score, info na ondervraging (+ kleine code verbeteringen)</t>
+  </si>
+  <si>
+    <t>3 uur 30 min</t>
+  </si>
+  <si>
+    <t>Kleine usability verbeteringen + bug fixes</t>
+  </si>
+  <si>
+    <t>Maak ondervraging scherm</t>
+  </si>
+  <si>
+    <t>3 uur</t>
+  </si>
+  <si>
+    <t>Kies vragenset scherm</t>
+  </si>
+  <si>
+    <t>5 uur</t>
+  </si>
+  <si>
+    <t>Inbox (view)</t>
+  </si>
+  <si>
+    <t>Voeg vriend toe (view)</t>
+  </si>
+  <si>
+    <t>Voeg vriend toe (model)</t>
+  </si>
+  <si>
+    <t>Inbox (model)</t>
+  </si>
+  <si>
+    <t>Mergen naar main + bug fixes + Use case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug fixes </t>
+  </si>
+  <si>
+    <t>Vragen set zip opslaan + db integratie share</t>
+  </si>
+  <si>
+    <t>Vragen set ophalen met code</t>
+  </si>
+  <si>
+    <t>Vragen set unzippen</t>
   </si>
   <si>
     <t>1 uur 30 min</t>
   </si>
   <si>
-    <t>Werken aan de analyse</t>
-  </si>
-  <si>
-    <t>3 uur</t>
-  </si>
-  <si>
-    <t>2 uur 40 min</t>
-  </si>
-  <si>
-    <t>3 uur 30 min</t>
-  </si>
-  <si>
-    <t>Iteratie 1</t>
-  </si>
-  <si>
-    <t>Fully dressed use case: genereer proefexamen en open vragenset</t>
-  </si>
-  <si>
-    <t>2 uur 30 min</t>
-  </si>
-  <si>
-    <t>Contracten + sequentie diagrammen: genereer proefexamen en open vragenset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vragenset management model (aanmaken, zoeken) </t>
-  </si>
-  <si>
-    <t>Vragen management model (aanmaken, zoeken, opslaan)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4 uur</t>
-  </si>
-  <si>
-    <t>Afmaken vragen management model (aanmaken, zoeken, opslaan)</t>
-  </si>
-  <si>
-    <t>Ondervraging GUI</t>
-  </si>
-  <si>
-    <t>2 uur 15 min</t>
-  </si>
-  <si>
-    <t>Ondervraging model</t>
-  </si>
-  <si>
-    <t>8 uur</t>
-  </si>
-  <si>
-    <t>Ondervraging GUI multipleChoice</t>
-  </si>
-  <si>
-    <t>5 uur</t>
-  </si>
-  <si>
-    <t>4 uur</t>
-  </si>
-  <si>
-    <t>Ondervraging GUI flashcard</t>
-  </si>
-  <si>
-    <t>4 uur 15 min</t>
-  </si>
-  <si>
-    <t>2,5 uur</t>
-  </si>
-  <si>
-    <t>Ondervraging fill in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ondervraging model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 uur </t>
-  </si>
-  <si>
-    <t>Afwerking model + GUI ondervraging</t>
-  </si>
-  <si>
-    <t>7 uur</t>
+    <t>Verbeteringen</t>
+  </si>
+  <si>
+    <t>Verbeteringen + unit testen</t>
+  </si>
+  <si>
+    <t>Duplicate name fix</t>
+  </si>
+  <si>
+    <t>Totaal tijd</t>
   </si>
   <si>
     <t>Pitch 2 bijwerken</t>
@@ -463,6 +769,33 @@
   </si>
   <si>
     <t>Oefenexamen CLI afwerken</t>
+  </si>
+  <si>
+    <t>QT fixen</t>
+  </si>
+  <si>
+    <t>Oefenexamen GUI beginnen</t>
+  </si>
+  <si>
+    <t>Oefenexamen GUI afwerken</t>
+  </si>
+  <si>
+    <t>Vergadering</t>
+  </si>
+  <si>
+    <t>Oefenexamen GUI klaarmaken</t>
+  </si>
+  <si>
+    <t>Oefenexamen versie 2 beginnen</t>
+  </si>
+  <si>
+    <t>Oefenexamen versie 2 afwerken</t>
+  </si>
+  <si>
+    <t>Oefenexamen versie 2 integreren</t>
+  </si>
+  <si>
+    <t>oefenexamen versie 2 integreren &amp; klaarmaken</t>
   </si>
 </sst>
 </file>
@@ -478,7 +811,7 @@
     <numFmt numFmtId="169" formatCode="H:mm:ss"/>
     <numFmt numFmtId="170" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -499,8 +832,14 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,8 +864,14 @@
         <bgColor rgb="FFF8F9FA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="27">
     <border/>
     <border>
       <left style="thin">
@@ -565,6 +910,19 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -782,11 +1140,69 @@
         <color rgb="FF284E3F"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="113">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -819,12 +1235,23 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -858,118 +1285,130 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -977,6 +1416,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1030,6 +1472,54 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1083,8 +1573,13 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
+  <tableStyles count="2">
     <tableStyle count="3" pivot="0" name="Sander-style">
+      <tableStyleElement dxfId="2" type="headerRow"/>
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Safwaan-style">
       <tableStyleElement dxfId="2" type="headerRow"/>
       <tableStyleElement dxfId="3" type="firstRowStripe"/>
       <tableStyleElement dxfId="4" type="secondRowStripe"/>
@@ -1118,7 +1613,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H25" displayName="Tabel1" name="Tabel1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H43" displayName="Tabel1" name="Tabel1" id="1">
   <tableColumns count="8">
     <tableColumn name="Datum" id="1"/>
     <tableColumn name="Mijlpaal" id="2"/>
@@ -1130,6 +1625,20 @@
     <tableColumn name="Geschatte totaaltijd(Minuten)" id="8"/>
   </tableColumns>
   <tableStyleInfo name="Sander-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F24" displayName="Tabel2" name="Tabel2" id="2">
+  <tableColumns count="6">
+    <tableColumn name="Datum" id="1"/>
+    <tableColumn name="Mijlpaal" id="2"/>
+    <tableColumn name="Taak" id="3"/>
+    <tableColumn name="Prioriteit(1-10)" id="4"/>
+    <tableColumn name="Totaaltijd (uur)" id="5"/>
+    <tableColumn name="Geschatte totaaltijd(Minuten)" id="6"/>
+  </tableColumns>
+  <tableStyleInfo name="Safwaan-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1343,7 +1852,7 @@
     <col customWidth="1" min="4" max="4" width="38.63"/>
     <col customWidth="1" min="5" max="5" width="47.75"/>
     <col customWidth="1" min="6" max="6" width="16.5"/>
-    <col customWidth="1" min="7" max="7" width="18.5"/>
+    <col customWidth="1" min="7" max="7" width="28.75"/>
     <col customWidth="1" min="8" max="8" width="16.88"/>
     <col customWidth="1" min="9" max="9" width="14.13"/>
     <col customWidth="1" min="10" max="10" width="16.38"/>
@@ -1572,7 +2081,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1585,7 +2094,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
@@ -1602,14 +2111,14 @@
         <v>45606.0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -1622,14 +2131,14 @@
         <v>45606.0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1642,128 +2151,529 @@
         <v>45610.0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="8">
         <v>45610.0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="12">
+        <v>45646.0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="13">
+        <v>45625.0</v>
+      </c>
       <c r="D16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18">
-      <c r="A18" s="12">
-        <v>45646.0</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19">
-      <c r="A19" s="12">
-        <v>45649.0</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
     <row r="20">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="13">
+        <v>45625.0</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
     <row r="21">
-      <c r="A21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="13">
+        <v>45625.0</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="12">
+        <v>45641.0</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="12">
+        <v>45643.0</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="12">
+        <v>45643.0</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="13">
+        <v>45649.0</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="8"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="29">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="B6:B15"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="D6:D11"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A38"/>
+    <mergeCell ref="B16:B38"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F19">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F39">
       <formula1>"Compleet,Bezig,Niet Begonnen"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1782,7 +2692,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.25"/>
-    <col customWidth="1" min="2" max="2" width="21.25"/>
+    <col customWidth="1" min="2" max="2" width="25.75"/>
     <col customWidth="1" min="3" max="3" width="51.5"/>
     <col customWidth="1" min="4" max="4" width="20.25"/>
     <col customWidth="1" min="5" max="6" width="18.38"/>
@@ -1791,307 +2701,568 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>43</v>
+      <c r="H1" s="21" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14">
+      <c r="A2" s="19">
         <v>45575.0</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="B2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="24">
         <v>0.8020833333333334</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="24">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14">
+      <c r="A3" s="19">
         <v>45579.0</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="19">
+      <c r="C3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="24">
         <v>0.4791666666666667</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="24">
         <v>0.5555555555555556</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="23">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20">
+      <c r="A4" s="25">
         <v>45579.0</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="C4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="24">
         <v>0.6041666666666666</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="24">
         <v>0.71875</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="23">
         <v>2.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22">
+      <c r="A5" s="27">
         <v>45581.0</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18">
+      <c r="C5" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14">
+      <c r="A6" s="19">
         <v>45582.0</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="C6" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="23">
         <v>3.5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14">
+      <c r="A7" s="19">
         <v>45584.0</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="18">
+      <c r="C7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="23">
         <v>1.5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14">
+      <c r="A8" s="19">
         <v>45586.0</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="18">
+      <c r="C8" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14">
+      <c r="A9" s="19">
         <v>45589.0</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="18">
+      <c r="B9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="23">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14">
+      <c r="A10" s="19">
         <v>45591.0</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="18">
+      <c r="C10" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="23">
         <v>3.5</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="14">
+      <c r="A11" s="19">
         <v>45593.0</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="C11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14">
+      <c r="A12" s="19">
         <v>45595.0</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="C12" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="23">
         <v>0.75</v>
       </c>
     </row>
     <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" s="14">
+      <c r="A13" s="19">
         <v>45596.0</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="C13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="23">
         <v>5.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23">
+      <c r="A14" s="28">
         <v>45597.0</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="C14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="23">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="24">
+      <c r="A15" s="29">
         <v>45598.0</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="18">
+      <c r="C15" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="23">
         <v>2.5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="23">
+      <c r="A16" s="28">
         <v>45598.0</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="B16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="23">
         <v>3.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="14">
+      <c r="A17" s="19">
         <v>45603.0</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="18">
+      <c r="C17" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="23">
         <v>2.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14">
+      <c r="A18" s="19">
         <v>45606.0</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="C18" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="23">
         <v>3.5</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="14">
+      <c r="A19" s="19">
         <v>45608.0</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="18">
+      <c r="C19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="14">
+      <c r="A20" s="19">
         <v>45609.0</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="C20" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="23">
         <v>3.5</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="14">
+      <c r="A21" s="19">
         <v>45610.0</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="C21" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="23">
         <v>1.25</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="14">
+      <c r="A22" s="19">
         <v>45610.0</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="C22" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="14">
+      <c r="A23" s="19">
         <v>45613.0</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="18">
+      <c r="C23" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="23">
         <v>4.5</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="19">
+        <v>45618.0</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="23">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="19">
+        <v>45619.0</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="23">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="19">
+        <v>45624.0</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="23">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19">
+        <v>45627.0</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="31">
+        <v>45628.0</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="19">
+        <v>45628.0</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="23">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="19">
+        <v>45637.0</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="19">
+        <v>45638.0</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="23">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="19">
+        <v>45638.0</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="19">
+        <v>45641.0</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="23">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="19">
+        <v>45642.0</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="23">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="19">
+        <v>45642.0</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="19">
+        <v>45644.0</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="23">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="19">
+        <v>45645.0</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="23">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="19">
+        <v>45645.0</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="19">
+        <v>45646.0</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="19">
+        <v>45649.0</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="23">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="28">
+        <v>45292.0</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="28">
+        <v>45293.0</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="23">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="28">
+        <v>45293.0</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="23">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2120,3478 +3291,3824 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="E1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>43</v>
+      <c r="H1" s="38" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30">
+      <c r="A2" s="39">
         <v>45575.0</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="32">
+      <c r="B2" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="41">
         <v>0.8020833333333334</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="41">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="42">
         <f t="shared" ref="G2:G8" si="1">HOUR(F2-E2) + MINUTE(F2-E2) / 60</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="34">
+      <c r="A3" s="43">
         <v>45579.0</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="36">
+      <c r="B3" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="45">
         <v>0.4791666666666667</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="45">
         <v>0.5555555555555556</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="42">
         <f t="shared" si="1"/>
         <v>1.833333333</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="37">
+      <c r="A4" s="46">
         <v>45579.0</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="32">
+      <c r="B4" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="41">
         <v>0.6041666666666666</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="41">
         <v>0.71875</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="42">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="34">
+      <c r="A5" s="43">
         <v>45581.0</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="36">
+      <c r="B5" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="45">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="45">
         <v>0.6770833333333334</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="42">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30">
+      <c r="A6" s="39">
         <v>45582.0</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="32">
+      <c r="B6" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="41">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="41">
         <v>0.5416666666666666</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="42">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="34">
+      <c r="A7" s="43">
         <v>45582.0</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="36">
+      <c r="B7" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="45">
         <v>0.5763888888888888</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="45">
         <v>0.625</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="42">
         <f t="shared" si="1"/>
         <v>1.166666667</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30">
+      <c r="A8" s="39">
         <v>45584.0</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="32">
+      <c r="B8" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="41">
         <v>0.75</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="41">
         <v>0.8125</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="42">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="34">
+      <c r="A9" s="43">
         <v>45586.0</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41">
+      <c r="B9" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30">
+      <c r="A10" s="39">
         <v>45589.0</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="32">
+      <c r="B10" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="41">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="41">
         <v>0.5833333333333334</v>
       </c>
-      <c r="G10" s="33">
-        <f t="shared" ref="G10:G25" si="2">HOUR(F10-E10) + MINUTE(F10-E10) / 60</f>
+      <c r="G10" s="42">
+        <f t="shared" ref="G10:G43" si="2">HOUR(F10-E10) + MINUTE(F10-E10) / 60</f>
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="34">
+      <c r="A11" s="43">
         <v>45589.0</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="B11" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="45">
         <v>0.625</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="45">
         <v>0.7361111111111112</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="42">
         <f t="shared" si="2"/>
         <v>2.666666667</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="30">
+      <c r="A12" s="39">
         <v>45591.0</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="32">
+      <c r="B12" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="41">
         <v>0.6875</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="41">
         <v>0.8125</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="42">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="34">
+      <c r="A13" s="43">
         <v>45595.0</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="36">
+      <c r="B13" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="45">
         <v>0.5</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="45">
         <v>0.5208333333333334</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="42">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="30">
+      <c r="A14" s="39">
         <v>45596.0</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="32">
+      <c r="B14" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="41">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="41">
         <v>0.75</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="42">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="34">
+      <c r="A15" s="43">
         <v>45597.0</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="36">
+      <c r="B15" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="45">
         <v>0.5</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="45">
         <v>0.6041666666666666</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="42">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="30">
+      <c r="A16" s="39">
         <v>45597.0</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43">
+      <c r="B16" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52">
         <v>0.625</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="52">
         <v>0.6944444444444444</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="53">
         <f t="shared" si="2"/>
         <v>1.666666667</v>
       </c>
-      <c r="H16" s="45"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17">
-      <c r="A17" s="46">
+      <c r="A17" s="55">
         <v>45598.0</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49">
+      <c r="B17" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58">
         <v>0.5</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="58">
         <v>0.6041666666666666</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="53">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="H17" s="50"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18">
-      <c r="A18" s="51">
+      <c r="A18" s="60">
         <v>45598.0</v>
       </c>
-      <c r="B18" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43">
+      <c r="B18" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52">
         <v>0.6354166666666666</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="52">
         <v>0.7673611111111112</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="53">
         <f t="shared" si="2"/>
         <v>3.166666667</v>
       </c>
-      <c r="H18" s="45"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19">
-      <c r="A19" s="34">
+      <c r="A19" s="43">
         <v>45603.0</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="53">
+      <c r="B19" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="62">
         <v>0.6041666666666666</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="62">
         <v>0.7395833333333334</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="53">
         <f t="shared" si="2"/>
         <v>3.25</v>
       </c>
-      <c r="H19" s="50"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20">
-      <c r="A20" s="51">
+      <c r="A20" s="60">
         <v>45603.0</v>
       </c>
-      <c r="B20" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="54">
+      <c r="B20" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="63">
         <v>0.7395833333333334</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="63">
         <v>0.7916666666666666</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="53">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
-      <c r="H20" s="45"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21">
-      <c r="A21" s="46">
+      <c r="A21" s="55">
         <v>45603.0</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="55">
+      <c r="B21" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="64">
         <v>0.8055555555555556</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="64">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="53">
         <f t="shared" si="2"/>
         <v>0.6666666667</v>
       </c>
-      <c r="H21" s="50"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22">
-      <c r="A22" s="30">
+      <c r="A22" s="39">
         <v>45608.0</v>
       </c>
-      <c r="B22" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="56">
+      <c r="B22" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="65">
         <v>0.59375</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="65">
         <v>0.65625</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="53">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="H22" s="45"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23">
-      <c r="A23" s="46">
+      <c r="A23" s="55">
         <v>45609.0</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="55">
+      <c r="B23" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="64">
         <v>0.5833333333333334</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="64">
         <v>0.8958333333333334</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="53">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24">
-      <c r="A24" s="51">
+      <c r="A24" s="60">
         <v>45610.0</v>
       </c>
-      <c r="B24" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="54">
+      <c r="B24" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="63">
         <v>0.6736111111111112</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="63">
         <v>0.6944444444444444</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="53">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="H24" s="45"/>
+      <c r="H24" s="54"/>
     </row>
     <row r="25">
-      <c r="A25" s="57">
+      <c r="A25" s="55">
         <v>45613.0</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60">
+      <c r="B25" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="64">
         <v>0.78125</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="64">
         <v>0.96875</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="53">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="H25" s="62"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26">
-      <c r="G26" s="63"/>
+      <c r="A26" s="60">
+        <v>45618.0</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="63">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="F26" s="63">
+        <v>0.46875</v>
+      </c>
+      <c r="G26" s="53">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="54"/>
     </row>
     <row r="27">
-      <c r="G27" s="63"/>
+      <c r="A27" s="55">
+        <v>45619.0</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="64">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F27" s="64">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="G27" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H27" s="59"/>
     </row>
     <row r="28">
-      <c r="G28" s="63"/>
+      <c r="A28" s="60">
+        <v>45626.0</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="51"/>
+      <c r="E28" s="63">
+        <v>0.5381944444444444</v>
+      </c>
+      <c r="F28" s="63">
+        <v>0.7326388888888888</v>
+      </c>
+      <c r="G28" s="53">
+        <f t="shared" si="2"/>
+        <v>4.666666667</v>
+      </c>
+      <c r="H28" s="54"/>
     </row>
     <row r="29">
-      <c r="G29" s="63"/>
+      <c r="A29" s="55">
+        <v>45627.0</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="64">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="F29" s="64">
+        <v>0.8659722222222223</v>
+      </c>
+      <c r="G29" s="53">
+        <f t="shared" si="2"/>
+        <v>1.533333333</v>
+      </c>
+      <c r="H29" s="59"/>
     </row>
     <row r="30">
-      <c r="G30" s="63"/>
+      <c r="A30" s="60">
+        <v>45628.0</v>
+      </c>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="63">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F30" s="63">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="G30" s="53">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="H30" s="54"/>
     </row>
     <row r="31">
-      <c r="G31" s="63"/>
+      <c r="A31" s="55">
+        <v>45628.0</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="64">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="F31" s="64">
+        <v>0.7229166666666667</v>
+      </c>
+      <c r="G31" s="53">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="59"/>
     </row>
     <row r="32">
-      <c r="G32" s="63"/>
+      <c r="A32" s="60">
+        <v>45630.0</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="63">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F32" s="63">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="G32" s="53">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="54"/>
     </row>
     <row r="33">
-      <c r="G33" s="63"/>
+      <c r="A33" s="55">
+        <v>45637.0</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="64">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="F33" s="64">
+        <v>0.65625</v>
+      </c>
+      <c r="G33" s="53">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="H33" s="59"/>
     </row>
     <row r="34">
-      <c r="G34" s="63"/>
+      <c r="A34" s="60">
+        <v>45638.0</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="51"/>
+      <c r="E34" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="F34" s="63">
+        <v>0.875</v>
+      </c>
+      <c r="G34" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H34" s="54"/>
     </row>
     <row r="35">
-      <c r="G35" s="63"/>
+      <c r="A35" s="55">
+        <v>45638.0</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="57"/>
+      <c r="E35" s="64">
+        <v>0.875</v>
+      </c>
+      <c r="F35" s="64">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="G35" s="53">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="H35" s="59"/>
     </row>
     <row r="36">
-      <c r="G36" s="63"/>
+      <c r="A36" s="60">
+        <v>45641.0</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="63">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F36" s="63">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="G36" s="53">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H36" s="54"/>
     </row>
     <row r="37">
-      <c r="G37" s="63"/>
+      <c r="A37" s="55">
+        <v>45643.0</v>
+      </c>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="57"/>
+      <c r="E37" s="64">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="F37" s="64">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="G37" s="53">
+        <f t="shared" si="2"/>
+        <v>1.666666667</v>
+      </c>
+      <c r="H37" s="59"/>
     </row>
     <row r="38">
-      <c r="G38" s="63"/>
+      <c r="A38" s="60">
+        <v>45643.0</v>
+      </c>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="63">
+        <v>0.8194444444444444</v>
+      </c>
+      <c r="F38" s="63">
+        <v>0.8625</v>
+      </c>
+      <c r="G38" s="53">
+        <f t="shared" si="2"/>
+        <v>1.033333333</v>
+      </c>
+      <c r="H38" s="54"/>
     </row>
     <row r="39">
-      <c r="G39" s="63"/>
+      <c r="A39" s="55">
+        <v>45645.0</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="57"/>
+      <c r="E39" s="64">
+        <v>0.46875</v>
+      </c>
+      <c r="F39" s="64">
+        <v>0.65625</v>
+      </c>
+      <c r="G39" s="53">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="H39" s="59"/>
     </row>
     <row r="40">
-      <c r="G40" s="63"/>
+      <c r="A40" s="60">
+        <v>45649.0</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="51"/>
+      <c r="E40" s="63">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="F40" s="63">
+        <v>0.625</v>
+      </c>
+      <c r="G40" s="53">
+        <f t="shared" si="2"/>
+        <v>2.833333333</v>
+      </c>
+      <c r="H40" s="54"/>
     </row>
     <row r="41">
-      <c r="G41" s="63"/>
+      <c r="A41" s="55">
+        <v>45657.0</v>
+      </c>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="57"/>
+      <c r="E41" s="64">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="F41" s="64">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="G41" s="53">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H41" s="59"/>
     </row>
     <row r="42">
-      <c r="G42" s="63"/>
+      <c r="A42" s="60">
+        <v>45293.0</v>
+      </c>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="51"/>
+      <c r="E42" s="63">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F42" s="63">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="G42" s="53">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H42" s="54"/>
     </row>
     <row r="43">
-      <c r="G43" s="63"/>
+      <c r="A43" s="66">
+        <v>45293.0</v>
+      </c>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="68"/>
+      <c r="E43" s="69">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="F43" s="69">
+        <v>0.8680555555555556</v>
+      </c>
+      <c r="G43" s="70">
+        <f t="shared" si="2"/>
+        <v>1.833333333</v>
+      </c>
+      <c r="H43" s="71"/>
     </row>
     <row r="44">
-      <c r="G44" s="63"/>
+      <c r="G44" s="72"/>
     </row>
     <row r="45">
-      <c r="G45" s="63"/>
+      <c r="G45" s="72"/>
     </row>
     <row r="46">
-      <c r="G46" s="63"/>
+      <c r="G46" s="72"/>
     </row>
     <row r="47">
-      <c r="G47" s="63"/>
+      <c r="G47" s="72"/>
     </row>
     <row r="48">
-      <c r="G48" s="63"/>
+      <c r="G48" s="72"/>
     </row>
     <row r="49">
-      <c r="G49" s="63"/>
+      <c r="G49" s="72"/>
     </row>
     <row r="50">
-      <c r="G50" s="63"/>
+      <c r="G50" s="72"/>
     </row>
     <row r="51">
-      <c r="G51" s="63"/>
+      <c r="G51" s="72"/>
     </row>
     <row r="52">
-      <c r="G52" s="63"/>
+      <c r="G52" s="72"/>
     </row>
     <row r="53">
-      <c r="G53" s="63"/>
+      <c r="G53" s="72"/>
     </row>
     <row r="54">
-      <c r="G54" s="63"/>
+      <c r="G54" s="72"/>
     </row>
     <row r="55">
-      <c r="G55" s="63"/>
+      <c r="G55" s="72"/>
     </row>
     <row r="56">
-      <c r="G56" s="63"/>
+      <c r="G56" s="72"/>
     </row>
     <row r="57">
-      <c r="G57" s="63"/>
+      <c r="G57" s="72"/>
     </row>
     <row r="58">
-      <c r="G58" s="63"/>
+      <c r="G58" s="72"/>
     </row>
     <row r="59">
-      <c r="G59" s="63"/>
+      <c r="G59" s="72"/>
     </row>
     <row r="60">
-      <c r="G60" s="63"/>
+      <c r="G60" s="72"/>
     </row>
     <row r="61">
-      <c r="G61" s="63"/>
+      <c r="G61" s="72"/>
     </row>
     <row r="62">
-      <c r="G62" s="63"/>
+      <c r="G62" s="72"/>
     </row>
     <row r="63">
-      <c r="G63" s="63"/>
+      <c r="G63" s="72"/>
     </row>
     <row r="64">
-      <c r="G64" s="63"/>
+      <c r="G64" s="72"/>
     </row>
     <row r="65">
-      <c r="G65" s="63"/>
+      <c r="G65" s="72"/>
     </row>
     <row r="66">
-      <c r="G66" s="63"/>
+      <c r="G66" s="72"/>
     </row>
     <row r="67">
-      <c r="G67" s="63"/>
+      <c r="G67" s="72"/>
     </row>
     <row r="68">
-      <c r="G68" s="63"/>
+      <c r="G68" s="72"/>
     </row>
     <row r="69">
-      <c r="G69" s="63"/>
+      <c r="G69" s="72"/>
     </row>
     <row r="70">
-      <c r="G70" s="63"/>
+      <c r="G70" s="72"/>
     </row>
     <row r="71">
-      <c r="G71" s="63"/>
+      <c r="G71" s="72"/>
     </row>
     <row r="72">
-      <c r="G72" s="63"/>
+      <c r="G72" s="72"/>
     </row>
     <row r="73">
-      <c r="G73" s="63"/>
+      <c r="G73" s="72"/>
     </row>
     <row r="74">
-      <c r="G74" s="63"/>
+      <c r="G74" s="72"/>
     </row>
     <row r="75">
-      <c r="G75" s="63"/>
+      <c r="G75" s="72"/>
     </row>
     <row r="76">
-      <c r="G76" s="63"/>
+      <c r="G76" s="72"/>
     </row>
     <row r="77">
-      <c r="G77" s="63"/>
+      <c r="G77" s="72"/>
     </row>
     <row r="78">
-      <c r="G78" s="63"/>
+      <c r="G78" s="72"/>
     </row>
     <row r="79">
-      <c r="G79" s="63"/>
+      <c r="G79" s="72"/>
     </row>
     <row r="80">
-      <c r="G80" s="63"/>
+      <c r="G80" s="72"/>
     </row>
     <row r="81">
-      <c r="G81" s="63"/>
+      <c r="G81" s="72"/>
     </row>
     <row r="82">
-      <c r="G82" s="63"/>
+      <c r="G82" s="72"/>
     </row>
     <row r="83">
-      <c r="G83" s="63"/>
+      <c r="G83" s="72"/>
     </row>
     <row r="84">
-      <c r="G84" s="63"/>
+      <c r="G84" s="72"/>
     </row>
     <row r="85">
-      <c r="G85" s="63"/>
+      <c r="G85" s="72"/>
     </row>
     <row r="86">
-      <c r="G86" s="63"/>
+      <c r="G86" s="72"/>
     </row>
     <row r="87">
-      <c r="G87" s="63"/>
+      <c r="G87" s="72"/>
     </row>
     <row r="88">
-      <c r="G88" s="63"/>
+      <c r="G88" s="72"/>
     </row>
     <row r="89">
-      <c r="G89" s="63"/>
+      <c r="G89" s="72"/>
     </row>
     <row r="90">
-      <c r="G90" s="63"/>
+      <c r="G90" s="72"/>
     </row>
     <row r="91">
-      <c r="G91" s="63"/>
+      <c r="G91" s="72"/>
     </row>
     <row r="92">
-      <c r="G92" s="63"/>
+      <c r="G92" s="72"/>
     </row>
     <row r="93">
-      <c r="G93" s="63"/>
+      <c r="G93" s="72"/>
     </row>
     <row r="94">
-      <c r="G94" s="63"/>
+      <c r="G94" s="72"/>
     </row>
     <row r="95">
-      <c r="G95" s="63"/>
+      <c r="G95" s="72"/>
     </row>
     <row r="96">
-      <c r="G96" s="63"/>
+      <c r="G96" s="72"/>
     </row>
     <row r="97">
-      <c r="G97" s="63"/>
+      <c r="G97" s="72"/>
     </row>
     <row r="98">
-      <c r="G98" s="63"/>
+      <c r="G98" s="72"/>
     </row>
     <row r="99">
-      <c r="G99" s="63"/>
+      <c r="G99" s="72"/>
     </row>
     <row r="100">
-      <c r="G100" s="63"/>
+      <c r="G100" s="72"/>
     </row>
     <row r="101">
-      <c r="G101" s="63"/>
+      <c r="G101" s="72"/>
     </row>
     <row r="102">
-      <c r="G102" s="63"/>
+      <c r="G102" s="72"/>
     </row>
     <row r="103">
-      <c r="G103" s="63"/>
+      <c r="G103" s="72"/>
     </row>
     <row r="104">
-      <c r="G104" s="63"/>
+      <c r="G104" s="72"/>
     </row>
     <row r="105">
-      <c r="G105" s="63"/>
+      <c r="G105" s="72"/>
     </row>
     <row r="106">
-      <c r="G106" s="63"/>
+      <c r="G106" s="72"/>
     </row>
     <row r="107">
-      <c r="G107" s="63"/>
+      <c r="G107" s="72"/>
     </row>
     <row r="108">
-      <c r="G108" s="63"/>
+      <c r="G108" s="72"/>
     </row>
     <row r="109">
-      <c r="G109" s="63"/>
+      <c r="G109" s="72"/>
     </row>
     <row r="110">
-      <c r="G110" s="63"/>
+      <c r="G110" s="72"/>
     </row>
     <row r="111">
-      <c r="G111" s="63"/>
+      <c r="G111" s="72"/>
     </row>
     <row r="112">
-      <c r="G112" s="63"/>
+      <c r="G112" s="72"/>
     </row>
     <row r="113">
-      <c r="G113" s="63"/>
+      <c r="G113" s="72"/>
     </row>
     <row r="114">
-      <c r="G114" s="63"/>
+      <c r="G114" s="72"/>
     </row>
     <row r="115">
-      <c r="G115" s="63"/>
+      <c r="G115" s="72"/>
     </row>
     <row r="116">
-      <c r="G116" s="63"/>
+      <c r="G116" s="72"/>
     </row>
     <row r="117">
-      <c r="G117" s="63"/>
+      <c r="G117" s="72"/>
     </row>
     <row r="118">
-      <c r="G118" s="63"/>
+      <c r="G118" s="72"/>
     </row>
     <row r="119">
-      <c r="G119" s="63"/>
+      <c r="G119" s="72"/>
     </row>
     <row r="120">
-      <c r="G120" s="63"/>
+      <c r="G120" s="72"/>
     </row>
     <row r="121">
-      <c r="G121" s="63"/>
+      <c r="G121" s="72"/>
     </row>
     <row r="122">
-      <c r="G122" s="63"/>
+      <c r="G122" s="72"/>
     </row>
     <row r="123">
-      <c r="G123" s="63"/>
+      <c r="G123" s="72"/>
     </row>
     <row r="124">
-      <c r="G124" s="63"/>
+      <c r="G124" s="72"/>
     </row>
     <row r="125">
-      <c r="G125" s="63"/>
+      <c r="G125" s="72"/>
     </row>
     <row r="126">
-      <c r="G126" s="63"/>
+      <c r="G126" s="72"/>
     </row>
     <row r="127">
-      <c r="G127" s="63"/>
+      <c r="G127" s="72"/>
     </row>
     <row r="128">
-      <c r="G128" s="63"/>
+      <c r="G128" s="72"/>
     </row>
     <row r="129">
-      <c r="G129" s="63"/>
+      <c r="G129" s="72"/>
     </row>
     <row r="130">
-      <c r="G130" s="63"/>
+      <c r="G130" s="72"/>
     </row>
     <row r="131">
-      <c r="G131" s="63"/>
+      <c r="G131" s="72"/>
     </row>
     <row r="132">
-      <c r="G132" s="63"/>
+      <c r="G132" s="72"/>
     </row>
     <row r="133">
-      <c r="G133" s="63"/>
+      <c r="G133" s="72"/>
     </row>
     <row r="134">
-      <c r="G134" s="63"/>
+      <c r="G134" s="72"/>
     </row>
     <row r="135">
-      <c r="G135" s="63"/>
+      <c r="G135" s="72"/>
     </row>
     <row r="136">
-      <c r="G136" s="63"/>
+      <c r="G136" s="72"/>
     </row>
     <row r="137">
-      <c r="G137" s="63"/>
+      <c r="G137" s="72"/>
     </row>
     <row r="138">
-      <c r="G138" s="63"/>
+      <c r="G138" s="72"/>
     </row>
     <row r="139">
-      <c r="G139" s="63"/>
+      <c r="G139" s="72"/>
     </row>
     <row r="140">
-      <c r="G140" s="63"/>
+      <c r="G140" s="72"/>
     </row>
     <row r="141">
-      <c r="G141" s="63"/>
+      <c r="G141" s="72"/>
     </row>
     <row r="142">
-      <c r="G142" s="63"/>
+      <c r="G142" s="72"/>
     </row>
     <row r="143">
-      <c r="G143" s="63"/>
+      <c r="G143" s="72"/>
     </row>
     <row r="144">
-      <c r="G144" s="63"/>
+      <c r="G144" s="72"/>
     </row>
     <row r="145">
-      <c r="G145" s="63"/>
+      <c r="G145" s="72"/>
     </row>
     <row r="146">
-      <c r="G146" s="63"/>
+      <c r="G146" s="72"/>
     </row>
     <row r="147">
-      <c r="G147" s="63"/>
+      <c r="G147" s="72"/>
     </row>
     <row r="148">
-      <c r="G148" s="63"/>
+      <c r="G148" s="72"/>
     </row>
     <row r="149">
-      <c r="G149" s="63"/>
+      <c r="G149" s="72"/>
     </row>
     <row r="150">
-      <c r="G150" s="63"/>
+      <c r="G150" s="72"/>
     </row>
     <row r="151">
-      <c r="G151" s="63"/>
+      <c r="G151" s="72"/>
     </row>
     <row r="152">
-      <c r="G152" s="63"/>
+      <c r="G152" s="72"/>
     </row>
     <row r="153">
-      <c r="G153" s="63"/>
+      <c r="G153" s="72"/>
     </row>
     <row r="154">
-      <c r="G154" s="63"/>
+      <c r="G154" s="72"/>
     </row>
     <row r="155">
-      <c r="G155" s="63"/>
+      <c r="G155" s="72"/>
     </row>
     <row r="156">
-      <c r="G156" s="63"/>
+      <c r="G156" s="72"/>
     </row>
     <row r="157">
-      <c r="G157" s="63"/>
+      <c r="G157" s="72"/>
     </row>
     <row r="158">
-      <c r="G158" s="63"/>
+      <c r="G158" s="72"/>
     </row>
     <row r="159">
-      <c r="G159" s="63"/>
+      <c r="G159" s="72"/>
     </row>
     <row r="160">
-      <c r="G160" s="63"/>
+      <c r="G160" s="72"/>
     </row>
     <row r="161">
-      <c r="G161" s="63"/>
+      <c r="G161" s="72"/>
     </row>
     <row r="162">
-      <c r="G162" s="63"/>
+      <c r="G162" s="72"/>
     </row>
     <row r="163">
-      <c r="G163" s="63"/>
+      <c r="G163" s="72"/>
     </row>
     <row r="164">
-      <c r="G164" s="63"/>
+      <c r="G164" s="72"/>
     </row>
     <row r="165">
-      <c r="G165" s="63"/>
+      <c r="G165" s="72"/>
     </row>
     <row r="166">
-      <c r="G166" s="63"/>
+      <c r="G166" s="72"/>
     </row>
     <row r="167">
-      <c r="G167" s="63"/>
+      <c r="G167" s="72"/>
     </row>
     <row r="168">
-      <c r="G168" s="63"/>
+      <c r="G168" s="72"/>
     </row>
     <row r="169">
-      <c r="G169" s="63"/>
+      <c r="G169" s="72"/>
     </row>
     <row r="170">
-      <c r="G170" s="63"/>
+      <c r="G170" s="72"/>
     </row>
     <row r="171">
-      <c r="G171" s="63"/>
+      <c r="G171" s="72"/>
     </row>
     <row r="172">
-      <c r="G172" s="63"/>
+      <c r="G172" s="72"/>
     </row>
     <row r="173">
-      <c r="G173" s="63"/>
+      <c r="G173" s="72"/>
     </row>
     <row r="174">
-      <c r="G174" s="63"/>
+      <c r="G174" s="72"/>
     </row>
     <row r="175">
-      <c r="G175" s="63"/>
+      <c r="G175" s="72"/>
     </row>
     <row r="176">
-      <c r="G176" s="63"/>
+      <c r="G176" s="72"/>
     </row>
     <row r="177">
-      <c r="G177" s="63"/>
+      <c r="G177" s="72"/>
     </row>
     <row r="178">
-      <c r="G178" s="63"/>
+      <c r="G178" s="72"/>
     </row>
     <row r="179">
-      <c r="G179" s="63"/>
+      <c r="G179" s="72"/>
     </row>
     <row r="180">
-      <c r="G180" s="63"/>
+      <c r="G180" s="72"/>
     </row>
     <row r="181">
-      <c r="G181" s="63"/>
+      <c r="G181" s="72"/>
     </row>
     <row r="182">
-      <c r="G182" s="63"/>
+      <c r="G182" s="72"/>
     </row>
     <row r="183">
-      <c r="G183" s="63"/>
+      <c r="G183" s="72"/>
     </row>
     <row r="184">
-      <c r="G184" s="63"/>
+      <c r="G184" s="72"/>
     </row>
     <row r="185">
-      <c r="G185" s="63"/>
+      <c r="G185" s="72"/>
     </row>
     <row r="186">
-      <c r="G186" s="63"/>
+      <c r="G186" s="72"/>
     </row>
     <row r="187">
-      <c r="G187" s="63"/>
+      <c r="G187" s="72"/>
     </row>
     <row r="188">
-      <c r="G188" s="63"/>
+      <c r="G188" s="72"/>
     </row>
     <row r="189">
-      <c r="G189" s="63"/>
+      <c r="G189" s="72"/>
     </row>
     <row r="190">
-      <c r="G190" s="63"/>
+      <c r="G190" s="72"/>
     </row>
     <row r="191">
-      <c r="G191" s="63"/>
+      <c r="G191" s="72"/>
     </row>
     <row r="192">
-      <c r="G192" s="63"/>
+      <c r="G192" s="72"/>
     </row>
     <row r="193">
-      <c r="G193" s="63"/>
+      <c r="G193" s="72"/>
     </row>
     <row r="194">
-      <c r="G194" s="63"/>
+      <c r="G194" s="72"/>
     </row>
     <row r="195">
-      <c r="G195" s="63"/>
+      <c r="G195" s="72"/>
     </row>
     <row r="196">
-      <c r="G196" s="63"/>
+      <c r="G196" s="72"/>
     </row>
     <row r="197">
-      <c r="G197" s="63"/>
+      <c r="G197" s="72"/>
     </row>
     <row r="198">
-      <c r="G198" s="63"/>
+      <c r="G198" s="72"/>
     </row>
     <row r="199">
-      <c r="G199" s="63"/>
+      <c r="G199" s="72"/>
     </row>
     <row r="200">
-      <c r="G200" s="63"/>
+      <c r="G200" s="72"/>
     </row>
     <row r="201">
-      <c r="G201" s="63"/>
+      <c r="G201" s="72"/>
     </row>
     <row r="202">
-      <c r="G202" s="63"/>
+      <c r="G202" s="72"/>
     </row>
     <row r="203">
-      <c r="G203" s="63"/>
+      <c r="G203" s="72"/>
     </row>
     <row r="204">
-      <c r="G204" s="63"/>
+      <c r="G204" s="72"/>
     </row>
     <row r="205">
-      <c r="G205" s="63"/>
+      <c r="G205" s="72"/>
     </row>
     <row r="206">
-      <c r="G206" s="63"/>
+      <c r="G206" s="72"/>
     </row>
     <row r="207">
-      <c r="G207" s="63"/>
+      <c r="G207" s="72"/>
     </row>
     <row r="208">
-      <c r="G208" s="63"/>
+      <c r="G208" s="72"/>
     </row>
     <row r="209">
-      <c r="G209" s="63"/>
+      <c r="G209" s="72"/>
     </row>
     <row r="210">
-      <c r="G210" s="63"/>
+      <c r="G210" s="72"/>
     </row>
     <row r="211">
-      <c r="G211" s="63"/>
+      <c r="G211" s="72"/>
     </row>
     <row r="212">
-      <c r="G212" s="63"/>
+      <c r="G212" s="72"/>
     </row>
     <row r="213">
-      <c r="G213" s="63"/>
+      <c r="G213" s="72"/>
     </row>
     <row r="214">
-      <c r="G214" s="63"/>
+      <c r="G214" s="72"/>
     </row>
     <row r="215">
-      <c r="G215" s="63"/>
+      <c r="G215" s="72"/>
     </row>
     <row r="216">
-      <c r="G216" s="63"/>
+      <c r="G216" s="72"/>
     </row>
     <row r="217">
-      <c r="G217" s="63"/>
+      <c r="G217" s="72"/>
     </row>
     <row r="218">
-      <c r="G218" s="63"/>
+      <c r="G218" s="72"/>
     </row>
     <row r="219">
-      <c r="G219" s="63"/>
+      <c r="G219" s="72"/>
     </row>
     <row r="220">
-      <c r="G220" s="63"/>
+      <c r="G220" s="72"/>
     </row>
     <row r="221">
-      <c r="G221" s="63"/>
+      <c r="G221" s="72"/>
     </row>
     <row r="222">
-      <c r="G222" s="63"/>
+      <c r="G222" s="72"/>
     </row>
     <row r="223">
-      <c r="G223" s="63"/>
+      <c r="G223" s="72"/>
     </row>
     <row r="224">
-      <c r="G224" s="63"/>
+      <c r="G224" s="72"/>
     </row>
     <row r="225">
-      <c r="G225" s="63"/>
+      <c r="G225" s="72"/>
     </row>
     <row r="226">
-      <c r="G226" s="63"/>
+      <c r="G226" s="72"/>
     </row>
     <row r="227">
-      <c r="G227" s="63"/>
+      <c r="G227" s="72"/>
     </row>
     <row r="228">
-      <c r="G228" s="63"/>
+      <c r="G228" s="72"/>
     </row>
     <row r="229">
-      <c r="G229" s="63"/>
+      <c r="G229" s="72"/>
     </row>
     <row r="230">
-      <c r="G230" s="63"/>
+      <c r="G230" s="72"/>
     </row>
     <row r="231">
-      <c r="G231" s="63"/>
+      <c r="G231" s="72"/>
     </row>
     <row r="232">
-      <c r="G232" s="63"/>
+      <c r="G232" s="72"/>
     </row>
     <row r="233">
-      <c r="G233" s="63"/>
+      <c r="G233" s="72"/>
     </row>
     <row r="234">
-      <c r="G234" s="63"/>
+      <c r="G234" s="72"/>
     </row>
     <row r="235">
-      <c r="G235" s="63"/>
+      <c r="G235" s="72"/>
     </row>
     <row r="236">
-      <c r="G236" s="63"/>
+      <c r="G236" s="72"/>
     </row>
     <row r="237">
-      <c r="G237" s="63"/>
+      <c r="G237" s="72"/>
     </row>
     <row r="238">
-      <c r="G238" s="63"/>
+      <c r="G238" s="72"/>
     </row>
     <row r="239">
-      <c r="G239" s="63"/>
+      <c r="G239" s="72"/>
     </row>
     <row r="240">
-      <c r="G240" s="63"/>
+      <c r="G240" s="72"/>
     </row>
     <row r="241">
-      <c r="G241" s="63"/>
+      <c r="G241" s="72"/>
     </row>
     <row r="242">
-      <c r="G242" s="63"/>
+      <c r="G242" s="72"/>
     </row>
     <row r="243">
-      <c r="G243" s="63"/>
+      <c r="G243" s="72"/>
     </row>
     <row r="244">
-      <c r="G244" s="63"/>
+      <c r="G244" s="72"/>
     </row>
     <row r="245">
-      <c r="G245" s="63"/>
+      <c r="G245" s="72"/>
     </row>
     <row r="246">
-      <c r="G246" s="63"/>
+      <c r="G246" s="72"/>
     </row>
     <row r="247">
-      <c r="G247" s="63"/>
+      <c r="G247" s="72"/>
     </row>
     <row r="248">
-      <c r="G248" s="63"/>
+      <c r="G248" s="72"/>
     </row>
     <row r="249">
-      <c r="G249" s="63"/>
+      <c r="G249" s="72"/>
     </row>
     <row r="250">
-      <c r="G250" s="63"/>
+      <c r="G250" s="72"/>
     </row>
     <row r="251">
-      <c r="G251" s="63"/>
+      <c r="G251" s="72"/>
     </row>
     <row r="252">
-      <c r="G252" s="63"/>
+      <c r="G252" s="72"/>
     </row>
     <row r="253">
-      <c r="G253" s="63"/>
+      <c r="G253" s="72"/>
     </row>
     <row r="254">
-      <c r="G254" s="63"/>
+      <c r="G254" s="72"/>
     </row>
     <row r="255">
-      <c r="G255" s="63"/>
+      <c r="G255" s="72"/>
     </row>
     <row r="256">
-      <c r="G256" s="63"/>
+      <c r="G256" s="72"/>
     </row>
     <row r="257">
-      <c r="G257" s="63"/>
+      <c r="G257" s="72"/>
     </row>
     <row r="258">
-      <c r="G258" s="63"/>
+      <c r="G258" s="72"/>
     </row>
     <row r="259">
-      <c r="G259" s="63"/>
+      <c r="G259" s="72"/>
     </row>
     <row r="260">
-      <c r="G260" s="63"/>
+      <c r="G260" s="72"/>
     </row>
     <row r="261">
-      <c r="G261" s="63"/>
+      <c r="G261" s="72"/>
     </row>
     <row r="262">
-      <c r="G262" s="63"/>
+      <c r="G262" s="72"/>
     </row>
     <row r="263">
-      <c r="G263" s="63"/>
+      <c r="G263" s="72"/>
     </row>
     <row r="264">
-      <c r="G264" s="63"/>
+      <c r="G264" s="72"/>
     </row>
     <row r="265">
-      <c r="G265" s="63"/>
+      <c r="G265" s="72"/>
     </row>
     <row r="266">
-      <c r="G266" s="63"/>
+      <c r="G266" s="72"/>
     </row>
     <row r="267">
-      <c r="G267" s="63"/>
+      <c r="G267" s="72"/>
     </row>
     <row r="268">
-      <c r="G268" s="63"/>
+      <c r="G268" s="72"/>
     </row>
     <row r="269">
-      <c r="G269" s="63"/>
+      <c r="G269" s="72"/>
     </row>
     <row r="270">
-      <c r="G270" s="63"/>
+      <c r="G270" s="72"/>
     </row>
     <row r="271">
-      <c r="G271" s="63"/>
+      <c r="G271" s="72"/>
     </row>
     <row r="272">
-      <c r="G272" s="63"/>
+      <c r="G272" s="72"/>
     </row>
     <row r="273">
-      <c r="G273" s="63"/>
+      <c r="G273" s="72"/>
     </row>
     <row r="274">
-      <c r="G274" s="63"/>
+      <c r="G274" s="72"/>
     </row>
     <row r="275">
-      <c r="G275" s="63"/>
+      <c r="G275" s="72"/>
     </row>
     <row r="276">
-      <c r="G276" s="63"/>
+      <c r="G276" s="72"/>
     </row>
     <row r="277">
-      <c r="G277" s="63"/>
+      <c r="G277" s="72"/>
     </row>
     <row r="278">
-      <c r="G278" s="63"/>
+      <c r="G278" s="72"/>
     </row>
     <row r="279">
-      <c r="G279" s="63"/>
+      <c r="G279" s="72"/>
     </row>
     <row r="280">
-      <c r="G280" s="63"/>
+      <c r="G280" s="72"/>
     </row>
     <row r="281">
-      <c r="G281" s="63"/>
+      <c r="G281" s="72"/>
     </row>
     <row r="282">
-      <c r="G282" s="63"/>
+      <c r="G282" s="72"/>
     </row>
     <row r="283">
-      <c r="G283" s="63"/>
+      <c r="G283" s="72"/>
     </row>
     <row r="284">
-      <c r="G284" s="63"/>
+      <c r="G284" s="72"/>
     </row>
     <row r="285">
-      <c r="G285" s="63"/>
+      <c r="G285" s="72"/>
     </row>
     <row r="286">
-      <c r="G286" s="63"/>
+      <c r="G286" s="72"/>
     </row>
     <row r="287">
-      <c r="G287" s="63"/>
+      <c r="G287" s="72"/>
     </row>
     <row r="288">
-      <c r="G288" s="63"/>
+      <c r="G288" s="72"/>
     </row>
     <row r="289">
-      <c r="G289" s="63"/>
+      <c r="G289" s="72"/>
     </row>
     <row r="290">
-      <c r="G290" s="63"/>
+      <c r="G290" s="72"/>
     </row>
     <row r="291">
-      <c r="G291" s="63"/>
+      <c r="G291" s="72"/>
     </row>
     <row r="292">
-      <c r="G292" s="63"/>
+      <c r="G292" s="72"/>
     </row>
     <row r="293">
-      <c r="G293" s="63"/>
+      <c r="G293" s="72"/>
     </row>
     <row r="294">
-      <c r="G294" s="63"/>
+      <c r="G294" s="72"/>
     </row>
     <row r="295">
-      <c r="G295" s="63"/>
+      <c r="G295" s="72"/>
     </row>
     <row r="296">
-      <c r="G296" s="63"/>
+      <c r="G296" s="72"/>
     </row>
     <row r="297">
-      <c r="G297" s="63"/>
+      <c r="G297" s="72"/>
     </row>
     <row r="298">
-      <c r="G298" s="63"/>
+      <c r="G298" s="72"/>
     </row>
     <row r="299">
-      <c r="G299" s="63"/>
+      <c r="G299" s="72"/>
     </row>
     <row r="300">
-      <c r="G300" s="63"/>
+      <c r="G300" s="72"/>
     </row>
     <row r="301">
-      <c r="G301" s="63"/>
+      <c r="G301" s="72"/>
     </row>
     <row r="302">
-      <c r="G302" s="63"/>
+      <c r="G302" s="72"/>
     </row>
     <row r="303">
-      <c r="G303" s="63"/>
+      <c r="G303" s="72"/>
     </row>
     <row r="304">
-      <c r="G304" s="63"/>
+      <c r="G304" s="72"/>
     </row>
     <row r="305">
-      <c r="G305" s="63"/>
+      <c r="G305" s="72"/>
     </row>
     <row r="306">
-      <c r="G306" s="63"/>
+      <c r="G306" s="72"/>
     </row>
     <row r="307">
-      <c r="G307" s="63"/>
+      <c r="G307" s="72"/>
     </row>
     <row r="308">
-      <c r="G308" s="63"/>
+      <c r="G308" s="72"/>
     </row>
     <row r="309">
-      <c r="G309" s="63"/>
+      <c r="G309" s="72"/>
     </row>
     <row r="310">
-      <c r="G310" s="63"/>
+      <c r="G310" s="72"/>
     </row>
     <row r="311">
-      <c r="G311" s="63"/>
+      <c r="G311" s="72"/>
     </row>
     <row r="312">
-      <c r="G312" s="63"/>
+      <c r="G312" s="72"/>
     </row>
     <row r="313">
-      <c r="G313" s="63"/>
+      <c r="G313" s="72"/>
     </row>
     <row r="314">
-      <c r="G314" s="63"/>
+      <c r="G314" s="72"/>
     </row>
     <row r="315">
-      <c r="G315" s="63"/>
+      <c r="G315" s="72"/>
     </row>
     <row r="316">
-      <c r="G316" s="63"/>
+      <c r="G316" s="72"/>
     </row>
     <row r="317">
-      <c r="G317" s="63"/>
+      <c r="G317" s="72"/>
     </row>
     <row r="318">
-      <c r="G318" s="63"/>
+      <c r="G318" s="72"/>
     </row>
     <row r="319">
-      <c r="G319" s="63"/>
+      <c r="G319" s="72"/>
     </row>
     <row r="320">
-      <c r="G320" s="63"/>
+      <c r="G320" s="72"/>
     </row>
     <row r="321">
-      <c r="G321" s="63"/>
+      <c r="G321" s="72"/>
     </row>
     <row r="322">
-      <c r="G322" s="63"/>
+      <c r="G322" s="72"/>
     </row>
     <row r="323">
-      <c r="G323" s="63"/>
+      <c r="G323" s="72"/>
     </row>
     <row r="324">
-      <c r="G324" s="63"/>
+      <c r="G324" s="72"/>
     </row>
     <row r="325">
-      <c r="G325" s="63"/>
+      <c r="G325" s="72"/>
     </row>
     <row r="326">
-      <c r="G326" s="63"/>
+      <c r="G326" s="72"/>
     </row>
     <row r="327">
-      <c r="G327" s="63"/>
+      <c r="G327" s="72"/>
     </row>
     <row r="328">
-      <c r="G328" s="63"/>
+      <c r="G328" s="72"/>
     </row>
     <row r="329">
-      <c r="G329" s="63"/>
+      <c r="G329" s="72"/>
     </row>
     <row r="330">
-      <c r="G330" s="63"/>
+      <c r="G330" s="72"/>
     </row>
     <row r="331">
-      <c r="G331" s="63"/>
+      <c r="G331" s="72"/>
     </row>
     <row r="332">
-      <c r="G332" s="63"/>
+      <c r="G332" s="72"/>
     </row>
     <row r="333">
-      <c r="G333" s="63"/>
+      <c r="G333" s="72"/>
     </row>
     <row r="334">
-      <c r="G334" s="63"/>
+      <c r="G334" s="72"/>
     </row>
     <row r="335">
-      <c r="G335" s="63"/>
+      <c r="G335" s="72"/>
     </row>
     <row r="336">
-      <c r="G336" s="63"/>
+      <c r="G336" s="72"/>
     </row>
     <row r="337">
-      <c r="G337" s="63"/>
+      <c r="G337" s="72"/>
     </row>
     <row r="338">
-      <c r="G338" s="63"/>
+      <c r="G338" s="72"/>
     </row>
     <row r="339">
-      <c r="G339" s="63"/>
+      <c r="G339" s="72"/>
     </row>
     <row r="340">
-      <c r="G340" s="63"/>
+      <c r="G340" s="72"/>
     </row>
     <row r="341">
-      <c r="G341" s="63"/>
+      <c r="G341" s="72"/>
     </row>
     <row r="342">
-      <c r="G342" s="63"/>
+      <c r="G342" s="72"/>
     </row>
     <row r="343">
-      <c r="G343" s="63"/>
+      <c r="G343" s="72"/>
     </row>
     <row r="344">
-      <c r="G344" s="63"/>
+      <c r="G344" s="72"/>
     </row>
     <row r="345">
-      <c r="G345" s="63"/>
+      <c r="G345" s="72"/>
     </row>
     <row r="346">
-      <c r="G346" s="63"/>
+      <c r="G346" s="72"/>
     </row>
     <row r="347">
-      <c r="G347" s="63"/>
+      <c r="G347" s="72"/>
     </row>
     <row r="348">
-      <c r="G348" s="63"/>
+      <c r="G348" s="72"/>
     </row>
     <row r="349">
-      <c r="G349" s="63"/>
+      <c r="G349" s="72"/>
     </row>
     <row r="350">
-      <c r="G350" s="63"/>
+      <c r="G350" s="72"/>
     </row>
     <row r="351">
-      <c r="G351" s="63"/>
+      <c r="G351" s="72"/>
     </row>
     <row r="352">
-      <c r="G352" s="63"/>
+      <c r="G352" s="72"/>
     </row>
     <row r="353">
-      <c r="G353" s="63"/>
+      <c r="G353" s="72"/>
     </row>
     <row r="354">
-      <c r="G354" s="63"/>
+      <c r="G354" s="72"/>
     </row>
     <row r="355">
-      <c r="G355" s="63"/>
+      <c r="G355" s="72"/>
     </row>
     <row r="356">
-      <c r="G356" s="63"/>
+      <c r="G356" s="72"/>
     </row>
     <row r="357">
-      <c r="G357" s="63"/>
+      <c r="G357" s="72"/>
     </row>
     <row r="358">
-      <c r="G358" s="63"/>
+      <c r="G358" s="72"/>
     </row>
     <row r="359">
-      <c r="G359" s="63"/>
+      <c r="G359" s="72"/>
     </row>
     <row r="360">
-      <c r="G360" s="63"/>
+      <c r="G360" s="72"/>
     </row>
     <row r="361">
-      <c r="G361" s="63"/>
+      <c r="G361" s="72"/>
     </row>
     <row r="362">
-      <c r="G362" s="63"/>
+      <c r="G362" s="72"/>
     </row>
     <row r="363">
-      <c r="G363" s="63"/>
+      <c r="G363" s="72"/>
     </row>
     <row r="364">
-      <c r="G364" s="63"/>
+      <c r="G364" s="72"/>
     </row>
     <row r="365">
-      <c r="G365" s="63"/>
+      <c r="G365" s="72"/>
     </row>
     <row r="366">
-      <c r="G366" s="63"/>
+      <c r="G366" s="72"/>
     </row>
     <row r="367">
-      <c r="G367" s="63"/>
+      <c r="G367" s="72"/>
     </row>
     <row r="368">
-      <c r="G368" s="63"/>
+      <c r="G368" s="72"/>
     </row>
     <row r="369">
-      <c r="G369" s="63"/>
+      <c r="G369" s="72"/>
     </row>
     <row r="370">
-      <c r="G370" s="63"/>
+      <c r="G370" s="72"/>
     </row>
     <row r="371">
-      <c r="G371" s="63"/>
+      <c r="G371" s="72"/>
     </row>
     <row r="372">
-      <c r="G372" s="63"/>
+      <c r="G372" s="72"/>
     </row>
     <row r="373">
-      <c r="G373" s="63"/>
+      <c r="G373" s="72"/>
     </row>
     <row r="374">
-      <c r="G374" s="63"/>
+      <c r="G374" s="72"/>
     </row>
     <row r="375">
-      <c r="G375" s="63"/>
+      <c r="G375" s="72"/>
     </row>
     <row r="376">
-      <c r="G376" s="63"/>
+      <c r="G376" s="72"/>
     </row>
     <row r="377">
-      <c r="G377" s="63"/>
+      <c r="G377" s="72"/>
     </row>
     <row r="378">
-      <c r="G378" s="63"/>
+      <c r="G378" s="72"/>
     </row>
     <row r="379">
-      <c r="G379" s="63"/>
+      <c r="G379" s="72"/>
     </row>
     <row r="380">
-      <c r="G380" s="63"/>
+      <c r="G380" s="72"/>
     </row>
     <row r="381">
-      <c r="G381" s="63"/>
+      <c r="G381" s="72"/>
     </row>
     <row r="382">
-      <c r="G382" s="63"/>
+      <c r="G382" s="72"/>
     </row>
     <row r="383">
-      <c r="G383" s="63"/>
+      <c r="G383" s="72"/>
     </row>
     <row r="384">
-      <c r="G384" s="63"/>
+      <c r="G384" s="72"/>
     </row>
     <row r="385">
-      <c r="G385" s="63"/>
+      <c r="G385" s="72"/>
     </row>
     <row r="386">
-      <c r="G386" s="63"/>
+      <c r="G386" s="72"/>
     </row>
     <row r="387">
-      <c r="G387" s="63"/>
+      <c r="G387" s="72"/>
     </row>
     <row r="388">
-      <c r="G388" s="63"/>
+      <c r="G388" s="72"/>
     </row>
     <row r="389">
-      <c r="G389" s="63"/>
+      <c r="G389" s="72"/>
     </row>
     <row r="390">
-      <c r="G390" s="63"/>
+      <c r="G390" s="72"/>
     </row>
     <row r="391">
-      <c r="G391" s="63"/>
+      <c r="G391" s="72"/>
     </row>
     <row r="392">
-      <c r="G392" s="63"/>
+      <c r="G392" s="72"/>
     </row>
     <row r="393">
-      <c r="G393" s="63"/>
+      <c r="G393" s="72"/>
     </row>
     <row r="394">
-      <c r="G394" s="63"/>
+      <c r="G394" s="72"/>
     </row>
     <row r="395">
-      <c r="G395" s="63"/>
+      <c r="G395" s="72"/>
     </row>
     <row r="396">
-      <c r="G396" s="63"/>
+      <c r="G396" s="72"/>
     </row>
     <row r="397">
-      <c r="G397" s="63"/>
+      <c r="G397" s="72"/>
     </row>
     <row r="398">
-      <c r="G398" s="63"/>
+      <c r="G398" s="72"/>
     </row>
     <row r="399">
-      <c r="G399" s="63"/>
+      <c r="G399" s="72"/>
     </row>
     <row r="400">
-      <c r="G400" s="63"/>
+      <c r="G400" s="72"/>
     </row>
     <row r="401">
-      <c r="G401" s="63"/>
+      <c r="G401" s="72"/>
     </row>
     <row r="402">
-      <c r="G402" s="63"/>
+      <c r="G402" s="72"/>
     </row>
     <row r="403">
-      <c r="G403" s="63"/>
+      <c r="G403" s="72"/>
     </row>
     <row r="404">
-      <c r="G404" s="63"/>
+      <c r="G404" s="72"/>
     </row>
     <row r="405">
-      <c r="G405" s="63"/>
+      <c r="G405" s="72"/>
     </row>
     <row r="406">
-      <c r="G406" s="63"/>
+      <c r="G406" s="72"/>
     </row>
     <row r="407">
-      <c r="G407" s="63"/>
+      <c r="G407" s="72"/>
     </row>
     <row r="408">
-      <c r="G408" s="63"/>
+      <c r="G408" s="72"/>
     </row>
     <row r="409">
-      <c r="G409" s="63"/>
+      <c r="G409" s="72"/>
     </row>
     <row r="410">
-      <c r="G410" s="63"/>
+      <c r="G410" s="72"/>
     </row>
     <row r="411">
-      <c r="G411" s="63"/>
+      <c r="G411" s="72"/>
     </row>
     <row r="412">
-      <c r="G412" s="63"/>
+      <c r="G412" s="72"/>
     </row>
     <row r="413">
-      <c r="G413" s="63"/>
+      <c r="G413" s="72"/>
     </row>
     <row r="414">
-      <c r="G414" s="63"/>
+      <c r="G414" s="72"/>
     </row>
     <row r="415">
-      <c r="G415" s="63"/>
+      <c r="G415" s="72"/>
     </row>
     <row r="416">
-      <c r="G416" s="63"/>
+      <c r="G416" s="72"/>
     </row>
     <row r="417">
-      <c r="G417" s="63"/>
+      <c r="G417" s="72"/>
     </row>
     <row r="418">
-      <c r="G418" s="63"/>
+      <c r="G418" s="72"/>
     </row>
     <row r="419">
-      <c r="G419" s="63"/>
+      <c r="G419" s="72"/>
     </row>
     <row r="420">
-      <c r="G420" s="63"/>
+      <c r="G420" s="72"/>
     </row>
     <row r="421">
-      <c r="G421" s="63"/>
+      <c r="G421" s="72"/>
     </row>
     <row r="422">
-      <c r="G422" s="63"/>
+      <c r="G422" s="72"/>
     </row>
     <row r="423">
-      <c r="G423" s="63"/>
+      <c r="G423" s="72"/>
     </row>
     <row r="424">
-      <c r="G424" s="63"/>
+      <c r="G424" s="72"/>
     </row>
     <row r="425">
-      <c r="G425" s="63"/>
+      <c r="G425" s="72"/>
     </row>
     <row r="426">
-      <c r="G426" s="63"/>
+      <c r="G426" s="72"/>
     </row>
     <row r="427">
-      <c r="G427" s="63"/>
+      <c r="G427" s="72"/>
     </row>
     <row r="428">
-      <c r="G428" s="63"/>
+      <c r="G428" s="72"/>
     </row>
     <row r="429">
-      <c r="G429" s="63"/>
+      <c r="G429" s="72"/>
     </row>
     <row r="430">
-      <c r="G430" s="63"/>
+      <c r="G430" s="72"/>
     </row>
     <row r="431">
-      <c r="G431" s="63"/>
+      <c r="G431" s="72"/>
     </row>
     <row r="432">
-      <c r="G432" s="63"/>
+      <c r="G432" s="72"/>
     </row>
     <row r="433">
-      <c r="G433" s="63"/>
+      <c r="G433" s="72"/>
     </row>
     <row r="434">
-      <c r="G434" s="63"/>
+      <c r="G434" s="72"/>
     </row>
     <row r="435">
-      <c r="G435" s="63"/>
+      <c r="G435" s="72"/>
     </row>
     <row r="436">
-      <c r="G436" s="63"/>
+      <c r="G436" s="72"/>
     </row>
     <row r="437">
-      <c r="G437" s="63"/>
+      <c r="G437" s="72"/>
     </row>
     <row r="438">
-      <c r="G438" s="63"/>
+      <c r="G438" s="72"/>
     </row>
     <row r="439">
-      <c r="G439" s="63"/>
+      <c r="G439" s="72"/>
     </row>
     <row r="440">
-      <c r="G440" s="63"/>
+      <c r="G440" s="72"/>
     </row>
     <row r="441">
-      <c r="G441" s="63"/>
+      <c r="G441" s="72"/>
     </row>
     <row r="442">
-      <c r="G442" s="63"/>
+      <c r="G442" s="72"/>
     </row>
     <row r="443">
-      <c r="G443" s="63"/>
+      <c r="G443" s="72"/>
     </row>
     <row r="444">
-      <c r="G444" s="63"/>
+      <c r="G444" s="72"/>
     </row>
     <row r="445">
-      <c r="G445" s="63"/>
+      <c r="G445" s="72"/>
     </row>
     <row r="446">
-      <c r="G446" s="63"/>
+      <c r="G446" s="72"/>
     </row>
     <row r="447">
-      <c r="G447" s="63"/>
+      <c r="G447" s="72"/>
     </row>
     <row r="448">
-      <c r="G448" s="63"/>
+      <c r="G448" s="72"/>
     </row>
     <row r="449">
-      <c r="G449" s="63"/>
+      <c r="G449" s="72"/>
     </row>
     <row r="450">
-      <c r="G450" s="63"/>
+      <c r="G450" s="72"/>
     </row>
     <row r="451">
-      <c r="G451" s="63"/>
+      <c r="G451" s="72"/>
     </row>
     <row r="452">
-      <c r="G452" s="63"/>
+      <c r="G452" s="72"/>
     </row>
     <row r="453">
-      <c r="G453" s="63"/>
+      <c r="G453" s="72"/>
     </row>
     <row r="454">
-      <c r="G454" s="63"/>
+      <c r="G454" s="72"/>
     </row>
     <row r="455">
-      <c r="G455" s="63"/>
+      <c r="G455" s="72"/>
     </row>
     <row r="456">
-      <c r="G456" s="63"/>
+      <c r="G456" s="72"/>
     </row>
     <row r="457">
-      <c r="G457" s="63"/>
+      <c r="G457" s="72"/>
     </row>
     <row r="458">
-      <c r="G458" s="63"/>
+      <c r="G458" s="72"/>
     </row>
     <row r="459">
-      <c r="G459" s="63"/>
+      <c r="G459" s="72"/>
     </row>
     <row r="460">
-      <c r="G460" s="63"/>
+      <c r="G460" s="72"/>
     </row>
     <row r="461">
-      <c r="G461" s="63"/>
+      <c r="G461" s="72"/>
     </row>
     <row r="462">
-      <c r="G462" s="63"/>
+      <c r="G462" s="72"/>
     </row>
     <row r="463">
-      <c r="G463" s="63"/>
+      <c r="G463" s="72"/>
     </row>
     <row r="464">
-      <c r="G464" s="63"/>
+      <c r="G464" s="72"/>
     </row>
     <row r="465">
-      <c r="G465" s="63"/>
+      <c r="G465" s="72"/>
     </row>
     <row r="466">
-      <c r="G466" s="63"/>
+      <c r="G466" s="72"/>
     </row>
     <row r="467">
-      <c r="G467" s="63"/>
+      <c r="G467" s="72"/>
     </row>
     <row r="468">
-      <c r="G468" s="63"/>
+      <c r="G468" s="72"/>
     </row>
     <row r="469">
-      <c r="G469" s="63"/>
+      <c r="G469" s="72"/>
     </row>
     <row r="470">
-      <c r="G470" s="63"/>
+      <c r="G470" s="72"/>
     </row>
     <row r="471">
-      <c r="G471" s="63"/>
+      <c r="G471" s="72"/>
     </row>
     <row r="472">
-      <c r="G472" s="63"/>
+      <c r="G472" s="72"/>
     </row>
     <row r="473">
-      <c r="G473" s="63"/>
+      <c r="G473" s="72"/>
     </row>
     <row r="474">
-      <c r="G474" s="63"/>
+      <c r="G474" s="72"/>
     </row>
     <row r="475">
-      <c r="G475" s="63"/>
+      <c r="G475" s="72"/>
     </row>
     <row r="476">
-      <c r="G476" s="63"/>
+      <c r="G476" s="72"/>
     </row>
     <row r="477">
-      <c r="G477" s="63"/>
+      <c r="G477" s="72"/>
     </row>
     <row r="478">
-      <c r="G478" s="63"/>
+      <c r="G478" s="72"/>
     </row>
     <row r="479">
-      <c r="G479" s="63"/>
+      <c r="G479" s="72"/>
     </row>
     <row r="480">
-      <c r="G480" s="63"/>
+      <c r="G480" s="72"/>
     </row>
     <row r="481">
-      <c r="G481" s="63"/>
+      <c r="G481" s="72"/>
     </row>
     <row r="482">
-      <c r="G482" s="63"/>
+      <c r="G482" s="72"/>
     </row>
     <row r="483">
-      <c r="G483" s="63"/>
+      <c r="G483" s="72"/>
     </row>
     <row r="484">
-      <c r="G484" s="63"/>
+      <c r="G484" s="72"/>
     </row>
     <row r="485">
-      <c r="G485" s="63"/>
+      <c r="G485" s="72"/>
     </row>
     <row r="486">
-      <c r="G486" s="63"/>
+      <c r="G486" s="72"/>
     </row>
     <row r="487">
-      <c r="G487" s="63"/>
+      <c r="G487" s="72"/>
     </row>
     <row r="488">
-      <c r="G488" s="63"/>
+      <c r="G488" s="72"/>
     </row>
     <row r="489">
-      <c r="G489" s="63"/>
+      <c r="G489" s="72"/>
     </row>
     <row r="490">
-      <c r="G490" s="63"/>
+      <c r="G490" s="72"/>
     </row>
     <row r="491">
-      <c r="G491" s="63"/>
+      <c r="G491" s="72"/>
     </row>
     <row r="492">
-      <c r="G492" s="63"/>
+      <c r="G492" s="72"/>
     </row>
     <row r="493">
-      <c r="G493" s="63"/>
+      <c r="G493" s="72"/>
     </row>
     <row r="494">
-      <c r="G494" s="63"/>
+      <c r="G494" s="72"/>
     </row>
     <row r="495">
-      <c r="G495" s="63"/>
+      <c r="G495" s="72"/>
     </row>
     <row r="496">
-      <c r="G496" s="63"/>
+      <c r="G496" s="72"/>
     </row>
     <row r="497">
-      <c r="G497" s="63"/>
+      <c r="G497" s="72"/>
     </row>
     <row r="498">
-      <c r="G498" s="63"/>
+      <c r="G498" s="72"/>
     </row>
     <row r="499">
-      <c r="G499" s="63"/>
+      <c r="G499" s="72"/>
     </row>
     <row r="500">
-      <c r="G500" s="63"/>
+      <c r="G500" s="72"/>
     </row>
     <row r="501">
-      <c r="G501" s="63"/>
+      <c r="G501" s="72"/>
     </row>
     <row r="502">
-      <c r="G502" s="63"/>
+      <c r="G502" s="72"/>
     </row>
     <row r="503">
-      <c r="G503" s="63"/>
+      <c r="G503" s="72"/>
     </row>
     <row r="504">
-      <c r="G504" s="63"/>
+      <c r="G504" s="72"/>
     </row>
     <row r="505">
-      <c r="G505" s="63"/>
+      <c r="G505" s="72"/>
     </row>
     <row r="506">
-      <c r="G506" s="63"/>
+      <c r="G506" s="72"/>
     </row>
     <row r="507">
-      <c r="G507" s="63"/>
+      <c r="G507" s="72"/>
     </row>
     <row r="508">
-      <c r="G508" s="63"/>
+      <c r="G508" s="72"/>
     </row>
     <row r="509">
-      <c r="G509" s="63"/>
+      <c r="G509" s="72"/>
     </row>
     <row r="510">
-      <c r="G510" s="63"/>
+      <c r="G510" s="72"/>
     </row>
     <row r="511">
-      <c r="G511" s="63"/>
+      <c r="G511" s="72"/>
     </row>
     <row r="512">
-      <c r="G512" s="63"/>
+      <c r="G512" s="72"/>
     </row>
     <row r="513">
-      <c r="G513" s="63"/>
+      <c r="G513" s="72"/>
     </row>
     <row r="514">
-      <c r="G514" s="63"/>
+      <c r="G514" s="72"/>
     </row>
     <row r="515">
-      <c r="G515" s="63"/>
+      <c r="G515" s="72"/>
     </row>
     <row r="516">
-      <c r="G516" s="63"/>
+      <c r="G516" s="72"/>
     </row>
     <row r="517">
-      <c r="G517" s="63"/>
+      <c r="G517" s="72"/>
     </row>
     <row r="518">
-      <c r="G518" s="63"/>
+      <c r="G518" s="72"/>
     </row>
     <row r="519">
-      <c r="G519" s="63"/>
+      <c r="G519" s="72"/>
     </row>
     <row r="520">
-      <c r="G520" s="63"/>
+      <c r="G520" s="72"/>
     </row>
     <row r="521">
-      <c r="G521" s="63"/>
+      <c r="G521" s="72"/>
     </row>
     <row r="522">
-      <c r="G522" s="63"/>
+      <c r="G522" s="72"/>
     </row>
     <row r="523">
-      <c r="G523" s="63"/>
+      <c r="G523" s="72"/>
     </row>
     <row r="524">
-      <c r="G524" s="63"/>
+      <c r="G524" s="72"/>
     </row>
     <row r="525">
-      <c r="G525" s="63"/>
+      <c r="G525" s="72"/>
     </row>
     <row r="526">
-      <c r="G526" s="63"/>
+      <c r="G526" s="72"/>
     </row>
     <row r="527">
-      <c r="G527" s="63"/>
+      <c r="G527" s="72"/>
     </row>
     <row r="528">
-      <c r="G528" s="63"/>
+      <c r="G528" s="72"/>
     </row>
     <row r="529">
-      <c r="G529" s="63"/>
+      <c r="G529" s="72"/>
     </row>
     <row r="530">
-      <c r="G530" s="63"/>
+      <c r="G530" s="72"/>
     </row>
     <row r="531">
-      <c r="G531" s="63"/>
+      <c r="G531" s="72"/>
     </row>
     <row r="532">
-      <c r="G532" s="63"/>
+      <c r="G532" s="72"/>
     </row>
     <row r="533">
-      <c r="G533" s="63"/>
+      <c r="G533" s="72"/>
     </row>
     <row r="534">
-      <c r="G534" s="63"/>
+      <c r="G534" s="72"/>
     </row>
     <row r="535">
-      <c r="G535" s="63"/>
+      <c r="G535" s="72"/>
     </row>
     <row r="536">
-      <c r="G536" s="63"/>
+      <c r="G536" s="72"/>
     </row>
     <row r="537">
-      <c r="G537" s="63"/>
+      <c r="G537" s="72"/>
     </row>
     <row r="538">
-      <c r="G538" s="63"/>
+      <c r="G538" s="72"/>
     </row>
     <row r="539">
-      <c r="G539" s="63"/>
+      <c r="G539" s="72"/>
     </row>
     <row r="540">
-      <c r="G540" s="63"/>
+      <c r="G540" s="72"/>
     </row>
     <row r="541">
-      <c r="G541" s="63"/>
+      <c r="G541" s="72"/>
     </row>
     <row r="542">
-      <c r="G542" s="63"/>
+      <c r="G542" s="72"/>
     </row>
     <row r="543">
-      <c r="G543" s="63"/>
+      <c r="G543" s="72"/>
     </row>
     <row r="544">
-      <c r="G544" s="63"/>
+      <c r="G544" s="72"/>
     </row>
     <row r="545">
-      <c r="G545" s="63"/>
+      <c r="G545" s="72"/>
     </row>
     <row r="546">
-      <c r="G546" s="63"/>
+      <c r="G546" s="72"/>
     </row>
     <row r="547">
-      <c r="G547" s="63"/>
+      <c r="G547" s="72"/>
     </row>
     <row r="548">
-      <c r="G548" s="63"/>
+      <c r="G548" s="72"/>
     </row>
     <row r="549">
-      <c r="G549" s="63"/>
+      <c r="G549" s="72"/>
     </row>
     <row r="550">
-      <c r="G550" s="63"/>
+      <c r="G550" s="72"/>
     </row>
     <row r="551">
-      <c r="G551" s="63"/>
+      <c r="G551" s="72"/>
     </row>
     <row r="552">
-      <c r="G552" s="63"/>
+      <c r="G552" s="72"/>
     </row>
     <row r="553">
-      <c r="G553" s="63"/>
+      <c r="G553" s="72"/>
     </row>
     <row r="554">
-      <c r="G554" s="63"/>
+      <c r="G554" s="72"/>
     </row>
     <row r="555">
-      <c r="G555" s="63"/>
+      <c r="G555" s="72"/>
     </row>
     <row r="556">
-      <c r="G556" s="63"/>
+      <c r="G556" s="72"/>
     </row>
     <row r="557">
-      <c r="G557" s="63"/>
+      <c r="G557" s="72"/>
     </row>
     <row r="558">
-      <c r="G558" s="63"/>
+      <c r="G558" s="72"/>
     </row>
     <row r="559">
-      <c r="G559" s="63"/>
+      <c r="G559" s="72"/>
     </row>
     <row r="560">
-      <c r="G560" s="63"/>
+      <c r="G560" s="72"/>
     </row>
     <row r="561">
-      <c r="G561" s="63"/>
+      <c r="G561" s="72"/>
     </row>
     <row r="562">
-      <c r="G562" s="63"/>
+      <c r="G562" s="72"/>
     </row>
     <row r="563">
-      <c r="G563" s="63"/>
+      <c r="G563" s="72"/>
     </row>
     <row r="564">
-      <c r="G564" s="63"/>
+      <c r="G564" s="72"/>
     </row>
     <row r="565">
-      <c r="G565" s="63"/>
+      <c r="G565" s="72"/>
     </row>
     <row r="566">
-      <c r="G566" s="63"/>
+      <c r="G566" s="72"/>
     </row>
     <row r="567">
-      <c r="G567" s="63"/>
+      <c r="G567" s="72"/>
     </row>
     <row r="568">
-      <c r="G568" s="63"/>
+      <c r="G568" s="72"/>
     </row>
     <row r="569">
-      <c r="G569" s="63"/>
+      <c r="G569" s="72"/>
     </row>
     <row r="570">
-      <c r="G570" s="63"/>
+      <c r="G570" s="72"/>
     </row>
     <row r="571">
-      <c r="G571" s="63"/>
+      <c r="G571" s="72"/>
     </row>
     <row r="572">
-      <c r="G572" s="63"/>
+      <c r="G572" s="72"/>
     </row>
     <row r="573">
-      <c r="G573" s="63"/>
+      <c r="G573" s="72"/>
     </row>
     <row r="574">
-      <c r="G574" s="63"/>
+      <c r="G574" s="72"/>
     </row>
     <row r="575">
-      <c r="G575" s="63"/>
+      <c r="G575" s="72"/>
     </row>
     <row r="576">
-      <c r="G576" s="63"/>
+      <c r="G576" s="72"/>
     </row>
     <row r="577">
-      <c r="G577" s="63"/>
+      <c r="G577" s="72"/>
     </row>
     <row r="578">
-      <c r="G578" s="63"/>
+      <c r="G578" s="72"/>
     </row>
     <row r="579">
-      <c r="G579" s="63"/>
+      <c r="G579" s="72"/>
     </row>
     <row r="580">
-      <c r="G580" s="63"/>
+      <c r="G580" s="72"/>
     </row>
     <row r="581">
-      <c r="G581" s="63"/>
+      <c r="G581" s="72"/>
     </row>
     <row r="582">
-      <c r="G582" s="63"/>
+      <c r="G582" s="72"/>
     </row>
     <row r="583">
-      <c r="G583" s="63"/>
+      <c r="G583" s="72"/>
     </row>
     <row r="584">
-      <c r="G584" s="63"/>
+      <c r="G584" s="72"/>
     </row>
     <row r="585">
-      <c r="G585" s="63"/>
+      <c r="G585" s="72"/>
     </row>
     <row r="586">
-      <c r="G586" s="63"/>
+      <c r="G586" s="72"/>
     </row>
     <row r="587">
-      <c r="G587" s="63"/>
+      <c r="G587" s="72"/>
     </row>
     <row r="588">
-      <c r="G588" s="63"/>
+      <c r="G588" s="72"/>
     </row>
     <row r="589">
-      <c r="G589" s="63"/>
+      <c r="G589" s="72"/>
     </row>
     <row r="590">
-      <c r="G590" s="63"/>
+      <c r="G590" s="72"/>
     </row>
     <row r="591">
-      <c r="G591" s="63"/>
+      <c r="G591" s="72"/>
     </row>
     <row r="592">
-      <c r="G592" s="63"/>
+      <c r="G592" s="72"/>
     </row>
     <row r="593">
-      <c r="G593" s="63"/>
+      <c r="G593" s="72"/>
     </row>
     <row r="594">
-      <c r="G594" s="63"/>
+      <c r="G594" s="72"/>
     </row>
     <row r="595">
-      <c r="G595" s="63"/>
+      <c r="G595" s="72"/>
     </row>
     <row r="596">
-      <c r="G596" s="63"/>
+      <c r="G596" s="72"/>
     </row>
     <row r="597">
-      <c r="G597" s="63"/>
+      <c r="G597" s="72"/>
     </row>
     <row r="598">
-      <c r="G598" s="63"/>
+      <c r="G598" s="72"/>
     </row>
     <row r="599">
-      <c r="G599" s="63"/>
+      <c r="G599" s="72"/>
     </row>
     <row r="600">
-      <c r="G600" s="63"/>
+      <c r="G600" s="72"/>
     </row>
     <row r="601">
-      <c r="G601" s="63"/>
+      <c r="G601" s="72"/>
     </row>
     <row r="602">
-      <c r="G602" s="63"/>
+      <c r="G602" s="72"/>
     </row>
     <row r="603">
-      <c r="G603" s="63"/>
+      <c r="G603" s="72"/>
     </row>
     <row r="604">
-      <c r="G604" s="63"/>
+      <c r="G604" s="72"/>
     </row>
     <row r="605">
-      <c r="G605" s="63"/>
+      <c r="G605" s="72"/>
     </row>
     <row r="606">
-      <c r="G606" s="63"/>
+      <c r="G606" s="72"/>
     </row>
     <row r="607">
-      <c r="G607" s="63"/>
+      <c r="G607" s="72"/>
     </row>
     <row r="608">
-      <c r="G608" s="63"/>
+      <c r="G608" s="72"/>
     </row>
     <row r="609">
-      <c r="G609" s="63"/>
+      <c r="G609" s="72"/>
     </row>
     <row r="610">
-      <c r="G610" s="63"/>
+      <c r="G610" s="72"/>
     </row>
     <row r="611">
-      <c r="G611" s="63"/>
+      <c r="G611" s="72"/>
     </row>
     <row r="612">
-      <c r="G612" s="63"/>
+      <c r="G612" s="72"/>
     </row>
     <row r="613">
-      <c r="G613" s="63"/>
+      <c r="G613" s="72"/>
     </row>
     <row r="614">
-      <c r="G614" s="63"/>
+      <c r="G614" s="72"/>
     </row>
     <row r="615">
-      <c r="G615" s="63"/>
+      <c r="G615" s="72"/>
     </row>
     <row r="616">
-      <c r="G616" s="63"/>
+      <c r="G616" s="72"/>
     </row>
     <row r="617">
-      <c r="G617" s="63"/>
+      <c r="G617" s="72"/>
     </row>
     <row r="618">
-      <c r="G618" s="63"/>
+      <c r="G618" s="72"/>
     </row>
     <row r="619">
-      <c r="G619" s="63"/>
+      <c r="G619" s="72"/>
     </row>
     <row r="620">
-      <c r="G620" s="63"/>
+      <c r="G620" s="72"/>
     </row>
     <row r="621">
-      <c r="G621" s="63"/>
+      <c r="G621" s="72"/>
     </row>
     <row r="622">
-      <c r="G622" s="63"/>
+      <c r="G622" s="72"/>
     </row>
     <row r="623">
-      <c r="G623" s="63"/>
+      <c r="G623" s="72"/>
     </row>
     <row r="624">
-      <c r="G624" s="63"/>
+      <c r="G624" s="72"/>
     </row>
     <row r="625">
-      <c r="G625" s="63"/>
+      <c r="G625" s="72"/>
     </row>
     <row r="626">
-      <c r="G626" s="63"/>
+      <c r="G626" s="72"/>
     </row>
     <row r="627">
-      <c r="G627" s="63"/>
+      <c r="G627" s="72"/>
     </row>
     <row r="628">
-      <c r="G628" s="63"/>
+      <c r="G628" s="72"/>
     </row>
     <row r="629">
-      <c r="G629" s="63"/>
+      <c r="G629" s="72"/>
     </row>
     <row r="630">
-      <c r="G630" s="63"/>
+      <c r="G630" s="72"/>
     </row>
     <row r="631">
-      <c r="G631" s="63"/>
+      <c r="G631" s="72"/>
     </row>
     <row r="632">
-      <c r="G632" s="63"/>
+      <c r="G632" s="72"/>
     </row>
     <row r="633">
-      <c r="G633" s="63"/>
+      <c r="G633" s="72"/>
     </row>
     <row r="634">
-      <c r="G634" s="63"/>
+      <c r="G634" s="72"/>
     </row>
     <row r="635">
-      <c r="G635" s="63"/>
+      <c r="G635" s="72"/>
     </row>
     <row r="636">
-      <c r="G636" s="63"/>
+      <c r="G636" s="72"/>
     </row>
     <row r="637">
-      <c r="G637" s="63"/>
+      <c r="G637" s="72"/>
     </row>
     <row r="638">
-      <c r="G638" s="63"/>
+      <c r="G638" s="72"/>
     </row>
     <row r="639">
-      <c r="G639" s="63"/>
+      <c r="G639" s="72"/>
     </row>
     <row r="640">
-      <c r="G640" s="63"/>
+      <c r="G640" s="72"/>
     </row>
     <row r="641">
-      <c r="G641" s="63"/>
+      <c r="G641" s="72"/>
     </row>
     <row r="642">
-      <c r="G642" s="63"/>
+      <c r="G642" s="72"/>
     </row>
     <row r="643">
-      <c r="G643" s="63"/>
+      <c r="G643" s="72"/>
     </row>
     <row r="644">
-      <c r="G644" s="63"/>
+      <c r="G644" s="72"/>
     </row>
     <row r="645">
-      <c r="G645" s="63"/>
+      <c r="G645" s="72"/>
     </row>
     <row r="646">
-      <c r="G646" s="63"/>
+      <c r="G646" s="72"/>
     </row>
     <row r="647">
-      <c r="G647" s="63"/>
+      <c r="G647" s="72"/>
     </row>
     <row r="648">
-      <c r="G648" s="63"/>
+      <c r="G648" s="72"/>
     </row>
     <row r="649">
-      <c r="G649" s="63"/>
+      <c r="G649" s="72"/>
     </row>
     <row r="650">
-      <c r="G650" s="63"/>
+      <c r="G650" s="72"/>
     </row>
     <row r="651">
-      <c r="G651" s="63"/>
+      <c r="G651" s="72"/>
     </row>
     <row r="652">
-      <c r="G652" s="63"/>
+      <c r="G652" s="72"/>
     </row>
     <row r="653">
-      <c r="G653" s="63"/>
+      <c r="G653" s="72"/>
     </row>
     <row r="654">
-      <c r="G654" s="63"/>
+      <c r="G654" s="72"/>
     </row>
     <row r="655">
-      <c r="G655" s="63"/>
+      <c r="G655" s="72"/>
     </row>
     <row r="656">
-      <c r="G656" s="63"/>
+      <c r="G656" s="72"/>
     </row>
     <row r="657">
-      <c r="G657" s="63"/>
+      <c r="G657" s="72"/>
     </row>
     <row r="658">
-      <c r="G658" s="63"/>
+      <c r="G658" s="72"/>
     </row>
     <row r="659">
-      <c r="G659" s="63"/>
+      <c r="G659" s="72"/>
     </row>
     <row r="660">
-      <c r="G660" s="63"/>
+      <c r="G660" s="72"/>
     </row>
     <row r="661">
-      <c r="G661" s="63"/>
+      <c r="G661" s="72"/>
     </row>
     <row r="662">
-      <c r="G662" s="63"/>
+      <c r="G662" s="72"/>
     </row>
     <row r="663">
-      <c r="G663" s="63"/>
+      <c r="G663" s="72"/>
     </row>
     <row r="664">
-      <c r="G664" s="63"/>
+      <c r="G664" s="72"/>
     </row>
     <row r="665">
-      <c r="G665" s="63"/>
+      <c r="G665" s="72"/>
     </row>
     <row r="666">
-      <c r="G666" s="63"/>
+      <c r="G666" s="72"/>
     </row>
     <row r="667">
-      <c r="G667" s="63"/>
+      <c r="G667" s="72"/>
     </row>
     <row r="668">
-      <c r="G668" s="63"/>
+      <c r="G668" s="72"/>
     </row>
     <row r="669">
-      <c r="G669" s="63"/>
+      <c r="G669" s="72"/>
     </row>
     <row r="670">
-      <c r="G670" s="63"/>
+      <c r="G670" s="72"/>
     </row>
     <row r="671">
-      <c r="G671" s="63"/>
+      <c r="G671" s="72"/>
     </row>
     <row r="672">
-      <c r="G672" s="63"/>
+      <c r="G672" s="72"/>
     </row>
     <row r="673">
-      <c r="G673" s="63"/>
+      <c r="G673" s="72"/>
     </row>
     <row r="674">
-      <c r="G674" s="63"/>
+      <c r="G674" s="72"/>
     </row>
     <row r="675">
-      <c r="G675" s="63"/>
+      <c r="G675" s="72"/>
     </row>
     <row r="676">
-      <c r="G676" s="63"/>
+      <c r="G676" s="72"/>
     </row>
     <row r="677">
-      <c r="G677" s="63"/>
+      <c r="G677" s="72"/>
     </row>
     <row r="678">
-      <c r="G678" s="63"/>
+      <c r="G678" s="72"/>
     </row>
     <row r="679">
-      <c r="G679" s="63"/>
+      <c r="G679" s="72"/>
     </row>
     <row r="680">
-      <c r="G680" s="63"/>
+      <c r="G680" s="72"/>
     </row>
     <row r="681">
-      <c r="G681" s="63"/>
+      <c r="G681" s="72"/>
     </row>
     <row r="682">
-      <c r="G682" s="63"/>
+      <c r="G682" s="72"/>
     </row>
     <row r="683">
-      <c r="G683" s="63"/>
+      <c r="G683" s="72"/>
     </row>
     <row r="684">
-      <c r="G684" s="63"/>
+      <c r="G684" s="72"/>
     </row>
     <row r="685">
-      <c r="G685" s="63"/>
+      <c r="G685" s="72"/>
     </row>
     <row r="686">
-      <c r="G686" s="63"/>
+      <c r="G686" s="72"/>
     </row>
     <row r="687">
-      <c r="G687" s="63"/>
+      <c r="G687" s="72"/>
     </row>
     <row r="688">
-      <c r="G688" s="63"/>
+      <c r="G688" s="72"/>
     </row>
     <row r="689">
-      <c r="G689" s="63"/>
+      <c r="G689" s="72"/>
     </row>
     <row r="690">
-      <c r="G690" s="63"/>
+      <c r="G690" s="72"/>
     </row>
     <row r="691">
-      <c r="G691" s="63"/>
+      <c r="G691" s="72"/>
     </row>
     <row r="692">
-      <c r="G692" s="63"/>
+      <c r="G692" s="72"/>
     </row>
     <row r="693">
-      <c r="G693" s="63"/>
+      <c r="G693" s="72"/>
     </row>
     <row r="694">
-      <c r="G694" s="63"/>
+      <c r="G694" s="72"/>
     </row>
     <row r="695">
-      <c r="G695" s="63"/>
+      <c r="G695" s="72"/>
     </row>
     <row r="696">
-      <c r="G696" s="63"/>
+      <c r="G696" s="72"/>
     </row>
     <row r="697">
-      <c r="G697" s="63"/>
+      <c r="G697" s="72"/>
     </row>
     <row r="698">
-      <c r="G698" s="63"/>
+      <c r="G698" s="72"/>
     </row>
     <row r="699">
-      <c r="G699" s="63"/>
+      <c r="G699" s="72"/>
     </row>
     <row r="700">
-      <c r="G700" s="63"/>
+      <c r="G700" s="72"/>
     </row>
     <row r="701">
-      <c r="G701" s="63"/>
+      <c r="G701" s="72"/>
     </row>
     <row r="702">
-      <c r="G702" s="63"/>
+      <c r="G702" s="72"/>
     </row>
     <row r="703">
-      <c r="G703" s="63"/>
+      <c r="G703" s="72"/>
     </row>
     <row r="704">
-      <c r="G704" s="63"/>
+      <c r="G704" s="72"/>
     </row>
     <row r="705">
-      <c r="G705" s="63"/>
+      <c r="G705" s="72"/>
     </row>
     <row r="706">
-      <c r="G706" s="63"/>
+      <c r="G706" s="72"/>
     </row>
     <row r="707">
-      <c r="G707" s="63"/>
+      <c r="G707" s="72"/>
     </row>
     <row r="708">
-      <c r="G708" s="63"/>
+      <c r="G708" s="72"/>
     </row>
     <row r="709">
-      <c r="G709" s="63"/>
+      <c r="G709" s="72"/>
     </row>
     <row r="710">
-      <c r="G710" s="63"/>
+      <c r="G710" s="72"/>
     </row>
     <row r="711">
-      <c r="G711" s="63"/>
+      <c r="G711" s="72"/>
     </row>
     <row r="712">
-      <c r="G712" s="63"/>
+      <c r="G712" s="72"/>
     </row>
     <row r="713">
-      <c r="G713" s="63"/>
+      <c r="G713" s="72"/>
     </row>
     <row r="714">
-      <c r="G714" s="63"/>
+      <c r="G714" s="72"/>
     </row>
     <row r="715">
-      <c r="G715" s="63"/>
+      <c r="G715" s="72"/>
     </row>
     <row r="716">
-      <c r="G716" s="63"/>
+      <c r="G716" s="72"/>
     </row>
     <row r="717">
-      <c r="G717" s="63"/>
+      <c r="G717" s="72"/>
     </row>
     <row r="718">
-      <c r="G718" s="63"/>
+      <c r="G718" s="72"/>
     </row>
     <row r="719">
-      <c r="G719" s="63"/>
+      <c r="G719" s="72"/>
     </row>
     <row r="720">
-      <c r="G720" s="63"/>
+      <c r="G720" s="72"/>
     </row>
     <row r="721">
-      <c r="G721" s="63"/>
+      <c r="G721" s="72"/>
     </row>
     <row r="722">
-      <c r="G722" s="63"/>
+      <c r="G722" s="72"/>
     </row>
     <row r="723">
-      <c r="G723" s="63"/>
+      <c r="G723" s="72"/>
     </row>
     <row r="724">
-      <c r="G724" s="63"/>
+      <c r="G724" s="72"/>
     </row>
     <row r="725">
-      <c r="G725" s="63"/>
+      <c r="G725" s="72"/>
     </row>
     <row r="726">
-      <c r="G726" s="63"/>
+      <c r="G726" s="72"/>
     </row>
     <row r="727">
-      <c r="G727" s="63"/>
+      <c r="G727" s="72"/>
     </row>
     <row r="728">
-      <c r="G728" s="63"/>
+      <c r="G728" s="72"/>
     </row>
     <row r="729">
-      <c r="G729" s="63"/>
+      <c r="G729" s="72"/>
     </row>
     <row r="730">
-      <c r="G730" s="63"/>
+      <c r="G730" s="72"/>
     </row>
     <row r="731">
-      <c r="G731" s="63"/>
+      <c r="G731" s="72"/>
     </row>
     <row r="732">
-      <c r="G732" s="63"/>
+      <c r="G732" s="72"/>
     </row>
     <row r="733">
-      <c r="G733" s="63"/>
+      <c r="G733" s="72"/>
     </row>
     <row r="734">
-      <c r="G734" s="63"/>
+      <c r="G734" s="72"/>
     </row>
     <row r="735">
-      <c r="G735" s="63"/>
+      <c r="G735" s="72"/>
     </row>
     <row r="736">
-      <c r="G736" s="63"/>
+      <c r="G736" s="72"/>
     </row>
     <row r="737">
-      <c r="G737" s="63"/>
+      <c r="G737" s="72"/>
     </row>
     <row r="738">
-      <c r="G738" s="63"/>
+      <c r="G738" s="72"/>
     </row>
     <row r="739">
-      <c r="G739" s="63"/>
+      <c r="G739" s="72"/>
     </row>
     <row r="740">
-      <c r="G740" s="63"/>
+      <c r="G740" s="72"/>
     </row>
     <row r="741">
-      <c r="G741" s="63"/>
+      <c r="G741" s="72"/>
     </row>
     <row r="742">
-      <c r="G742" s="63"/>
+      <c r="G742" s="72"/>
     </row>
     <row r="743">
-      <c r="G743" s="63"/>
+      <c r="G743" s="72"/>
     </row>
     <row r="744">
-      <c r="G744" s="63"/>
+      <c r="G744" s="72"/>
     </row>
     <row r="745">
-      <c r="G745" s="63"/>
+      <c r="G745" s="72"/>
     </row>
     <row r="746">
-      <c r="G746" s="63"/>
+      <c r="G746" s="72"/>
     </row>
     <row r="747">
-      <c r="G747" s="63"/>
+      <c r="G747" s="72"/>
     </row>
     <row r="748">
-      <c r="G748" s="63"/>
+      <c r="G748" s="72"/>
     </row>
     <row r="749">
-      <c r="G749" s="63"/>
+      <c r="G749" s="72"/>
     </row>
     <row r="750">
-      <c r="G750" s="63"/>
+      <c r="G750" s="72"/>
     </row>
     <row r="751">
-      <c r="G751" s="63"/>
+      <c r="G751" s="72"/>
     </row>
     <row r="752">
-      <c r="G752" s="63"/>
+      <c r="G752" s="72"/>
     </row>
     <row r="753">
-      <c r="G753" s="63"/>
+      <c r="G753" s="72"/>
     </row>
     <row r="754">
-      <c r="G754" s="63"/>
+      <c r="G754" s="72"/>
     </row>
     <row r="755">
-      <c r="G755" s="63"/>
+      <c r="G755" s="72"/>
     </row>
     <row r="756">
-      <c r="G756" s="63"/>
+      <c r="G756" s="72"/>
     </row>
     <row r="757">
-      <c r="G757" s="63"/>
+      <c r="G757" s="72"/>
     </row>
     <row r="758">
-      <c r="G758" s="63"/>
+      <c r="G758" s="72"/>
     </row>
     <row r="759">
-      <c r="G759" s="63"/>
+      <c r="G759" s="72"/>
     </row>
     <row r="760">
-      <c r="G760" s="63"/>
+      <c r="G760" s="72"/>
     </row>
     <row r="761">
-      <c r="G761" s="63"/>
+      <c r="G761" s="72"/>
     </row>
     <row r="762">
-      <c r="G762" s="63"/>
+      <c r="G762" s="72"/>
     </row>
     <row r="763">
-      <c r="G763" s="63"/>
+      <c r="G763" s="72"/>
     </row>
     <row r="764">
-      <c r="G764" s="63"/>
+      <c r="G764" s="72"/>
     </row>
     <row r="765">
-      <c r="G765" s="63"/>
+      <c r="G765" s="72"/>
     </row>
     <row r="766">
-      <c r="G766" s="63"/>
+      <c r="G766" s="72"/>
     </row>
     <row r="767">
-      <c r="G767" s="63"/>
+      <c r="G767" s="72"/>
     </row>
     <row r="768">
-      <c r="G768" s="63"/>
+      <c r="G768" s="72"/>
     </row>
     <row r="769">
-      <c r="G769" s="63"/>
+      <c r="G769" s="72"/>
     </row>
     <row r="770">
-      <c r="G770" s="63"/>
+      <c r="G770" s="72"/>
     </row>
     <row r="771">
-      <c r="G771" s="63"/>
+      <c r="G771" s="72"/>
     </row>
     <row r="772">
-      <c r="G772" s="63"/>
+      <c r="G772" s="72"/>
     </row>
     <row r="773">
-      <c r="G773" s="63"/>
+      <c r="G773" s="72"/>
     </row>
     <row r="774">
-      <c r="G774" s="63"/>
+      <c r="G774" s="72"/>
     </row>
     <row r="775">
-      <c r="G775" s="63"/>
+      <c r="G775" s="72"/>
     </row>
     <row r="776">
-      <c r="G776" s="63"/>
+      <c r="G776" s="72"/>
     </row>
     <row r="777">
-      <c r="G777" s="63"/>
+      <c r="G777" s="72"/>
     </row>
     <row r="778">
-      <c r="G778" s="63"/>
+      <c r="G778" s="72"/>
     </row>
     <row r="779">
-      <c r="G779" s="63"/>
+      <c r="G779" s="72"/>
     </row>
     <row r="780">
-      <c r="G780" s="63"/>
+      <c r="G780" s="72"/>
     </row>
     <row r="781">
-      <c r="G781" s="63"/>
+      <c r="G781" s="72"/>
     </row>
     <row r="782">
-      <c r="G782" s="63"/>
+      <c r="G782" s="72"/>
     </row>
     <row r="783">
-      <c r="G783" s="63"/>
+      <c r="G783" s="72"/>
     </row>
     <row r="784">
-      <c r="G784" s="63"/>
+      <c r="G784" s="72"/>
     </row>
     <row r="785">
-      <c r="G785" s="63"/>
+      <c r="G785" s="72"/>
     </row>
     <row r="786">
-      <c r="G786" s="63"/>
+      <c r="G786" s="72"/>
     </row>
     <row r="787">
-      <c r="G787" s="63"/>
+      <c r="G787" s="72"/>
     </row>
     <row r="788">
-      <c r="G788" s="63"/>
+      <c r="G788" s="72"/>
     </row>
     <row r="789">
-      <c r="G789" s="63"/>
+      <c r="G789" s="72"/>
     </row>
     <row r="790">
-      <c r="G790" s="63"/>
+      <c r="G790" s="72"/>
     </row>
     <row r="791">
-      <c r="G791" s="63"/>
+      <c r="G791" s="72"/>
     </row>
     <row r="792">
-      <c r="G792" s="63"/>
+      <c r="G792" s="72"/>
     </row>
     <row r="793">
-      <c r="G793" s="63"/>
+      <c r="G793" s="72"/>
     </row>
     <row r="794">
-      <c r="G794" s="63"/>
+      <c r="G794" s="72"/>
     </row>
     <row r="795">
-      <c r="G795" s="63"/>
+      <c r="G795" s="72"/>
     </row>
     <row r="796">
-      <c r="G796" s="63"/>
+      <c r="G796" s="72"/>
     </row>
     <row r="797">
-      <c r="G797" s="63"/>
+      <c r="G797" s="72"/>
     </row>
     <row r="798">
-      <c r="G798" s="63"/>
+      <c r="G798" s="72"/>
     </row>
     <row r="799">
-      <c r="G799" s="63"/>
+      <c r="G799" s="72"/>
     </row>
     <row r="800">
-      <c r="G800" s="63"/>
+      <c r="G800" s="72"/>
     </row>
     <row r="801">
-      <c r="G801" s="63"/>
+      <c r="G801" s="72"/>
     </row>
     <row r="802">
-      <c r="G802" s="63"/>
+      <c r="G802" s="72"/>
     </row>
     <row r="803">
-      <c r="G803" s="63"/>
+      <c r="G803" s="72"/>
     </row>
     <row r="804">
-      <c r="G804" s="63"/>
+      <c r="G804" s="72"/>
     </row>
     <row r="805">
-      <c r="G805" s="63"/>
+      <c r="G805" s="72"/>
     </row>
     <row r="806">
-      <c r="G806" s="63"/>
+      <c r="G806" s="72"/>
     </row>
     <row r="807">
-      <c r="G807" s="63"/>
+      <c r="G807" s="72"/>
     </row>
     <row r="808">
-      <c r="G808" s="63"/>
+      <c r="G808" s="72"/>
     </row>
     <row r="809">
-      <c r="G809" s="63"/>
+      <c r="G809" s="72"/>
     </row>
     <row r="810">
-      <c r="G810" s="63"/>
+      <c r="G810" s="72"/>
     </row>
     <row r="811">
-      <c r="G811" s="63"/>
+      <c r="G811" s="72"/>
     </row>
     <row r="812">
-      <c r="G812" s="63"/>
+      <c r="G812" s="72"/>
     </row>
     <row r="813">
-      <c r="G813" s="63"/>
+      <c r="G813" s="72"/>
     </row>
     <row r="814">
-      <c r="G814" s="63"/>
+      <c r="G814" s="72"/>
     </row>
     <row r="815">
-      <c r="G815" s="63"/>
+      <c r="G815" s="72"/>
     </row>
     <row r="816">
-      <c r="G816" s="63"/>
+      <c r="G816" s="72"/>
     </row>
     <row r="817">
-      <c r="G817" s="63"/>
+      <c r="G817" s="72"/>
     </row>
     <row r="818">
-      <c r="G818" s="63"/>
+      <c r="G818" s="72"/>
     </row>
     <row r="819">
-      <c r="G819" s="63"/>
+      <c r="G819" s="72"/>
     </row>
     <row r="820">
-      <c r="G820" s="63"/>
+      <c r="G820" s="72"/>
     </row>
     <row r="821">
-      <c r="G821" s="63"/>
+      <c r="G821" s="72"/>
     </row>
     <row r="822">
-      <c r="G822" s="63"/>
+      <c r="G822" s="72"/>
     </row>
     <row r="823">
-      <c r="G823" s="63"/>
+      <c r="G823" s="72"/>
     </row>
     <row r="824">
-      <c r="G824" s="63"/>
+      <c r="G824" s="72"/>
     </row>
     <row r="825">
-      <c r="G825" s="63"/>
+      <c r="G825" s="72"/>
     </row>
     <row r="826">
-      <c r="G826" s="63"/>
+      <c r="G826" s="72"/>
     </row>
     <row r="827">
-      <c r="G827" s="63"/>
+      <c r="G827" s="72"/>
     </row>
     <row r="828">
-      <c r="G828" s="63"/>
+      <c r="G828" s="72"/>
     </row>
     <row r="829">
-      <c r="G829" s="63"/>
+      <c r="G829" s="72"/>
     </row>
     <row r="830">
-      <c r="G830" s="63"/>
+      <c r="G830" s="72"/>
     </row>
     <row r="831">
-      <c r="G831" s="63"/>
+      <c r="G831" s="72"/>
     </row>
     <row r="832">
-      <c r="G832" s="63"/>
+      <c r="G832" s="72"/>
     </row>
     <row r="833">
-      <c r="G833" s="63"/>
+      <c r="G833" s="72"/>
     </row>
     <row r="834">
-      <c r="G834" s="63"/>
+      <c r="G834" s="72"/>
     </row>
     <row r="835">
-      <c r="G835" s="63"/>
+      <c r="G835" s="72"/>
     </row>
     <row r="836">
-      <c r="G836" s="63"/>
+      <c r="G836" s="72"/>
     </row>
     <row r="837">
-      <c r="G837" s="63"/>
+      <c r="G837" s="72"/>
     </row>
     <row r="838">
-      <c r="G838" s="63"/>
+      <c r="G838" s="72"/>
     </row>
     <row r="839">
-      <c r="G839" s="63"/>
+      <c r="G839" s="72"/>
     </row>
     <row r="840">
-      <c r="G840" s="63"/>
+      <c r="G840" s="72"/>
     </row>
     <row r="841">
-      <c r="G841" s="63"/>
+      <c r="G841" s="72"/>
     </row>
     <row r="842">
-      <c r="G842" s="63"/>
+      <c r="G842" s="72"/>
     </row>
     <row r="843">
-      <c r="G843" s="63"/>
+      <c r="G843" s="72"/>
     </row>
     <row r="844">
-      <c r="G844" s="63"/>
+      <c r="G844" s="72"/>
     </row>
     <row r="845">
-      <c r="G845" s="63"/>
+      <c r="G845" s="72"/>
     </row>
     <row r="846">
-      <c r="G846" s="63"/>
+      <c r="G846" s="72"/>
     </row>
     <row r="847">
-      <c r="G847" s="63"/>
+      <c r="G847" s="72"/>
     </row>
     <row r="848">
-      <c r="G848" s="63"/>
+      <c r="G848" s="72"/>
     </row>
     <row r="849">
-      <c r="G849" s="63"/>
+      <c r="G849" s="72"/>
     </row>
     <row r="850">
-      <c r="G850" s="63"/>
+      <c r="G850" s="72"/>
     </row>
     <row r="851">
-      <c r="G851" s="63"/>
+      <c r="G851" s="72"/>
     </row>
     <row r="852">
-      <c r="G852" s="63"/>
+      <c r="G852" s="72"/>
     </row>
     <row r="853">
-      <c r="G853" s="63"/>
+      <c r="G853" s="72"/>
     </row>
     <row r="854">
-      <c r="G854" s="63"/>
+      <c r="G854" s="72"/>
     </row>
     <row r="855">
-      <c r="G855" s="63"/>
+      <c r="G855" s="72"/>
     </row>
     <row r="856">
-      <c r="G856" s="63"/>
+      <c r="G856" s="72"/>
     </row>
     <row r="857">
-      <c r="G857" s="63"/>
+      <c r="G857" s="72"/>
     </row>
     <row r="858">
-      <c r="G858" s="63"/>
+      <c r="G858" s="72"/>
     </row>
     <row r="859">
-      <c r="G859" s="63"/>
+      <c r="G859" s="72"/>
     </row>
     <row r="860">
-      <c r="G860" s="63"/>
+      <c r="G860" s="72"/>
     </row>
     <row r="861">
-      <c r="G861" s="63"/>
+      <c r="G861" s="72"/>
     </row>
     <row r="862">
-      <c r="G862" s="63"/>
+      <c r="G862" s="72"/>
     </row>
     <row r="863">
-      <c r="G863" s="63"/>
+      <c r="G863" s="72"/>
     </row>
     <row r="864">
-      <c r="G864" s="63"/>
+      <c r="G864" s="72"/>
     </row>
     <row r="865">
-      <c r="G865" s="63"/>
+      <c r="G865" s="72"/>
     </row>
     <row r="866">
-      <c r="G866" s="63"/>
+      <c r="G866" s="72"/>
     </row>
     <row r="867">
-      <c r="G867" s="63"/>
+      <c r="G867" s="72"/>
     </row>
     <row r="868">
-      <c r="G868" s="63"/>
+      <c r="G868" s="72"/>
     </row>
     <row r="869">
-      <c r="G869" s="63"/>
+      <c r="G869" s="72"/>
     </row>
     <row r="870">
-      <c r="G870" s="63"/>
+      <c r="G870" s="72"/>
     </row>
     <row r="871">
-      <c r="G871" s="63"/>
+      <c r="G871" s="72"/>
     </row>
     <row r="872">
-      <c r="G872" s="63"/>
+      <c r="G872" s="72"/>
     </row>
     <row r="873">
-      <c r="G873" s="63"/>
+      <c r="G873" s="72"/>
     </row>
     <row r="874">
-      <c r="G874" s="63"/>
+      <c r="G874" s="72"/>
     </row>
     <row r="875">
-      <c r="G875" s="63"/>
+      <c r="G875" s="72"/>
     </row>
     <row r="876">
-      <c r="G876" s="63"/>
+      <c r="G876" s="72"/>
     </row>
     <row r="877">
-      <c r="G877" s="63"/>
+      <c r="G877" s="72"/>
     </row>
     <row r="878">
-      <c r="G878" s="63"/>
+      <c r="G878" s="72"/>
     </row>
     <row r="879">
-      <c r="G879" s="63"/>
+      <c r="G879" s="72"/>
     </row>
     <row r="880">
-      <c r="G880" s="63"/>
+      <c r="G880" s="72"/>
     </row>
     <row r="881">
-      <c r="G881" s="63"/>
+      <c r="G881" s="72"/>
     </row>
     <row r="882">
-      <c r="G882" s="63"/>
+      <c r="G882" s="72"/>
     </row>
     <row r="883">
-      <c r="G883" s="63"/>
+      <c r="G883" s="72"/>
     </row>
     <row r="884">
-      <c r="G884" s="63"/>
+      <c r="G884" s="72"/>
     </row>
     <row r="885">
-      <c r="G885" s="63"/>
+      <c r="G885" s="72"/>
     </row>
     <row r="886">
-      <c r="G886" s="63"/>
+      <c r="G886" s="72"/>
     </row>
     <row r="887">
-      <c r="G887" s="63"/>
+      <c r="G887" s="72"/>
     </row>
     <row r="888">
-      <c r="G888" s="63"/>
+      <c r="G888" s="72"/>
     </row>
     <row r="889">
-      <c r="G889" s="63"/>
+      <c r="G889" s="72"/>
     </row>
     <row r="890">
-      <c r="G890" s="63"/>
+      <c r="G890" s="72"/>
     </row>
     <row r="891">
-      <c r="G891" s="63"/>
+      <c r="G891" s="72"/>
     </row>
     <row r="892">
-      <c r="G892" s="63"/>
+      <c r="G892" s="72"/>
     </row>
     <row r="893">
-      <c r="G893" s="63"/>
+      <c r="G893" s="72"/>
     </row>
     <row r="894">
-      <c r="G894" s="63"/>
+      <c r="G894" s="72"/>
     </row>
     <row r="895">
-      <c r="G895" s="63"/>
+      <c r="G895" s="72"/>
     </row>
     <row r="896">
-      <c r="G896" s="63"/>
+      <c r="G896" s="72"/>
     </row>
     <row r="897">
-      <c r="G897" s="63"/>
+      <c r="G897" s="72"/>
     </row>
     <row r="898">
-      <c r="G898" s="63"/>
+      <c r="G898" s="72"/>
     </row>
     <row r="899">
-      <c r="G899" s="63"/>
+      <c r="G899" s="72"/>
     </row>
     <row r="900">
-      <c r="G900" s="63"/>
+      <c r="G900" s="72"/>
     </row>
     <row r="901">
-      <c r="G901" s="63"/>
+      <c r="G901" s="72"/>
     </row>
     <row r="902">
-      <c r="G902" s="63"/>
+      <c r="G902" s="72"/>
     </row>
     <row r="903">
-      <c r="G903" s="63"/>
+      <c r="G903" s="72"/>
     </row>
     <row r="904">
-      <c r="G904" s="63"/>
+      <c r="G904" s="72"/>
     </row>
     <row r="905">
-      <c r="G905" s="63"/>
+      <c r="G905" s="72"/>
     </row>
     <row r="906">
-      <c r="G906" s="63"/>
+      <c r="G906" s="72"/>
     </row>
     <row r="907">
-      <c r="G907" s="63"/>
+      <c r="G907" s="72"/>
     </row>
     <row r="908">
-      <c r="G908" s="63"/>
+      <c r="G908" s="72"/>
     </row>
     <row r="909">
-      <c r="G909" s="63"/>
+      <c r="G909" s="72"/>
     </row>
     <row r="910">
-      <c r="G910" s="63"/>
+      <c r="G910" s="72"/>
     </row>
     <row r="911">
-      <c r="G911" s="63"/>
+      <c r="G911" s="72"/>
     </row>
     <row r="912">
-      <c r="G912" s="63"/>
+      <c r="G912" s="72"/>
     </row>
     <row r="913">
-      <c r="G913" s="63"/>
+      <c r="G913" s="72"/>
     </row>
     <row r="914">
-      <c r="G914" s="63"/>
+      <c r="G914" s="72"/>
     </row>
     <row r="915">
-      <c r="G915" s="63"/>
+      <c r="G915" s="72"/>
     </row>
     <row r="916">
-      <c r="G916" s="63"/>
+      <c r="G916" s="72"/>
     </row>
     <row r="917">
-      <c r="G917" s="63"/>
+      <c r="G917" s="72"/>
     </row>
     <row r="918">
-      <c r="G918" s="63"/>
+      <c r="G918" s="72"/>
     </row>
     <row r="919">
-      <c r="G919" s="63"/>
+      <c r="G919" s="72"/>
     </row>
     <row r="920">
-      <c r="G920" s="63"/>
+      <c r="G920" s="72"/>
     </row>
     <row r="921">
-      <c r="G921" s="63"/>
+      <c r="G921" s="72"/>
     </row>
     <row r="922">
-      <c r="G922" s="63"/>
+      <c r="G922" s="72"/>
     </row>
     <row r="923">
-      <c r="G923" s="63"/>
+      <c r="G923" s="72"/>
     </row>
     <row r="924">
-      <c r="G924" s="63"/>
+      <c r="G924" s="72"/>
     </row>
     <row r="925">
-      <c r="G925" s="63"/>
+      <c r="G925" s="72"/>
     </row>
     <row r="926">
-      <c r="G926" s="63"/>
+      <c r="G926" s="72"/>
     </row>
     <row r="927">
-      <c r="G927" s="63"/>
+      <c r="G927" s="72"/>
     </row>
     <row r="928">
-      <c r="G928" s="63"/>
+      <c r="G928" s="72"/>
     </row>
     <row r="929">
-      <c r="G929" s="63"/>
+      <c r="G929" s="72"/>
     </row>
     <row r="930">
-      <c r="G930" s="63"/>
+      <c r="G930" s="72"/>
     </row>
     <row r="931">
-      <c r="G931" s="63"/>
+      <c r="G931" s="72"/>
     </row>
     <row r="932">
-      <c r="G932" s="63"/>
+      <c r="G932" s="72"/>
     </row>
     <row r="933">
-      <c r="G933" s="63"/>
+      <c r="G933" s="72"/>
     </row>
     <row r="934">
-      <c r="G934" s="63"/>
+      <c r="G934" s="72"/>
     </row>
     <row r="935">
-      <c r="G935" s="63"/>
+      <c r="G935" s="72"/>
     </row>
     <row r="936">
-      <c r="G936" s="63"/>
+      <c r="G936" s="72"/>
     </row>
     <row r="937">
-      <c r="G937" s="63"/>
+      <c r="G937" s="72"/>
     </row>
     <row r="938">
-      <c r="G938" s="63"/>
+      <c r="G938" s="72"/>
     </row>
     <row r="939">
-      <c r="G939" s="63"/>
+      <c r="G939" s="72"/>
     </row>
     <row r="940">
-      <c r="G940" s="63"/>
+      <c r="G940" s="72"/>
     </row>
     <row r="941">
-      <c r="G941" s="63"/>
+      <c r="G941" s="72"/>
     </row>
     <row r="942">
-      <c r="G942" s="63"/>
+      <c r="G942" s="72"/>
     </row>
     <row r="943">
-      <c r="G943" s="63"/>
+      <c r="G943" s="72"/>
     </row>
     <row r="944">
-      <c r="G944" s="63"/>
+      <c r="G944" s="72"/>
     </row>
     <row r="945">
-      <c r="G945" s="63"/>
+      <c r="G945" s="72"/>
     </row>
     <row r="946">
-      <c r="G946" s="63"/>
+      <c r="G946" s="72"/>
     </row>
     <row r="947">
-      <c r="G947" s="63"/>
+      <c r="G947" s="72"/>
     </row>
     <row r="948">
-      <c r="G948" s="63"/>
+      <c r="G948" s="72"/>
     </row>
     <row r="949">
-      <c r="G949" s="63"/>
+      <c r="G949" s="72"/>
     </row>
     <row r="950">
-      <c r="G950" s="63"/>
+      <c r="G950" s="72"/>
     </row>
     <row r="951">
-      <c r="G951" s="63"/>
+      <c r="G951" s="72"/>
     </row>
     <row r="952">
-      <c r="G952" s="63"/>
+      <c r="G952" s="72"/>
     </row>
     <row r="953">
-      <c r="G953" s="63"/>
+      <c r="G953" s="72"/>
     </row>
     <row r="954">
-      <c r="G954" s="63"/>
+      <c r="G954" s="72"/>
     </row>
     <row r="955">
-      <c r="G955" s="63"/>
+      <c r="G955" s="72"/>
     </row>
     <row r="956">
-      <c r="G956" s="63"/>
+      <c r="G956" s="72"/>
     </row>
     <row r="957">
-      <c r="G957" s="63"/>
+      <c r="G957" s="72"/>
     </row>
     <row r="958">
-      <c r="G958" s="63"/>
+      <c r="G958" s="72"/>
     </row>
     <row r="959">
-      <c r="G959" s="63"/>
+      <c r="G959" s="72"/>
     </row>
     <row r="960">
-      <c r="G960" s="63"/>
+      <c r="G960" s="72"/>
     </row>
     <row r="961">
-      <c r="G961" s="63"/>
+      <c r="G961" s="72"/>
     </row>
     <row r="962">
-      <c r="G962" s="63"/>
+      <c r="G962" s="72"/>
     </row>
     <row r="963">
-      <c r="G963" s="63"/>
+      <c r="G963" s="72"/>
     </row>
     <row r="964">
-      <c r="G964" s="63"/>
+      <c r="G964" s="72"/>
     </row>
     <row r="965">
-      <c r="G965" s="63"/>
+      <c r="G965" s="72"/>
     </row>
     <row r="966">
-      <c r="G966" s="63"/>
+      <c r="G966" s="72"/>
     </row>
     <row r="967">
-      <c r="G967" s="63"/>
+      <c r="G967" s="72"/>
     </row>
     <row r="968">
-      <c r="G968" s="63"/>
+      <c r="G968" s="72"/>
     </row>
     <row r="969">
-      <c r="G969" s="63"/>
+      <c r="G969" s="72"/>
     </row>
     <row r="970">
-      <c r="G970" s="63"/>
+      <c r="G970" s="72"/>
     </row>
     <row r="971">
-      <c r="G971" s="63"/>
+      <c r="G971" s="72"/>
     </row>
     <row r="972">
-      <c r="G972" s="63"/>
+      <c r="G972" s="72"/>
     </row>
     <row r="973">
-      <c r="G973" s="63"/>
+      <c r="G973" s="72"/>
     </row>
     <row r="974">
-      <c r="G974" s="63"/>
+      <c r="G974" s="72"/>
     </row>
     <row r="975">
-      <c r="G975" s="63"/>
+      <c r="G975" s="72"/>
     </row>
     <row r="976">
-      <c r="G976" s="63"/>
+      <c r="G976" s="72"/>
     </row>
     <row r="977">
-      <c r="G977" s="63"/>
+      <c r="G977" s="72"/>
     </row>
     <row r="978">
-      <c r="G978" s="63"/>
+      <c r="G978" s="72"/>
     </row>
     <row r="979">
-      <c r="G979" s="63"/>
+      <c r="G979" s="72"/>
     </row>
     <row r="980">
-      <c r="G980" s="63"/>
+      <c r="G980" s="72"/>
     </row>
     <row r="981">
-      <c r="G981" s="63"/>
+      <c r="G981" s="72"/>
     </row>
     <row r="982">
-      <c r="G982" s="63"/>
+      <c r="G982" s="72"/>
     </row>
     <row r="983">
-      <c r="G983" s="63"/>
+      <c r="G983" s="72"/>
     </row>
     <row r="984">
-      <c r="G984" s="63"/>
+      <c r="G984" s="72"/>
     </row>
     <row r="985">
-      <c r="G985" s="63"/>
+      <c r="G985" s="72"/>
     </row>
     <row r="986">
-      <c r="G986" s="63"/>
+      <c r="G986" s="72"/>
     </row>
     <row r="987">
-      <c r="G987" s="63"/>
+      <c r="G987" s="72"/>
     </row>
     <row r="988">
-      <c r="G988" s="63"/>
+      <c r="G988" s="72"/>
     </row>
     <row r="989">
-      <c r="G989" s="63"/>
+      <c r="G989" s="72"/>
     </row>
     <row r="990">
-      <c r="G990" s="63"/>
+      <c r="G990" s="72"/>
     </row>
     <row r="991">
-      <c r="G991" s="63"/>
+      <c r="G991" s="72"/>
     </row>
     <row r="992">
-      <c r="G992" s="63"/>
+      <c r="G992" s="72"/>
     </row>
     <row r="993">
-      <c r="G993" s="63"/>
+      <c r="G993" s="72"/>
     </row>
     <row r="994">
-      <c r="G994" s="63"/>
+      <c r="G994" s="72"/>
     </row>
     <row r="995">
-      <c r="G995" s="63"/>
+      <c r="G995" s="72"/>
     </row>
     <row r="996">
-      <c r="G996" s="63"/>
+      <c r="G996" s="72"/>
     </row>
     <row r="997">
-      <c r="G997" s="63"/>
+      <c r="G997" s="72"/>
     </row>
     <row r="998">
-      <c r="G998" s="63"/>
+      <c r="G998" s="72"/>
     </row>
     <row r="999">
-      <c r="G999" s="63"/>
+      <c r="G999" s="72"/>
     </row>
     <row r="1000">
-      <c r="G1000" s="63"/>
+      <c r="G1000" s="72"/>
     </row>
     <row r="1001">
-      <c r="G1001" s="63"/>
+      <c r="G1001" s="72"/>
     </row>
     <row r="1002">
-      <c r="G1002" s="63"/>
+      <c r="G1002" s="72"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1002">
@@ -5600,16 +7117,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F25">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F43">
       <formula1>OR(TIMEVALUE(TEXT(E2, "hh:mm:ss"))=E2, AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A25">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A43">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2:G25">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2:G43">
       <formula1>AND(ISNUMBER(G2),(NOT(OR(NOT(ISERROR(DATEVALUE(G2))), AND(ISNUMBER(G2), LEFT(CELL("format", G2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="C2:C25"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="C2:C43"/>
   </dataValidations>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -5638,264 +7155,328 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>43</v>
+      <c r="H1" s="21" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14">
+      <c r="A2" s="19">
         <v>45575.0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="C2" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="24">
         <v>0.8020833333333334</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="24">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14">
+      <c r="A3" s="19">
         <v>45579.0</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="19">
+      <c r="C3" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="24">
         <v>0.4791666666666667</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="24">
         <v>0.5555555555555556</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="23">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20">
+      <c r="A4" s="25">
         <v>45579.0</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="C4" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="24">
         <v>0.6041666666666666</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="24">
         <v>0.71875</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="23">
         <v>2.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="24">
+      <c r="A5" s="29">
         <v>45581.0</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="C5" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="24">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="24">
         <v>0.6770833333333334</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="23">
         <v>0.25</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24">
+      <c r="A6" s="29">
         <v>45582.0</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="C6" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="24">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="24">
         <v>0.5416666666666666</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="23">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="24">
+      <c r="A7" s="29">
         <v>45584.0</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="C7" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="24">
         <v>0.7708333333333334</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="24">
         <v>0.8125</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="23">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24">
+      <c r="A8" s="29">
         <v>45589.0</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="C8" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="24">
         <v>0.4618055555555556</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="23">
         <v>14.0</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="23">
         <v>3.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="24">
+      <c r="A9" s="29">
         <v>45589.0</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="C9" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="24">
         <v>0.6284722222222222</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="24">
         <v>0.7118055555555556</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="23">
         <v>2.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24">
+      <c r="A10" s="29">
         <v>45591.0</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="C10" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="24">
         <v>0.6701388888888888</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="24">
         <v>0.8055555555555556</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="23">
         <v>3.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="24">
+      <c r="A11" s="29">
         <v>45596.0</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="C11" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="24">
         <v>0.59375</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="24">
         <v>0.7083333333333334</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="23">
         <v>2.75</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="65">
+      <c r="A12" s="74">
         <v>45597.0</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="C12" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="24">
         <v>0.5104166666666666</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="24">
         <v>0.5972222222222222</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="23">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="65">
+      <c r="A13" s="74">
         <v>45597.0</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="C13" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="24">
         <v>0.6319444444444444</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="24">
         <v>0.6944444444444444</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="23">
         <v>1.5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>103</v>
+      <c r="A14" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="24">
+      <c r="A15" s="29">
         <v>45613.0</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="19">
+      <c r="C15" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="24">
         <v>0.7777777777777778</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="24">
         <v>0.9583333333333334</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="23">
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="29">
+        <v>45618.0</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0.46875</v>
+      </c>
+      <c r="G16" s="23">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="74">
+        <v>45628.0</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F18" s="75">
+        <v>0.6875</v>
+      </c>
+      <c r="G18" s="23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="23" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5931,632 +7512,1190 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="66" t="s">
-        <v>105</v>
+      <c r="C1" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="67">
+      <c r="A2" s="77">
         <v>45575.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D2" s="5">
         <v>10.0</v>
       </c>
-      <c r="E2" s="68">
+      <c r="E2" s="78">
         <v>0.8020833333333334</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="78">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>107</v>
+      <c r="G2" s="5">
+        <v>0.45</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="67">
+      <c r="A3" s="77">
         <v>45579.0</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="D3" s="5">
         <v>10.0</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="78">
         <v>0.4791666666666667</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="78">
         <v>0.5555555555555556</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>109</v>
+      <c r="G3" s="5">
+        <v>1.2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="69">
+      <c r="A4" s="79">
         <v>45579.0</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="13" t="s">
-        <v>71</v>
+      <c r="C4" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="D4" s="5">
         <v>10.0</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="78">
         <v>0.6041666666666666</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="78">
         <v>0.71875</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>110</v>
+      <c r="G4" s="5">
+        <v>2.45</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="67">
+      <c r="A5" s="77">
         <v>45581.0</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="D5" s="5">
         <v>10.0</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="78">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="78">
         <v>0.6770833333333334</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>111</v>
+      <c r="G5" s="5">
+        <v>0.15</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="67">
+      <c r="A6" s="77">
         <v>45582.0</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="D6" s="5">
         <v>10.0</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="78">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="78">
         <v>0.5416666666666666</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>112</v>
+      <c r="G6" s="5">
+        <v>2.0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="67">
+      <c r="A7" s="77">
         <v>45582.0</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="D7" s="5">
         <v>10.0</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="78">
         <v>0.5763888888888888</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="78">
         <v>0.625</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>113</v>
+      <c r="G7" s="5">
+        <v>1.1</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="67">
+      <c r="A8" s="77">
         <v>45584.0</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="70" t="s">
-        <v>114</v>
+      <c r="C8" s="80" t="s">
+        <v>199</v>
       </c>
       <c r="D8" s="5">
         <v>10.0</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="78">
         <v>0.75</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="78">
         <v>0.8125</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>115</v>
+      <c r="G8" s="5">
+        <v>1.3</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="67">
+      <c r="A9" s="77">
         <v>45586.0</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="71" t="s">
-        <v>51</v>
+      <c r="C9" s="81" t="s">
+        <v>87</v>
       </c>
       <c r="D9" s="5">
         <v>10.0</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="78">
         <v>0.6145833333333334</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="78">
         <v>0.625</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>111</v>
+      <c r="G9" s="5">
+        <v>0.15</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="67">
+      <c r="A10" s="77">
         <v>45589.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>116</v>
+        <v>133</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>200</v>
       </c>
       <c r="D10" s="5">
         <v>10.0</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="78">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="78">
         <v>0.5833333333333334</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>117</v>
+      <c r="G10" s="5">
+        <v>3.0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="67">
+      <c r="A11" s="77">
         <v>45589.0</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="D11" s="5">
         <v>10.0</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="78">
         <v>0.625</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="78">
         <v>0.7361111111111112</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>118</v>
+      <c r="G11" s="5">
+        <v>2.4</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="67">
+      <c r="A12" s="77">
         <v>45591.0</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D12" s="5">
         <v>10.0</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="78">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="78">
         <v>0.8125</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>119</v>
+      <c r="G12" s="5">
+        <v>3.3</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="67">
+      <c r="A13" s="77">
         <v>45595.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>121</v>
+        <v>201</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="D13" s="5">
         <v>10.0</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="78">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="78">
         <v>0.5625</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>122</v>
+      <c r="G13" s="5">
+        <v>2.3</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="67">
+      <c r="A14" s="77">
         <v>45595.0</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="5" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="D14" s="5">
         <v>10.0</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="78">
         <v>0.5833333333333334</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="78">
         <v>0.7083333333333334</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>117</v>
+      <c r="G14" s="5">
+        <v>3.0</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="67">
+      <c r="A15" s="77">
         <v>45599.0</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="5" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="D15" s="5">
         <v>7.0</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="78">
         <v>0.5208333333333334</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="78">
         <v>0.625</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>122</v>
+      <c r="G15" s="5">
+        <v>2.3</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="67">
+      <c r="A16" s="77">
         <v>45599.0</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="5" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="D16" s="5">
         <v>8.5</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="78">
         <v>0.625</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="78">
         <v>0.7291666666666666</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>122</v>
+      <c r="G16" s="5">
+        <v>2.3</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="67">
+      <c r="A17" s="77">
         <v>45600.0</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="74">
+      <c r="B17" s="82"/>
+      <c r="C17" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="84">
         <v>8.5</v>
       </c>
-      <c r="E17" s="75">
+      <c r="E17" s="85">
         <v>0.4791666666666667</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="85">
         <v>0.5416666666666666</v>
       </c>
-      <c r="G17" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="76"/>
+      <c r="G17" s="84">
+        <v>1.3</v>
+      </c>
+      <c r="H17" s="86"/>
     </row>
     <row r="18">
-      <c r="A18" s="67">
+      <c r="A18" s="77">
         <v>45602.0</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="79">
+      <c r="B18" s="87"/>
+      <c r="C18" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="89">
         <v>7.5</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="90">
         <v>0.5729166666666666</v>
       </c>
-      <c r="F18" s="80">
+      <c r="F18" s="90">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G18" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="81" t="s">
-        <v>112</v>
+      <c r="G18" s="89">
+        <v>2.15</v>
+      </c>
+      <c r="H18" s="91" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="67">
+      <c r="A19" s="77">
         <v>45604.0</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="74">
+      <c r="B19" s="82"/>
+      <c r="C19" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="84">
         <v>7.5</v>
       </c>
-      <c r="E19" s="75">
+      <c r="E19" s="85">
         <v>0.3854166666666667</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="85">
         <v>0.4895833333333333</v>
       </c>
-      <c r="G19" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="82" t="s">
-        <v>131</v>
+      <c r="G19" s="84">
+        <v>2.3</v>
+      </c>
+      <c r="H19" s="92" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="67">
+      <c r="A20" s="77">
         <v>45605.0</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="79">
+      <c r="B20" s="87"/>
+      <c r="C20" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="89">
         <v>7.5</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="90">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F20" s="80">
+      <c r="F20" s="90">
         <v>0.7916666666666666</v>
       </c>
-      <c r="G20" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="77"/>
+      <c r="G20" s="89">
+        <v>3.0</v>
+      </c>
+      <c r="H20" s="87"/>
     </row>
     <row r="21">
-      <c r="A21" s="67">
+      <c r="A21" s="77">
         <v>45606.0</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="74">
+      <c r="B21" s="82"/>
+      <c r="C21" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="84">
         <v>7.5</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="85">
         <v>0.6875</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="85">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G21" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" s="76"/>
+      <c r="G21" s="84">
+        <v>3.3</v>
+      </c>
+      <c r="H21" s="86"/>
     </row>
     <row r="22">
-      <c r="A22" s="67">
+      <c r="A22" s="77">
         <v>45607.0</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="79">
+      <c r="B22" s="87"/>
+      <c r="C22" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="89">
         <v>7.5</v>
       </c>
-      <c r="E22" s="80">
+      <c r="E22" s="90">
         <v>0.7083333333333334</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="90">
         <v>0.9166666666666666</v>
       </c>
-      <c r="G22" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="81" t="s">
-        <v>134</v>
+      <c r="G22" s="89">
+        <v>5.0</v>
+      </c>
+      <c r="H22" s="91" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="67">
+      <c r="A23" s="77">
         <v>45608.0</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="74">
+      <c r="B23" s="82"/>
+      <c r="C23" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="84">
         <v>7.5</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E23" s="85">
         <v>0.71875</v>
       </c>
-      <c r="F23" s="75">
+      <c r="F23" s="85">
         <v>0.8958333333333334</v>
       </c>
-      <c r="G23" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" s="83" t="s">
-        <v>137</v>
+      <c r="G23" s="84">
+        <v>4.15</v>
+      </c>
+      <c r="H23" s="93" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="67">
+      <c r="A24" s="77">
         <v>45609.0</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="79">
+      <c r="B24" s="87"/>
+      <c r="C24" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="89">
         <v>7.5</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="90">
         <v>0.7395833333333334</v>
       </c>
-      <c r="F24" s="80">
+      <c r="F24" s="90">
         <v>0.9166666666666666</v>
       </c>
-      <c r="G24" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" s="81" t="s">
-        <v>112</v>
+      <c r="G24" s="89">
+        <v>4.15</v>
+      </c>
+      <c r="H24" s="91" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="67">
+      <c r="A25" s="77">
         <v>45612.0</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="74">
+      <c r="B25" s="82"/>
+      <c r="C25" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="84">
         <v>7.5</v>
       </c>
-      <c r="E25" s="75">
+      <c r="E25" s="85">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F25" s="75">
+      <c r="F25" s="85">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G25" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" s="83" t="s">
-        <v>140</v>
+      <c r="G25" s="84">
+        <v>8.0</v>
+      </c>
+      <c r="H25" s="93" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="67">
+      <c r="A26" s="77">
         <v>45613.0</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="5" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="D26" s="5">
         <v>6.5</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="78">
         <v>0.4583333333333333</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="78">
         <v>0.75</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H26" s="84" t="s">
+      <c r="G26" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="H26" s="94" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="77">
+        <v>45618.0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E27" s="78">
+        <v>0.4270833333333333</v>
+      </c>
+      <c r="F27" s="78">
+        <v>0.46875</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H27" s="94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="77">
+        <v>45620.0</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="E28" s="78">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="78">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="G28" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="H28" s="94" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="77">
+        <v>45621.0</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E29" s="78">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="F29" s="78">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G29" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="H29" s="94" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="77">
+        <v>45623.0</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="E30" s="78">
+        <v>0.5625</v>
+      </c>
+      <c r="F30" s="78">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H30" s="94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="77">
+        <v>45624.0</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="E31" s="78">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F31" s="78">
+        <v>0.6875</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2.3</v>
+      </c>
+      <c r="H31" s="94" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="77">
+        <v>45625.0</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="E32" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="78">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H32" s="94" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="77">
+        <v>45631.0</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="E33" s="78">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="F33" s="78">
+        <v>0.75</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="77">
+        <v>45634.0</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="E34" s="78">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F34" s="78">
+        <v>0.75</v>
+      </c>
+      <c r="G34" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="77">
+        <v>45637.0</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="E35" s="78">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="F35" s="78">
+        <v>0.625</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="77">
+        <v>45638.0</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="E36" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="78">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="77">
+        <v>45639.0</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E37" s="78">
+        <v>0.75</v>
+      </c>
+      <c r="F37" s="78">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2.3</v>
+      </c>
+      <c r="H37" s="94" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="77">
+        <v>45641.0</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E38" s="78">
+        <v>0.625</v>
+      </c>
+      <c r="F38" s="78">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="G38" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H38" s="94" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="77">
+        <v>45643.0</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="E39" s="78">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F39" s="78">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="77">
+        <v>45644.0</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="E40" s="78">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="F40" s="78">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="77">
+        <v>45645.0</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="D41" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="E41" s="78">
+        <v>0.46875</v>
+      </c>
+      <c r="F41" s="78">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="G41" s="5">
+        <v>4.15</v>
+      </c>
+      <c r="H41" s="94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="77">
+        <v>45646.0</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="95" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E42" s="78">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F42" s="78">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="G42" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="H42" s="94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="77">
+        <v>45648.0</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="95" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E43" s="78">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="F43" s="78">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="H43" s="94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="96">
+        <v>45650.0</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="94">
+        <v>7.0</v>
+      </c>
+      <c r="E44" s="98">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F44" s="98">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="G44" s="94">
+        <v>3.0</v>
+      </c>
+      <c r="H44" s="94" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="96">
+        <v>45652.0</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="94">
+        <v>7.0</v>
+      </c>
+      <c r="E45" s="98">
+        <v>0.75</v>
+      </c>
+      <c r="F45" s="98">
+        <v>0.8125</v>
+      </c>
+      <c r="G45" s="94">
+        <v>1.3</v>
+      </c>
+      <c r="H45" s="94" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="96">
+        <v>45654.0</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="94">
+        <v>7.0</v>
+      </c>
+      <c r="E46" s="98">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="F46" s="98">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="G46" s="94">
+        <v>1.3</v>
+      </c>
+      <c r="H46" s="94" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="96">
+        <v>46020.0</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="94">
+        <v>8.5</v>
+      </c>
+      <c r="E47" s="98">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="F47" s="98">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="G47" s="94">
+        <v>2.0</v>
+      </c>
+      <c r="H47" s="94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="96">
+        <v>46021.0</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="94">
+        <v>8.5</v>
+      </c>
+      <c r="E48" s="98">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="F48" s="98">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G48" s="94">
+        <v>2.3</v>
+      </c>
+      <c r="H48" s="94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="96">
+        <v>45659.0</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="97" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="E49" s="98">
+        <v>0.625</v>
+      </c>
+      <c r="F49" s="98">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="G49" s="94">
+        <v>0.3</v>
+      </c>
+      <c r="H49" s="94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="102">
+        <f>SUM(G2:G49)</f>
+        <v>124.9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A50:F50"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B26"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H19:H21"/>
+    <mergeCell ref="B27:B49"/>
+    <mergeCell ref="H33:H36"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6568,161 +8707,318 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.25"/>
+    <col customWidth="1" min="1" max="1" width="13.63"/>
     <col customWidth="1" min="2" max="2" width="21.25"/>
     <col customWidth="1" min="3" max="3" width="51.5"/>
     <col customWidth="1" min="4" max="4" width="20.25"/>
-    <col customWidth="1" min="5" max="5" width="18.38"/>
-    <col customWidth="1" min="6" max="6" width="22.13"/>
+    <col customWidth="1" min="5" max="5" width="19.63"/>
+    <col customWidth="1" min="6" max="6" width="26.38"/>
     <col customWidth="1" min="7" max="7" width="20.75"/>
     <col customWidth="1" min="8" max="8" width="22.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>43</v>
+      <c r="F1" s="38" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14">
+      <c r="A2" s="103">
         <v>45575.0</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="C2" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="40">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20">
+      <c r="A3" s="104">
         <v>45579.0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="18">
+      <c r="B3" s="105"/>
+      <c r="C3" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="105"/>
+      <c r="E3" s="44">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20">
+      <c r="A4" s="106">
         <v>45579.0</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="18">
+      <c r="B4" s="107"/>
+      <c r="C4" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="107"/>
+      <c r="E4" s="40">
         <v>2.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14">
+      <c r="A5" s="108">
         <v>45580.0</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="C5" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="44">
         <v>1.5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14">
+      <c r="A6" s="103">
         <v>45581.0</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="C6" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="40">
         <v>0.25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14">
+      <c r="A7" s="108">
         <v>45584.0</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="C7" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="44">
         <v>0.75</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14">
+      <c r="A8" s="103">
         <v>45586.0</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="C8" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="40">
         <v>0.5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14">
+      <c r="A9" s="108">
         <v>45606.0</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="C9" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="44">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14">
+      <c r="A10" s="103">
         <v>45610.0</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="18">
+      <c r="C10" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="40">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="14">
+      <c r="A11" s="108">
         <v>45612.0</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="C11" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" s="44">
         <v>5.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="18">
-        <f>SUM(E2:E11)</f>
-        <v>19.5</v>
+      <c r="A12" s="103">
+        <v>45622.0</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="40">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="108">
+        <v>45624.0</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="44">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="103">
+        <v>45625.0</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="40">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="108">
+        <v>45628.0</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="44">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="103">
+        <v>45629.0</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="40">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="108">
+        <v>45630.0</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" s="44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="103">
+        <v>45638.0</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="40">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="108">
+        <v>45641.0</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="44">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="103">
+        <v>45647.0</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="40">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="108">
+        <v>45648.0</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21" s="44">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="103">
+        <v>45655.0</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" s="40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="109">
+        <v>45659.0</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" s="44">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="110">
+        <v>45659.0</v>
+      </c>
+      <c r="C24" s="111" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="111">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" s="112">
+        <f>SUM(E2:E25)</f>
+        <v>52.5</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A24">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:E24">
+      <formula1>AND(ISNUMBER(E2),(NOT(OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D")))))</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>